--- a/legacy data/DS7020 Vacuum Test Legacy.xlsx
+++ b/legacy data/DS7020 Vacuum Test Legacy.xlsx
@@ -6,7 +6,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="921" firstSheet="7" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DS7020 Vacuum Test Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Legacy_DS7020 Vacuum Test" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -7264,7 +7264,7 @@
           <t>Date:</t>
         </is>
       </c>
-      <c r="D1" s="62" t="inlineStr"/>
+      <c r="D1" s="62" t="n"/>
       <c r="E1" s="89" t="inlineStr">
         <is>
           <t>Sample ID:</t>
@@ -7299,7 +7299,7 @@
           <t>Date:</t>
         </is>
       </c>
-      <c r="P1" s="62" t="inlineStr"/>
+      <c r="P1" s="62" t="n"/>
       <c r="Q1" s="89" t="inlineStr">
         <is>
           <t>Sample ID:</t>
@@ -7334,7 +7334,7 @@
           <t>Date:</t>
         </is>
       </c>
-      <c r="AB1" s="62" t="inlineStr"/>
+      <c r="AB1" s="62" t="n"/>
       <c r="AC1" s="89" t="inlineStr">
         <is>
           <t>Sample ID:</t>
@@ -7342,7 +7342,7 @@
       </c>
       <c r="AD1" s="62" t="inlineStr">
         <is>
-          <t>Sample 3</t>
+          <t>CCELL3.0 vertical-3</t>
         </is>
       </c>
       <c r="AE1" s="62" t="n"/>
@@ -7369,7 +7369,7 @@
           <t>Date:</t>
         </is>
       </c>
-      <c r="AN1" s="62" t="inlineStr"/>
+      <c r="AN1" s="62" t="n"/>
       <c r="AO1" s="89" t="inlineStr">
         <is>
           <t>Sample ID:</t>
@@ -7377,7 +7377,7 @@
       </c>
       <c r="AP1" s="62" t="inlineStr">
         <is>
-          <t>CCELL3.0 vertical-3</t>
+          <t>CCELL3.0 flat-1</t>
         </is>
       </c>
       <c r="AQ1" s="62" t="n"/>
@@ -7404,7 +7404,7 @@
           <t>Date:</t>
         </is>
       </c>
-      <c r="AZ1" s="62" t="inlineStr"/>
+      <c r="AZ1" s="62" t="n"/>
       <c r="BA1" s="89" t="inlineStr">
         <is>
           <t>Sample ID:</t>
@@ -7412,7 +7412,7 @@
       </c>
       <c r="BB1" s="62" t="inlineStr">
         <is>
-          <t>Sample 5</t>
+          <t>CCELL3.0 flat-2</t>
         </is>
       </c>
       <c r="BC1" s="62" t="n"/>
@@ -7439,7 +7439,7 @@
           <t>Date:</t>
         </is>
       </c>
-      <c r="BL1" s="62" t="inlineStr"/>
+      <c r="BL1" s="62" t="n"/>
       <c r="BM1" s="89" t="inlineStr">
         <is>
           <t>Sample ID:</t>
@@ -7447,7 +7447,7 @@
       </c>
       <c r="BN1" s="62" t="inlineStr">
         <is>
-          <t>CCELL3.0 flat-1</t>
+          <t>CCELL3.0 flat-3</t>
         </is>
       </c>
       <c r="BO1" s="62" t="n"/>
@@ -7474,7 +7474,7 @@
           <t>Date:</t>
         </is>
       </c>
-      <c r="BX1" s="62" t="inlineStr"/>
+      <c r="BX1" s="62" t="n"/>
       <c r="BY1" s="89" t="inlineStr">
         <is>
           <t>Sample ID:</t>
@@ -7482,7 +7482,7 @@
       </c>
       <c r="BZ1" s="62" t="inlineStr">
         <is>
-          <t>Sample 7</t>
+          <t>CCELL3.0 upright-1</t>
         </is>
       </c>
       <c r="CA1" s="62" t="n"/>
@@ -7509,7 +7509,7 @@
           <t>Date:</t>
         </is>
       </c>
-      <c r="CJ1" s="62" t="inlineStr"/>
+      <c r="CJ1" s="62" t="n"/>
       <c r="CK1" s="89" t="inlineStr">
         <is>
           <t>Sample ID:</t>
@@ -7517,7 +7517,7 @@
       </c>
       <c r="CL1" s="62" t="inlineStr">
         <is>
-          <t>CCELL3.0 flat-2</t>
+          <t>CCELL3.0 upright-2</t>
         </is>
       </c>
       <c r="CM1" s="62" t="n"/>
@@ -7544,7 +7544,7 @@
           <t>Date:</t>
         </is>
       </c>
-      <c r="CV1" s="62" t="inlineStr"/>
+      <c r="CV1" s="62" t="n"/>
       <c r="CW1" s="89" t="inlineStr">
         <is>
           <t>Sample ID:</t>
@@ -7552,7 +7552,7 @@
       </c>
       <c r="CX1" s="62" t="inlineStr">
         <is>
-          <t>Sample 9</t>
+          <t>CCELL3.0 upright-3</t>
         </is>
       </c>
       <c r="CY1" s="62" t="n"/>
@@ -7571,7 +7571,7 @@
       </c>
       <c r="DE1" s="81" t="inlineStr">
         <is>
-          <t>DS7020 Vacuum Test</t>
+          <t>Intense Test</t>
         </is>
       </c>
       <c r="DG1" s="89" t="inlineStr">
@@ -7579,17 +7579,13 @@
           <t>Date:</t>
         </is>
       </c>
-      <c r="DH1" s="62" t="inlineStr"/>
+      <c r="DH1" s="62" t="n"/>
       <c r="DI1" s="89" t="inlineStr">
         <is>
           <t>Sample ID:</t>
         </is>
       </c>
-      <c r="DJ1" s="62" t="inlineStr">
-        <is>
-          <t>CCELL3.0 flat-3</t>
-        </is>
-      </c>
+      <c r="DJ1" s="62" t="n"/>
       <c r="DK1" s="62" t="n"/>
       <c r="DL1" s="62" t="n"/>
       <c r="DM1" s="62" t="n"/>
@@ -7606,7 +7602,7 @@
       </c>
       <c r="DQ1" s="81" t="inlineStr">
         <is>
-          <t>DS7020 Vacuum Test</t>
+          <t>Intense Test</t>
         </is>
       </c>
       <c r="DS1" s="89" t="inlineStr">
@@ -7614,17 +7610,13 @@
           <t>Date:</t>
         </is>
       </c>
-      <c r="DT1" s="62" t="inlineStr"/>
+      <c r="DT1" s="62" t="n"/>
       <c r="DU1" s="89" t="inlineStr">
         <is>
           <t>Sample ID:</t>
         </is>
       </c>
-      <c r="DV1" s="62" t="inlineStr">
-        <is>
-          <t>Sample 11</t>
-        </is>
-      </c>
+      <c r="DV1" s="62" t="n"/>
       <c r="DW1" s="62" t="n"/>
       <c r="DX1" s="62" t="n"/>
       <c r="DY1" s="62" t="n"/>
@@ -7641,7 +7633,7 @@
       </c>
       <c r="EC1" s="81" t="inlineStr">
         <is>
-          <t>DS7020 Vacuum Test</t>
+          <t>Intense Test</t>
         </is>
       </c>
       <c r="EE1" s="89" t="inlineStr">
@@ -7649,17 +7641,13 @@
           <t>Date:</t>
         </is>
       </c>
-      <c r="EF1" s="62" t="inlineStr"/>
+      <c r="EF1" s="62" t="n"/>
       <c r="EG1" s="89" t="inlineStr">
         <is>
           <t>Sample ID:</t>
         </is>
       </c>
-      <c r="EH1" s="62" t="inlineStr">
-        <is>
-          <t>CCELL3.0 upright-1</t>
-        </is>
-      </c>
+      <c r="EH1" s="62" t="n"/>
       <c r="EI1" s="62" t="n"/>
       <c r="EJ1" s="62" t="n"/>
       <c r="EK1" s="62" t="n"/>
@@ -7676,7 +7664,7 @@
       </c>
       <c r="EO1" s="81" t="inlineStr">
         <is>
-          <t>DS7020 Vacuum Test</t>
+          <t>Intense Test</t>
         </is>
       </c>
       <c r="EQ1" s="89" t="inlineStr">
@@ -7684,17 +7672,13 @@
           <t>Date:</t>
         </is>
       </c>
-      <c r="ER1" s="62" t="inlineStr"/>
+      <c r="ER1" s="62" t="n"/>
       <c r="ES1" s="89" t="inlineStr">
         <is>
           <t>Sample ID:</t>
         </is>
       </c>
-      <c r="ET1" s="62" t="inlineStr">
-        <is>
-          <t>Sample 13</t>
-        </is>
-      </c>
+      <c r="ET1" s="62" t="n"/>
       <c r="EU1" s="62" t="n"/>
       <c r="EV1" s="62" t="n"/>
       <c r="EW1" s="62" t="n"/>
@@ -7711,7 +7695,7 @@
       </c>
       <c r="FA1" s="81" t="inlineStr">
         <is>
-          <t>DS7020 Vacuum Test</t>
+          <t>Intense Test</t>
         </is>
       </c>
       <c r="FC1" s="89" t="inlineStr">
@@ -7719,17 +7703,13 @@
           <t>Date:</t>
         </is>
       </c>
-      <c r="FD1" s="62" t="inlineStr"/>
+      <c r="FD1" s="62" t="n"/>
       <c r="FE1" s="89" t="inlineStr">
         <is>
           <t>Sample ID:</t>
         </is>
       </c>
-      <c r="FF1" s="62" t="inlineStr">
-        <is>
-          <t>CCELL3.0 upright-2</t>
-        </is>
-      </c>
+      <c r="FF1" s="62" t="n"/>
       <c r="FG1" s="62" t="n"/>
       <c r="FH1" s="62" t="n"/>
       <c r="FI1" s="62" t="n"/>
@@ -7746,7 +7726,7 @@
       </c>
       <c r="FM1" s="81" t="inlineStr">
         <is>
-          <t>DS7020 Vacuum Test</t>
+          <t>Intense Test</t>
         </is>
       </c>
       <c r="FO1" s="89" t="inlineStr">
@@ -7754,17 +7734,13 @@
           <t>Date:</t>
         </is>
       </c>
-      <c r="FP1" s="62" t="inlineStr"/>
+      <c r="FP1" s="62" t="n"/>
       <c r="FQ1" s="89" t="inlineStr">
         <is>
           <t>Sample ID:</t>
         </is>
       </c>
-      <c r="FR1" s="62" t="inlineStr">
-        <is>
-          <t>Sample 15</t>
-        </is>
-      </c>
+      <c r="FR1" s="62" t="n"/>
       <c r="FS1" s="62" t="n"/>
       <c r="FT1" s="62" t="n"/>
       <c r="FU1" s="62" t="n"/>
@@ -7781,7 +7757,7 @@
       </c>
       <c r="FY1" s="81" t="inlineStr">
         <is>
-          <t>DS7020 Vacuum Test</t>
+          <t>Intense Test</t>
         </is>
       </c>
       <c r="GA1" s="89" t="inlineStr">
@@ -7789,17 +7765,13 @@
           <t>Date:</t>
         </is>
       </c>
-      <c r="GB1" s="62" t="inlineStr"/>
+      <c r="GB1" s="62" t="n"/>
       <c r="GC1" s="89" t="inlineStr">
         <is>
           <t>Sample ID:</t>
         </is>
       </c>
-      <c r="GD1" s="62" t="inlineStr">
-        <is>
-          <t>CCELL3.0 upright-3</t>
-        </is>
-      </c>
+      <c r="GD1" s="62" t="n"/>
       <c r="GE1" s="62" t="n"/>
       <c r="GF1" s="62" t="n"/>
       <c r="GG1" s="62" t="n"/>
@@ -7816,7 +7788,7 @@
       </c>
       <c r="GK1" s="81" t="inlineStr">
         <is>
-          <t>DS7020 Vacuum Test</t>
+          <t>Intense Test</t>
         </is>
       </c>
       <c r="GM1" s="89" t="inlineStr">
@@ -7824,17 +7796,13 @@
           <t>Date:</t>
         </is>
       </c>
-      <c r="GN1" s="62" t="inlineStr"/>
+      <c r="GN1" s="62" t="n"/>
       <c r="GO1" s="89" t="inlineStr">
         <is>
           <t>Sample ID:</t>
         </is>
       </c>
-      <c r="GP1" s="62" t="inlineStr">
-        <is>
-          <t>Sample 17</t>
-        </is>
-      </c>
+      <c r="GP1" s="62" t="n"/>
       <c r="GQ1" s="62" t="n"/>
       <c r="GR1" s="62" t="n"/>
       <c r="GS1" s="62" t="n"/>
@@ -7851,7 +7819,7 @@
       </c>
       <c r="GW1" s="81" t="inlineStr">
         <is>
-          <t>DS7020 Vacuum Test</t>
+          <t>Intense Test</t>
         </is>
       </c>
       <c r="GY1" s="89" t="inlineStr">
@@ -7859,17 +7827,13 @@
           <t>Date:</t>
         </is>
       </c>
-      <c r="GZ1" s="62" t="inlineStr"/>
+      <c r="GZ1" s="62" t="n"/>
       <c r="HA1" s="89" t="inlineStr">
         <is>
           <t>Sample ID:</t>
         </is>
       </c>
-      <c r="HB1" s="62" t="inlineStr">
-        <is>
-          <t>Sample 18</t>
-        </is>
-      </c>
+      <c r="HB1" s="62" t="n"/>
       <c r="HC1" s="62" t="n"/>
       <c r="HD1" s="62" t="n"/>
       <c r="HE1" s="62" t="n"/>
@@ -8015,7 +7979,6 @@
           <t>Media:</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" s="89" t="inlineStr">
         <is>
           <t>Resistance (Ohms):</t>
@@ -8062,7 +8025,6 @@
           <t>Media:</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr"/>
       <c r="O2" s="89" t="inlineStr">
         <is>
           <t>Resistance (Ohms):</t>
@@ -8109,13 +8071,14 @@
           <t>Media:</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr"/>
       <c r="AA2" s="89" t="inlineStr">
         <is>
           <t>Resistance (Ohms):</t>
         </is>
       </c>
-      <c r="AB2" s="62" t="inlineStr"/>
+      <c r="AB2" s="62" t="n">
+        <v>2.5</v>
+      </c>
       <c r="AC2" s="89" t="inlineStr">
         <is>
           <t>Power:</t>
@@ -8130,7 +8093,11 @@
           <t>Puffing Regime:</t>
         </is>
       </c>
-      <c r="AF2" s="62" t="inlineStr"/>
+      <c r="AF2" s="62" t="inlineStr">
+        <is>
+          <t>60mL/3s/30s</t>
+        </is>
+      </c>
       <c r="AG2" s="89" t="inlineStr">
         <is>
           <t>Usage Efficiency</t>
@@ -8150,7 +8117,6 @@
           <t>Media:</t>
         </is>
       </c>
-      <c r="AL2" t="inlineStr"/>
       <c r="AM2" s="89" t="inlineStr">
         <is>
           <t>Resistance (Ohms):</t>
@@ -8197,13 +8163,14 @@
           <t>Media:</t>
         </is>
       </c>
-      <c r="AX2" t="inlineStr"/>
       <c r="AY2" s="89" t="inlineStr">
         <is>
           <t>Resistance (Ohms):</t>
         </is>
       </c>
-      <c r="AZ2" s="62" t="inlineStr"/>
+      <c r="AZ2" s="62" t="n">
+        <v>2.5</v>
+      </c>
       <c r="BA2" s="89" t="inlineStr">
         <is>
           <t>Power:</t>
@@ -8218,7 +8185,11 @@
           <t>Puffing Regime:</t>
         </is>
       </c>
-      <c r="BD2" s="62" t="inlineStr"/>
+      <c r="BD2" s="62" t="inlineStr">
+        <is>
+          <t>60mL/3s/30s</t>
+        </is>
+      </c>
       <c r="BE2" s="89" t="inlineStr">
         <is>
           <t>Usage Efficiency</t>
@@ -8238,7 +8209,6 @@
           <t>Media:</t>
         </is>
       </c>
-      <c r="BJ2" t="inlineStr"/>
       <c r="BK2" s="89" t="inlineStr">
         <is>
           <t>Resistance (Ohms):</t>
@@ -8285,13 +8255,14 @@
           <t>Media:</t>
         </is>
       </c>
-      <c r="BV2" t="inlineStr"/>
       <c r="BW2" s="89" t="inlineStr">
         <is>
           <t>Resistance (Ohms):</t>
         </is>
       </c>
-      <c r="BX2" s="62" t="inlineStr"/>
+      <c r="BX2" s="62" t="n">
+        <v>2.5</v>
+      </c>
       <c r="BY2" s="89" t="inlineStr">
         <is>
           <t>Power:</t>
@@ -8306,7 +8277,11 @@
           <t>Puffing Regime:</t>
         </is>
       </c>
-      <c r="CB2" s="62" t="inlineStr"/>
+      <c r="CB2" s="62" t="inlineStr">
+        <is>
+          <t>60mL/3s/30s</t>
+        </is>
+      </c>
       <c r="CC2" s="89" t="inlineStr">
         <is>
           <t>Usage Efficiency</t>
@@ -8326,7 +8301,6 @@
           <t>Media:</t>
         </is>
       </c>
-      <c r="CH2" t="inlineStr"/>
       <c r="CI2" s="89" t="inlineStr">
         <is>
           <t>Resistance (Ohms):</t>
@@ -8373,13 +8347,14 @@
           <t>Media:</t>
         </is>
       </c>
-      <c r="CT2" t="inlineStr"/>
       <c r="CU2" s="89" t="inlineStr">
         <is>
           <t>Resistance (Ohms):</t>
         </is>
       </c>
-      <c r="CV2" s="62" t="inlineStr"/>
+      <c r="CV2" s="62" t="n">
+        <v>2.5</v>
+      </c>
       <c r="CW2" s="89" t="inlineStr">
         <is>
           <t>Power:</t>
@@ -8394,7 +8369,11 @@
           <t>Puffing Regime:</t>
         </is>
       </c>
-      <c r="CZ2" s="62" t="inlineStr"/>
+      <c r="CZ2" s="62" t="inlineStr">
+        <is>
+          <t>60mL/3s/30s</t>
+        </is>
+      </c>
       <c r="DA2" s="89" t="inlineStr">
         <is>
           <t>Usage Efficiency</t>
@@ -8414,15 +8393,12 @@
           <t>Media:</t>
         </is>
       </c>
-      <c r="DF2" t="inlineStr"/>
       <c r="DG2" s="89" t="inlineStr">
         <is>
           <t>Resistance (Ohms):</t>
         </is>
       </c>
-      <c r="DH2" s="62" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="DH2" s="62" t="n"/>
       <c r="DI2" s="89" t="inlineStr">
         <is>
           <t>Power:</t>
@@ -8439,7 +8415,7 @@
       </c>
       <c r="DL2" s="62" t="inlineStr">
         <is>
-          <t>60mL/3s/30s</t>
+          <t>200mL/3s/30s</t>
         </is>
       </c>
       <c r="DM2" s="89" t="inlineStr">
@@ -8461,13 +8437,12 @@
           <t>Media:</t>
         </is>
       </c>
-      <c r="DR2" t="inlineStr"/>
       <c r="DS2" s="89" t="inlineStr">
         <is>
           <t>Resistance (Ohms):</t>
         </is>
       </c>
-      <c r="DT2" s="62" t="inlineStr"/>
+      <c r="DT2" s="62" t="n"/>
       <c r="DU2" s="89" t="inlineStr">
         <is>
           <t>Power:</t>
@@ -8482,7 +8457,11 @@
           <t>Puffing Regime:</t>
         </is>
       </c>
-      <c r="DX2" s="62" t="inlineStr"/>
+      <c r="DX2" s="62" t="inlineStr">
+        <is>
+          <t>200mL/3s/30s</t>
+        </is>
+      </c>
       <c r="DY2" s="89" t="inlineStr">
         <is>
           <t>Usage Efficiency</t>
@@ -8502,15 +8481,12 @@
           <t>Media:</t>
         </is>
       </c>
-      <c r="ED2" t="inlineStr"/>
       <c r="EE2" s="89" t="inlineStr">
         <is>
           <t>Resistance (Ohms):</t>
         </is>
       </c>
-      <c r="EF2" s="62" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="EF2" s="62" t="n"/>
       <c r="EG2" s="89" t="inlineStr">
         <is>
           <t>Power:</t>
@@ -8527,7 +8503,7 @@
       </c>
       <c r="EJ2" s="62" t="inlineStr">
         <is>
-          <t>60mL/3s/30s</t>
+          <t>200mL/3s/30s</t>
         </is>
       </c>
       <c r="EK2" s="89" t="inlineStr">
@@ -8549,13 +8525,12 @@
           <t>Media:</t>
         </is>
       </c>
-      <c r="EP2" t="inlineStr"/>
       <c r="EQ2" s="89" t="inlineStr">
         <is>
           <t>Resistance (Ohms):</t>
         </is>
       </c>
-      <c r="ER2" s="62" t="inlineStr"/>
+      <c r="ER2" s="62" t="n"/>
       <c r="ES2" s="89" t="inlineStr">
         <is>
           <t>Power:</t>
@@ -8570,7 +8545,11 @@
           <t>Puffing Regime:</t>
         </is>
       </c>
-      <c r="EV2" s="62" t="inlineStr"/>
+      <c r="EV2" s="62" t="inlineStr">
+        <is>
+          <t>200mL/3s/30s</t>
+        </is>
+      </c>
       <c r="EW2" s="89" t="inlineStr">
         <is>
           <t>Usage Efficiency</t>
@@ -8590,15 +8569,12 @@
           <t>Media:</t>
         </is>
       </c>
-      <c r="FB2" t="inlineStr"/>
       <c r="FC2" s="89" t="inlineStr">
         <is>
           <t>Resistance (Ohms):</t>
         </is>
       </c>
-      <c r="FD2" s="62" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="FD2" s="62" t="n"/>
       <c r="FE2" s="89" t="inlineStr">
         <is>
           <t>Power:</t>
@@ -8615,7 +8591,7 @@
       </c>
       <c r="FH2" s="62" t="inlineStr">
         <is>
-          <t>60mL/3s/30s</t>
+          <t>200mL/3s/30s</t>
         </is>
       </c>
       <c r="FI2" s="89" t="inlineStr">
@@ -8637,13 +8613,12 @@
           <t>Media:</t>
         </is>
       </c>
-      <c r="FN2" t="inlineStr"/>
       <c r="FO2" s="89" t="inlineStr">
         <is>
           <t>Resistance (Ohms):</t>
         </is>
       </c>
-      <c r="FP2" s="62" t="inlineStr"/>
+      <c r="FP2" s="62" t="n"/>
       <c r="FQ2" s="89" t="inlineStr">
         <is>
           <t>Power:</t>
@@ -8658,7 +8633,11 @@
           <t>Puffing Regime:</t>
         </is>
       </c>
-      <c r="FT2" s="62" t="inlineStr"/>
+      <c r="FT2" s="62" t="inlineStr">
+        <is>
+          <t>200mL/3s/30s</t>
+        </is>
+      </c>
       <c r="FU2" s="89" t="inlineStr">
         <is>
           <t>Usage Efficiency</t>
@@ -8678,15 +8657,12 @@
           <t>Media:</t>
         </is>
       </c>
-      <c r="FZ2" t="inlineStr"/>
       <c r="GA2" s="89" t="inlineStr">
         <is>
           <t>Resistance (Ohms):</t>
         </is>
       </c>
-      <c r="GB2" s="62" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="GB2" s="62" t="n"/>
       <c r="GC2" s="89" t="inlineStr">
         <is>
           <t>Power:</t>
@@ -8703,7 +8679,7 @@
       </c>
       <c r="GF2" s="62" t="inlineStr">
         <is>
-          <t>60mL/3s/30s</t>
+          <t>200mL/3s/30s</t>
         </is>
       </c>
       <c r="GG2" s="89" t="inlineStr">
@@ -8725,13 +8701,12 @@
           <t>Media:</t>
         </is>
       </c>
-      <c r="GL2" t="inlineStr"/>
       <c r="GM2" s="89" t="inlineStr">
         <is>
           <t>Resistance (Ohms):</t>
         </is>
       </c>
-      <c r="GN2" s="62" t="inlineStr"/>
+      <c r="GN2" s="62" t="n"/>
       <c r="GO2" s="89" t="inlineStr">
         <is>
           <t>Power:</t>
@@ -8746,7 +8721,11 @@
           <t>Puffing Regime:</t>
         </is>
       </c>
-      <c r="GR2" s="62" t="inlineStr"/>
+      <c r="GR2" s="62" t="inlineStr">
+        <is>
+          <t>200mL/3s/30s</t>
+        </is>
+      </c>
       <c r="GS2" s="89" t="inlineStr">
         <is>
           <t>Usage Efficiency</t>
@@ -8766,13 +8745,12 @@
           <t>Media:</t>
         </is>
       </c>
-      <c r="GX2" t="inlineStr"/>
       <c r="GY2" s="89" t="inlineStr">
         <is>
           <t>Resistance (Ohms):</t>
         </is>
       </c>
-      <c r="GZ2" s="62" t="inlineStr"/>
+      <c r="GZ2" s="62" t="n"/>
       <c r="HA2" s="89" t="inlineStr">
         <is>
           <t>Power:</t>
@@ -8787,7 +8765,11 @@
           <t>Puffing Regime:</t>
         </is>
       </c>
-      <c r="HD2" s="62" t="inlineStr"/>
+      <c r="HD2" s="62" t="inlineStr">
+        <is>
+          <t>200mL/3s/30s</t>
+        </is>
+      </c>
       <c r="HE2" s="89" t="inlineStr">
         <is>
           <t>Usage Efficiency</t>
@@ -9009,7 +8991,7 @@
           <t>Initial Oil Mass:</t>
         </is>
       </c>
-      <c r="H3" s="62" t="inlineStr"/>
+      <c r="H3" s="62" t="n"/>
       <c r="I3" s="101">
         <f t="array" ref="I3">IFERROR(((IF(I5&lt;&gt;"", I5*A5, 0) + SUMPRODUCT(--(I6:I115&lt;&gt;""), I6:I115, (A6:A115-A5:A114)))/1000)/H3, "")</f>
         <v/>
@@ -9052,7 +9034,7 @@
           <t>Initial Oil Mass:</t>
         </is>
       </c>
-      <c r="T3" s="62" t="inlineStr"/>
+      <c r="T3" s="62" t="n"/>
       <c r="U3" s="101">
         <f t="array" ref="U3">IFERROR(((IF(U5&lt;&gt;"", U5*M5, 0) + SUMPRODUCT(--(U6:U115&lt;&gt;""), U6:U115, (M6:M115-M5:M114)))/1000)/T3, "")</f>
         <v/>
@@ -9071,7 +9053,11 @@
           <t>Viscosity:</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>500kcp</t>
+        </is>
+      </c>
       <c r="AA3" s="89" t="inlineStr">
         <is>
           <t>Tester:</t>
@@ -9083,13 +9069,15 @@
           <t>Voltage:</t>
         </is>
       </c>
-      <c r="AD3" s="62" t="inlineStr"/>
+      <c r="AD3" s="62" t="n">
+        <v>3.2</v>
+      </c>
       <c r="AE3" s="89" t="inlineStr">
         <is>
           <t>Initial Oil Mass:</t>
         </is>
       </c>
-      <c r="AF3" s="62" t="inlineStr"/>
+      <c r="AF3" s="62" t="n"/>
       <c r="AG3" s="101">
         <f t="array" ref="AG3">IFERROR(((IF(AG5&lt;&gt;"", AG5*Y5, 0) + SUMPRODUCT(--(AG6:AG115&lt;&gt;""), AG6:AG115, (Y6:Y115-Y5:Y114)))/1000)/AF3, "")</f>
         <v/>
@@ -9132,7 +9120,7 @@
           <t>Initial Oil Mass:</t>
         </is>
       </c>
-      <c r="AR3" s="62" t="inlineStr"/>
+      <c r="AR3" s="62" t="n"/>
       <c r="AS3" s="101">
         <f t="array" ref="AS3">IFERROR(((IF(AS5&lt;&gt;"", AS5*AK5, 0) + SUMPRODUCT(--(AS6:AS115&lt;&gt;""), AS6:AS115, (AK6:AK115-AK5:AK114)))/1000)/AR3, "")</f>
         <v/>
@@ -9151,7 +9139,11 @@
           <t>Viscosity:</t>
         </is>
       </c>
-      <c r="AX3" t="inlineStr"/>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>500kcp</t>
+        </is>
+      </c>
       <c r="AY3" s="89" t="inlineStr">
         <is>
           <t>Tester:</t>
@@ -9163,13 +9155,15 @@
           <t>Voltage:</t>
         </is>
       </c>
-      <c r="BB3" s="62" t="inlineStr"/>
+      <c r="BB3" s="62" t="n">
+        <v>3.2</v>
+      </c>
       <c r="BC3" s="89" t="inlineStr">
         <is>
           <t>Initial Oil Mass:</t>
         </is>
       </c>
-      <c r="BD3" s="62" t="inlineStr"/>
+      <c r="BD3" s="62" t="n"/>
       <c r="BE3" s="101">
         <f t="array" ref="BE3">IFERROR(((IF(BE5&lt;&gt;"", BE5*AW5, 0) + SUMPRODUCT(--(BE6:BE115&lt;&gt;""), BE6:BE115, (AW6:AW115-AW5:AW114)))/1000)/BD3, "")</f>
         <v/>
@@ -9212,7 +9206,7 @@
           <t>Initial Oil Mass:</t>
         </is>
       </c>
-      <c r="BP3" s="62" t="inlineStr"/>
+      <c r="BP3" s="62" t="n"/>
       <c r="BQ3" s="101">
         <f t="array" ref="BQ3">IFERROR(((IF(BQ5&lt;&gt;"", BQ5*BI5, 0) + SUMPRODUCT(--(BQ6:BQ115&lt;&gt;""), BQ6:BQ115, (BI6:BI115-BI5:BI114)))/1000)/BP3, "")</f>
         <v/>
@@ -9231,7 +9225,11 @@
           <t>Viscosity:</t>
         </is>
       </c>
-      <c r="BV3" t="inlineStr"/>
+      <c r="BV3" t="inlineStr">
+        <is>
+          <t>500kcp</t>
+        </is>
+      </c>
       <c r="BW3" s="89" t="inlineStr">
         <is>
           <t>Tester:</t>
@@ -9243,13 +9241,15 @@
           <t>Voltage:</t>
         </is>
       </c>
-      <c r="BZ3" s="62" t="inlineStr"/>
+      <c r="BZ3" s="62" t="n">
+        <v>3.2</v>
+      </c>
       <c r="CA3" s="89" t="inlineStr">
         <is>
           <t>Initial Oil Mass:</t>
         </is>
       </c>
-      <c r="CB3" s="62" t="inlineStr"/>
+      <c r="CB3" s="62" t="n"/>
       <c r="CC3" s="101">
         <f t="array" ref="CC3">IFERROR(((IF(CC5&lt;&gt;"", CC5*BU5, 0) + SUMPRODUCT(--(CC6:CC115&lt;&gt;""), CC6:CC115, (BU6:BU115-BU5:BU114)))/1000)/CB3, "")</f>
         <v/>
@@ -9292,7 +9292,7 @@
           <t>Initial Oil Mass:</t>
         </is>
       </c>
-      <c r="CN3" s="62" t="inlineStr"/>
+      <c r="CN3" s="62" t="n"/>
       <c r="CO3" s="101">
         <f t="array" ref="CO3">IFERROR(((IF(CO5&lt;&gt;"", CO5*CG5, 0) + SUMPRODUCT(--(CO6:CO115&lt;&gt;""), CO6:CO115, (CG6:CG115-CG5:CG114)))/1000)/CN3, "")</f>
         <v/>
@@ -9311,7 +9311,11 @@
           <t>Viscosity:</t>
         </is>
       </c>
-      <c r="CT3" t="inlineStr"/>
+      <c r="CT3" t="inlineStr">
+        <is>
+          <t>500kcp</t>
+        </is>
+      </c>
       <c r="CU3" s="89" t="inlineStr">
         <is>
           <t>Tester:</t>
@@ -9323,13 +9327,15 @@
           <t>Voltage:</t>
         </is>
       </c>
-      <c r="CX3" s="62" t="inlineStr"/>
+      <c r="CX3" s="62" t="n">
+        <v>3.2</v>
+      </c>
       <c r="CY3" s="89" t="inlineStr">
         <is>
           <t>Initial Oil Mass:</t>
         </is>
       </c>
-      <c r="CZ3" s="62" t="inlineStr"/>
+      <c r="CZ3" s="62" t="n"/>
       <c r="DA3" s="101">
         <f t="array" ref="DA3">IFERROR(((IF(DA5&lt;&gt;"", DA5*CS5, 0) + SUMPRODUCT(--(DA6:DA115&lt;&gt;""), DA6:DA115, (CS6:CS115-CS5:CS114)))/1000)/CZ3, "")</f>
         <v/>
@@ -9348,11 +9354,6 @@
           <t>Viscosity:</t>
         </is>
       </c>
-      <c r="DF3" t="inlineStr">
-        <is>
-          <t>500kcp</t>
-        </is>
-      </c>
       <c r="DG3" s="89" t="inlineStr">
         <is>
           <t>Tester:</t>
@@ -9364,15 +9365,13 @@
           <t>Voltage:</t>
         </is>
       </c>
-      <c r="DJ3" s="62" t="n">
-        <v>3.2</v>
-      </c>
+      <c r="DJ3" s="62" t="n"/>
       <c r="DK3" s="89" t="inlineStr">
         <is>
           <t>Initial Oil Mass:</t>
         </is>
       </c>
-      <c r="DL3" s="62" t="inlineStr"/>
+      <c r="DL3" s="62" t="n"/>
       <c r="DM3" s="101">
         <f t="array" ref="DM3">IFERROR(((IF(DM5&lt;&gt;"", DM5*DE5, 0) + SUMPRODUCT(--(DM6:DM115&lt;&gt;""), DM6:DM115, (DE6:DE115-DE5:DE114)))/1000)/DL3, "")</f>
         <v/>
@@ -9391,7 +9390,6 @@
           <t>Viscosity:</t>
         </is>
       </c>
-      <c r="DR3" t="inlineStr"/>
       <c r="DS3" s="89" t="inlineStr">
         <is>
           <t>Tester:</t>
@@ -9403,13 +9401,13 @@
           <t>Voltage:</t>
         </is>
       </c>
-      <c r="DV3" s="62" t="inlineStr"/>
+      <c r="DV3" s="62" t="n"/>
       <c r="DW3" s="89" t="inlineStr">
         <is>
           <t>Initial Oil Mass:</t>
         </is>
       </c>
-      <c r="DX3" s="62" t="inlineStr"/>
+      <c r="DX3" s="62" t="n"/>
       <c r="DY3" s="101">
         <f t="array" ref="DY3">IFERROR(((IF(DY5&lt;&gt;"", DY5*DQ5, 0) + SUMPRODUCT(--(DY6:DY115&lt;&gt;""), DY6:DY115, (DQ6:DQ115-DQ5:DQ114)))/1000)/DX3, "")</f>
         <v/>
@@ -9428,11 +9426,6 @@
           <t>Viscosity:</t>
         </is>
       </c>
-      <c r="ED3" t="inlineStr">
-        <is>
-          <t>500kcp</t>
-        </is>
-      </c>
       <c r="EE3" s="89" t="inlineStr">
         <is>
           <t>Tester:</t>
@@ -9444,15 +9437,13 @@
           <t>Voltage:</t>
         </is>
       </c>
-      <c r="EH3" s="62" t="n">
-        <v>3.2</v>
-      </c>
+      <c r="EH3" s="62" t="n"/>
       <c r="EI3" s="89" t="inlineStr">
         <is>
           <t>Initial Oil Mass:</t>
         </is>
       </c>
-      <c r="EJ3" s="62" t="inlineStr"/>
+      <c r="EJ3" s="62" t="n"/>
       <c r="EK3" s="101">
         <f t="array" ref="EK3">IFERROR(((IF(EK5&lt;&gt;"", EK5*EC5, 0) + SUMPRODUCT(--(EK6:EK115&lt;&gt;""), EK6:EK115, (EC6:EC115-EC5:EC114)))/1000)/EJ3, "")</f>
         <v/>
@@ -9471,7 +9462,6 @@
           <t>Viscosity:</t>
         </is>
       </c>
-      <c r="EP3" t="inlineStr"/>
       <c r="EQ3" s="89" t="inlineStr">
         <is>
           <t>Tester:</t>
@@ -9483,13 +9473,13 @@
           <t>Voltage:</t>
         </is>
       </c>
-      <c r="ET3" s="62" t="inlineStr"/>
+      <c r="ET3" s="62" t="n"/>
       <c r="EU3" s="89" t="inlineStr">
         <is>
           <t>Initial Oil Mass:</t>
         </is>
       </c>
-      <c r="EV3" s="62" t="inlineStr"/>
+      <c r="EV3" s="62" t="n"/>
       <c r="EW3" s="101">
         <f t="array" ref="EW3">IFERROR(((IF(EW5&lt;&gt;"", EW5*EO5, 0) + SUMPRODUCT(--(EW6:EW115&lt;&gt;""), EW6:EW115, (EO6:EO115-EO5:EO114)))/1000)/EV3, "")</f>
         <v/>
@@ -9508,11 +9498,6 @@
           <t>Viscosity:</t>
         </is>
       </c>
-      <c r="FB3" t="inlineStr">
-        <is>
-          <t>500kcp</t>
-        </is>
-      </c>
       <c r="FC3" s="89" t="inlineStr">
         <is>
           <t>Tester:</t>
@@ -9524,15 +9509,13 @@
           <t>Voltage:</t>
         </is>
       </c>
-      <c r="FF3" s="62" t="n">
-        <v>3.2</v>
-      </c>
+      <c r="FF3" s="62" t="n"/>
       <c r="FG3" s="89" t="inlineStr">
         <is>
           <t>Initial Oil Mass:</t>
         </is>
       </c>
-      <c r="FH3" s="62" t="inlineStr"/>
+      <c r="FH3" s="62" t="n"/>
       <c r="FI3" s="101">
         <f t="array" ref="FI3">IFERROR(((IF(FI5&lt;&gt;"", FI5*FA5, 0) + SUMPRODUCT(--(FI6:FI115&lt;&gt;""), FI6:FI115, (FA6:FA115-FA5:FA114)))/1000)/FH3, "")</f>
         <v/>
@@ -9551,7 +9534,6 @@
           <t>Viscosity:</t>
         </is>
       </c>
-      <c r="FN3" t="inlineStr"/>
       <c r="FO3" s="89" t="inlineStr">
         <is>
           <t>Tester:</t>
@@ -9563,13 +9545,13 @@
           <t>Voltage:</t>
         </is>
       </c>
-      <c r="FR3" s="62" t="inlineStr"/>
+      <c r="FR3" s="62" t="n"/>
       <c r="FS3" s="89" t="inlineStr">
         <is>
           <t>Initial Oil Mass:</t>
         </is>
       </c>
-      <c r="FT3" s="62" t="inlineStr"/>
+      <c r="FT3" s="62" t="n"/>
       <c r="FU3" s="101">
         <f t="array" ref="FU3">IFERROR(((IF(FU5&lt;&gt;"", FU5*FM5, 0) + SUMPRODUCT(--(FU6:FU115&lt;&gt;""), FU6:FU115, (FM6:FM115-FM5:FM114)))/1000)/FT3, "")</f>
         <v/>
@@ -9588,11 +9570,6 @@
           <t>Viscosity:</t>
         </is>
       </c>
-      <c r="FZ3" t="inlineStr">
-        <is>
-          <t>500kcp</t>
-        </is>
-      </c>
       <c r="GA3" s="89" t="inlineStr">
         <is>
           <t>Tester:</t>
@@ -9604,15 +9581,13 @@
           <t>Voltage:</t>
         </is>
       </c>
-      <c r="GD3" s="62" t="n">
-        <v>3.2</v>
-      </c>
+      <c r="GD3" s="62" t="n"/>
       <c r="GE3" s="89" t="inlineStr">
         <is>
           <t>Initial Oil Mass:</t>
         </is>
       </c>
-      <c r="GF3" s="62" t="inlineStr"/>
+      <c r="GF3" s="62" t="n"/>
       <c r="GG3" s="101">
         <f t="array" ref="GG3">IFERROR(((IF(GG5&lt;&gt;"", GG5*FY5, 0) + SUMPRODUCT(--(GG6:GG115&lt;&gt;""), GG6:GG115, (FY6:FY115-FY5:FY114)))/1000)/GF3, "")</f>
         <v/>
@@ -9631,7 +9606,6 @@
           <t>Viscosity:</t>
         </is>
       </c>
-      <c r="GL3" t="inlineStr"/>
       <c r="GM3" s="89" t="inlineStr">
         <is>
           <t>Tester:</t>
@@ -9643,13 +9617,13 @@
           <t>Voltage:</t>
         </is>
       </c>
-      <c r="GP3" s="62" t="inlineStr"/>
+      <c r="GP3" s="62" t="n"/>
       <c r="GQ3" s="89" t="inlineStr">
         <is>
           <t>Initial Oil Mass:</t>
         </is>
       </c>
-      <c r="GR3" s="62" t="inlineStr"/>
+      <c r="GR3" s="62" t="n"/>
       <c r="GS3" s="101">
         <f t="array" ref="GS3">IFERROR(((IF(GS5&lt;&gt;"", GS5*GK5, 0) + SUMPRODUCT(--(GS6:GS115&lt;&gt;""), GS6:GS115, (GK6:GK115-GK5:GK114)))/1000)/GR3, "")</f>
         <v/>
@@ -9668,7 +9642,6 @@
           <t>Viscosity:</t>
         </is>
       </c>
-      <c r="GX3" t="inlineStr"/>
       <c r="GY3" s="89" t="inlineStr">
         <is>
           <t>Tester:</t>
@@ -9680,13 +9653,13 @@
           <t>Voltage:</t>
         </is>
       </c>
-      <c r="HB3" s="62" t="inlineStr"/>
+      <c r="HB3" s="62" t="n"/>
       <c r="HC3" s="89" t="inlineStr">
         <is>
           <t>Initial Oil Mass:</t>
         </is>
       </c>
-      <c r="HD3" s="62" t="inlineStr"/>
+      <c r="HD3" s="62" t="n"/>
       <c r="HE3" s="101">
         <f t="array" ref="HE3">IFERROR(((IF(HE5&lt;&gt;"", HE5*GW5, 0) + SUMPRODUCT(--(HE6:HE115&lt;&gt;""), HE6:HE115, (GW6:GW115-GW5:GW114)))/1000)/HD3, "")</f>
         <v/>
@@ -9846,20 +9819,14 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>puffs</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Before weight/g</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>After weight/g</t>
-        </is>
+      <c r="A4" t="n">
+        <v>10</v>
+      </c>
+      <c r="B4" t="n">
+        <v>29.7307</v>
+      </c>
+      <c r="C4" t="n">
+        <v>29.7046</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -9873,7 +9840,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Smell</t>
+          <t>None</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -9883,13 +9850,11 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Notes</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>TPM (mg/puff)</t>
-        </is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>2.609999999999957</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -9906,20 +9871,14 @@
           <t>Rolling Average TPM</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>puffs</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>Before weight/g</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>After weight/g</t>
-        </is>
+      <c r="M4" t="n">
+        <v>10</v>
+      </c>
+      <c r="N4" t="n">
+        <v>29.8559</v>
+      </c>
+      <c r="O4" t="n">
+        <v>29.8283</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
@@ -9933,7 +9892,7 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Smell</t>
+          <t>None</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -9943,13 +9902,11 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>Notes</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>TPM (mg/puff)</t>
-        </is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="U4" t="n">
+        <v>2.759999999999962</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -9966,20 +9923,14 @@
           <t>Rolling Average TPM</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>puffs</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>Before weight/g</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>After weight/g</t>
-        </is>
+      <c r="Y4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>29.7202</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>29.6862</v>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
@@ -9993,7 +9944,7 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>Smell</t>
+          <t>None</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
@@ -10003,13 +9954,11 @@
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>Notes</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>TPM (mg/puff)</t>
-        </is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AG4" t="n">
+        <v>3.399999999999892</v>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
@@ -10026,20 +9975,14 @@
           <t>Rolling Average TPM</t>
         </is>
       </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>puffs</t>
-        </is>
-      </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>Before weight/g</t>
-        </is>
-      </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>After weight/g</t>
-        </is>
+      <c r="AK4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>29.6988</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>29.6653</v>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
@@ -10053,7 +9996,7 @@
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>Smell</t>
+          <t>None</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
@@ -10063,13 +10006,11 @@
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>Notes</t>
-        </is>
-      </c>
-      <c r="AS4" t="inlineStr">
-        <is>
-          <t>TPM (mg/puff)</t>
-        </is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AS4" t="n">
+        <v>3.350000000000009</v>
       </c>
       <c r="AT4" t="inlineStr">
         <is>
@@ -10086,20 +10027,14 @@
           <t>Rolling Average TPM</t>
         </is>
       </c>
-      <c r="AW4" t="inlineStr">
-        <is>
-          <t>puffs</t>
-        </is>
-      </c>
-      <c r="AX4" t="inlineStr">
-        <is>
-          <t>Before weight/g</t>
-        </is>
-      </c>
-      <c r="AY4" t="inlineStr">
-        <is>
-          <t>After weight/g</t>
-        </is>
+      <c r="AW4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>29.7843</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>29.7554</v>
       </c>
       <c r="AZ4" t="inlineStr">
         <is>
@@ -10113,7 +10048,7 @@
       </c>
       <c r="BB4" t="inlineStr">
         <is>
-          <t>Smell</t>
+          <t>None</t>
         </is>
       </c>
       <c r="BC4" t="inlineStr">
@@ -10123,13 +10058,11 @@
       </c>
       <c r="BD4" t="inlineStr">
         <is>
-          <t>Notes</t>
-        </is>
-      </c>
-      <c r="BE4" t="inlineStr">
-        <is>
-          <t>TPM (mg/puff)</t>
-        </is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="BE4" t="n">
+        <v>2.890000000000015</v>
       </c>
       <c r="BF4" t="inlineStr">
         <is>
@@ -10146,20 +10079,14 @@
           <t>Rolling Average TPM</t>
         </is>
       </c>
-      <c r="BI4" t="inlineStr">
-        <is>
-          <t>puffs</t>
-        </is>
-      </c>
-      <c r="BJ4" t="inlineStr">
-        <is>
-          <t>Before weight/g</t>
-        </is>
-      </c>
-      <c r="BK4" t="inlineStr">
-        <is>
-          <t>After weight/g</t>
-        </is>
+      <c r="BI4" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>29.7444</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>29.711</v>
       </c>
       <c r="BL4" t="inlineStr">
         <is>
@@ -10173,7 +10100,7 @@
       </c>
       <c r="BN4" t="inlineStr">
         <is>
-          <t>Smell</t>
+          <t>None</t>
         </is>
       </c>
       <c r="BO4" t="inlineStr">
@@ -10183,13 +10110,11 @@
       </c>
       <c r="BP4" t="inlineStr">
         <is>
-          <t>Notes</t>
-        </is>
-      </c>
-      <c r="BQ4" t="inlineStr">
-        <is>
-          <t>TPM (mg/puff)</t>
-        </is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="BQ4" t="n">
+        <v>3.340000000000032</v>
       </c>
       <c r="BR4" t="inlineStr">
         <is>
@@ -10206,20 +10131,14 @@
           <t>Rolling Average TPM</t>
         </is>
       </c>
-      <c r="BU4" t="inlineStr">
-        <is>
-          <t>puffs</t>
-        </is>
-      </c>
-      <c r="BV4" t="inlineStr">
-        <is>
-          <t>Before weight/g</t>
-        </is>
-      </c>
-      <c r="BW4" t="inlineStr">
-        <is>
-          <t>After weight/g</t>
-        </is>
+      <c r="BU4" t="n">
+        <v>10</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>29.715</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>29.6848</v>
       </c>
       <c r="BX4" t="inlineStr">
         <is>
@@ -10233,7 +10152,7 @@
       </c>
       <c r="BZ4" t="inlineStr">
         <is>
-          <t>Smell</t>
+          <t>None</t>
         </is>
       </c>
       <c r="CA4" t="inlineStr">
@@ -10243,13 +10162,11 @@
       </c>
       <c r="CB4" t="inlineStr">
         <is>
-          <t>Notes</t>
-        </is>
-      </c>
-      <c r="CC4" t="inlineStr">
-        <is>
-          <t>TPM (mg/puff)</t>
-        </is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="CC4" t="n">
+        <v>3.020000000000067</v>
       </c>
       <c r="CD4" t="inlineStr">
         <is>
@@ -10266,20 +10183,14 @@
           <t>Rolling Average TPM</t>
         </is>
       </c>
-      <c r="CG4" t="inlineStr">
-        <is>
-          <t>puffs</t>
-        </is>
-      </c>
-      <c r="CH4" t="inlineStr">
-        <is>
-          <t>Before weight/g</t>
-        </is>
-      </c>
-      <c r="CI4" t="inlineStr">
-        <is>
-          <t>After weight/g</t>
-        </is>
+      <c r="CG4" t="n">
+        <v>10</v>
+      </c>
+      <c r="CH4" t="n">
+        <v>29.9019</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>29.8716</v>
       </c>
       <c r="CJ4" t="inlineStr">
         <is>
@@ -10293,7 +10204,7 @@
       </c>
       <c r="CL4" t="inlineStr">
         <is>
-          <t>Smell</t>
+          <t>None</t>
         </is>
       </c>
       <c r="CM4" t="inlineStr">
@@ -10303,13 +10214,11 @@
       </c>
       <c r="CN4" t="inlineStr">
         <is>
-          <t>Notes</t>
-        </is>
-      </c>
-      <c r="CO4" t="inlineStr">
-        <is>
-          <t>TPM (mg/puff)</t>
-        </is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="CO4" t="n">
+        <v>3.030000000000044</v>
       </c>
       <c r="CP4" t="inlineStr">
         <is>
@@ -10326,20 +10235,14 @@
           <t>Rolling Average TPM</t>
         </is>
       </c>
-      <c r="CS4" t="inlineStr">
-        <is>
-          <t>puffs</t>
-        </is>
-      </c>
-      <c r="CT4" t="inlineStr">
-        <is>
-          <t>Before weight/g</t>
-        </is>
-      </c>
-      <c r="CU4" t="inlineStr">
-        <is>
-          <t>After weight/g</t>
-        </is>
+      <c r="CS4" t="n">
+        <v>10</v>
+      </c>
+      <c r="CT4" t="n">
+        <v>29.6688</v>
+      </c>
+      <c r="CU4" t="n">
+        <v>29.635</v>
       </c>
       <c r="CV4" t="inlineStr">
         <is>
@@ -10353,7 +10256,7 @@
       </c>
       <c r="CX4" t="inlineStr">
         <is>
-          <t>Smell</t>
+          <t>None</t>
         </is>
       </c>
       <c r="CY4" t="inlineStr">
@@ -10363,13 +10266,11 @@
       </c>
       <c r="CZ4" t="inlineStr">
         <is>
-          <t>Notes</t>
-        </is>
-      </c>
-      <c r="DA4" t="inlineStr">
-        <is>
-          <t>TPM (mg/puff)</t>
-        </is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="DA4" t="n">
+        <v>3.379999999999939</v>
       </c>
       <c r="DB4" t="inlineStr">
         <is>
@@ -11169,13 +11070,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B5" t="n">
-        <v>29.7307</v>
+        <v>29.7046</v>
       </c>
       <c r="C5" t="n">
-        <v>29.7046</v>
+        <v>29.6714</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -11188,7 +11089,7 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>2.609999999999957</v>
+        <v>3.320000000000078</v>
       </c>
       <c r="J5" s="121">
         <f>I5/F$2</f>
@@ -11196,13 +11097,13 @@
       </c>
       <c r="K5" s="17" t="n"/>
       <c r="M5" t="n">
-        <v>2.609999999999957</v>
+        <v>20</v>
       </c>
       <c r="N5" t="n">
-        <v>29.8559</v>
+        <v>29.8283</v>
       </c>
       <c r="O5" t="n">
-        <v>29.8283</v>
+        <v>29.79</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -11215,7 +11116,7 @@
         </is>
       </c>
       <c r="U5" t="n">
-        <v>2.609999999999957</v>
+        <v>3.829999999999956</v>
       </c>
       <c r="V5" s="121">
         <f>U5/R$2</f>
@@ -11223,13 +11124,13 @@
       </c>
       <c r="W5" s="17" t="n"/>
       <c r="Y5" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="Z5" t="n">
-        <v>29.8559</v>
+        <v>29.6862</v>
       </c>
       <c r="AA5" t="n">
-        <v>29.8283</v>
+        <v>29.644</v>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
@@ -11242,7 +11143,7 @@
         </is>
       </c>
       <c r="AG5" t="n">
-        <v>2.759999999999962</v>
+        <v>4.220000000000113</v>
       </c>
       <c r="AH5" s="121">
         <f>AG5/AD$2</f>
@@ -11250,13 +11151,13 @@
       </c>
       <c r="AI5" s="17" t="n"/>
       <c r="AK5" t="n">
-        <v>2.759999999999962</v>
+        <v>20</v>
       </c>
       <c r="AL5" t="n">
-        <v>29.7202</v>
+        <v>29.6653</v>
       </c>
       <c r="AM5" t="n">
-        <v>29.6862</v>
+        <v>29.6312</v>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
@@ -11269,7 +11170,7 @@
         </is>
       </c>
       <c r="AS5" t="n">
-        <v>2.759999999999962</v>
+        <v>3.409999999999869</v>
       </c>
       <c r="AT5" s="121">
         <f>AS5/AP$2</f>
@@ -11277,13 +11178,13 @@
       </c>
       <c r="AU5" s="17" t="n"/>
       <c r="AW5" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AX5" t="n">
-        <v>29.7202</v>
+        <v>29.7554</v>
       </c>
       <c r="AY5" t="n">
-        <v>29.6862</v>
+        <v>29.7262</v>
       </c>
       <c r="BB5" t="inlineStr">
         <is>
@@ -11296,7 +11197,7 @@
         </is>
       </c>
       <c r="BE5" t="n">
-        <v>3.399999999999892</v>
+        <v>2.9200000000003</v>
       </c>
       <c r="BF5" s="121">
         <f>BE5/BB$2</f>
@@ -11304,13 +11205,13 @@
       </c>
       <c r="BG5" s="17" t="n"/>
       <c r="BI5" t="n">
-        <v>3.399999999999892</v>
+        <v>20</v>
       </c>
       <c r="BJ5" t="n">
-        <v>29.6988</v>
+        <v>29.711</v>
       </c>
       <c r="BK5" t="n">
-        <v>29.6653</v>
+        <v>29.6758</v>
       </c>
       <c r="BN5" t="inlineStr">
         <is>
@@ -11323,7 +11224,7 @@
         </is>
       </c>
       <c r="BQ5" t="n">
-        <v>3.399999999999892</v>
+        <v>3.519999999999968</v>
       </c>
       <c r="BR5" s="121">
         <f>BQ5/BN$2</f>
@@ -11331,13 +11232,13 @@
       </c>
       <c r="BS5" s="17" t="n"/>
       <c r="BU5" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="BV5" t="n">
-        <v>29.6988</v>
+        <v>29.6848</v>
       </c>
       <c r="BW5" t="n">
-        <v>29.6653</v>
+        <v>29.65</v>
       </c>
       <c r="BZ5" t="inlineStr">
         <is>
@@ -11350,7 +11251,7 @@
         </is>
       </c>
       <c r="CC5" t="n">
-        <v>3.350000000000009</v>
+        <v>3.480000000000061</v>
       </c>
       <c r="CD5" s="121">
         <f>CC5/BZ$2</f>
@@ -11358,13 +11259,13 @@
       </c>
       <c r="CE5" s="17" t="n"/>
       <c r="CG5" t="n">
-        <v>3.350000000000009</v>
+        <v>20</v>
       </c>
       <c r="CH5" t="n">
-        <v>29.7843</v>
+        <v>29.8716</v>
       </c>
       <c r="CI5" t="n">
-        <v>29.7554</v>
+        <v>29.8385</v>
       </c>
       <c r="CL5" t="inlineStr">
         <is>
@@ -11377,7 +11278,7 @@
         </is>
       </c>
       <c r="CO5" t="n">
-        <v>3.350000000000009</v>
+        <v>3.310000000000102</v>
       </c>
       <c r="CP5" s="121">
         <f>CO5/CL$2</f>
@@ -11385,13 +11286,13 @@
       </c>
       <c r="CQ5" s="17" t="n"/>
       <c r="CS5" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="CT5" t="n">
-        <v>29.7843</v>
+        <v>29.635</v>
       </c>
       <c r="CU5" t="n">
-        <v>29.7554</v>
+        <v>29.5985</v>
       </c>
       <c r="CX5" t="inlineStr">
         <is>
@@ -11404,7 +11305,7 @@
         </is>
       </c>
       <c r="DA5" t="n">
-        <v>2.890000000000015</v>
+        <v>3.65000000000002</v>
       </c>
       <c r="DB5" s="121">
         <f>DA5/CX$2</f>
@@ -11412,26 +11313,11 @@
       </c>
       <c r="DC5" s="17" t="n"/>
       <c r="DE5" t="n">
-        <v>2.890000000000015</v>
-      </c>
-      <c r="DF5" t="n">
-        <v>29.7444</v>
-      </c>
-      <c r="DG5" t="n">
-        <v>29.711</v>
-      </c>
-      <c r="DJ5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="DL5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="DM5" t="n">
-        <v>2.890000000000015</v>
+        <v>10</v>
+      </c>
+      <c r="DM5">
+        <f>IF(DG5="", "", (DF5-DG5)*1000/DE5)</f>
+        <v/>
       </c>
       <c r="DN5" s="121">
         <f>DM5/DJ$2</f>
@@ -11441,24 +11327,9 @@
       <c r="DQ5" t="n">
         <v>10</v>
       </c>
-      <c r="DR5" t="n">
-        <v>29.7444</v>
-      </c>
-      <c r="DS5" t="n">
-        <v>29.711</v>
-      </c>
-      <c r="DV5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="DX5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="DY5" t="n">
-        <v>3.340000000000032</v>
+      <c r="DY5">
+        <f>IF(DS5="", "", (DR5-DS5)*1000/DQ5)</f>
+        <v/>
       </c>
       <c r="DZ5" s="121">
         <f>DY5/DV$2</f>
@@ -11466,26 +11337,11 @@
       </c>
       <c r="EA5" s="17" t="n"/>
       <c r="EC5" t="n">
-        <v>3.340000000000032</v>
-      </c>
-      <c r="ED5" t="n">
-        <v>29.715</v>
-      </c>
-      <c r="EE5" t="n">
-        <v>29.6848</v>
-      </c>
-      <c r="EH5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="EJ5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="EK5" t="n">
-        <v>3.340000000000032</v>
+        <v>10</v>
+      </c>
+      <c r="EK5">
+        <f>IF(EE5="", "", (ED5-EE5)*1000/EC5)</f>
+        <v/>
       </c>
       <c r="EL5" s="121">
         <f>EK5/EH$2</f>
@@ -11495,24 +11351,9 @@
       <c r="EO5" t="n">
         <v>10</v>
       </c>
-      <c r="EP5" t="n">
-        <v>29.715</v>
-      </c>
-      <c r="EQ5" t="n">
-        <v>29.6848</v>
-      </c>
-      <c r="ET5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="EV5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="EW5" t="n">
-        <v>3.020000000000067</v>
+      <c r="EW5">
+        <f>IF(EQ5="", "", (EP5-EQ5)*1000/EO5)</f>
+        <v/>
       </c>
       <c r="EX5" s="121">
         <f>EW5/ET$2</f>
@@ -11520,26 +11361,11 @@
       </c>
       <c r="EY5" s="17" t="n"/>
       <c r="FA5" t="n">
-        <v>3.020000000000067</v>
-      </c>
-      <c r="FB5" t="n">
-        <v>29.9019</v>
-      </c>
-      <c r="FC5" t="n">
-        <v>29.8716</v>
-      </c>
-      <c r="FF5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="FH5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="FI5" t="n">
-        <v>3.020000000000067</v>
+        <v>10</v>
+      </c>
+      <c r="FI5">
+        <f>IF(FC5="", "", (FB5-FC5)*1000/FA5)</f>
+        <v/>
       </c>
       <c r="FJ5" s="121">
         <f>FI5/FF$2</f>
@@ -11549,24 +11375,9 @@
       <c r="FM5" t="n">
         <v>10</v>
       </c>
-      <c r="FN5" t="n">
-        <v>29.9019</v>
-      </c>
-      <c r="FO5" t="n">
-        <v>29.8716</v>
-      </c>
-      <c r="FR5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="FT5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="FU5" t="n">
-        <v>3.030000000000044</v>
+      <c r="FU5">
+        <f>IF(FO5="", "", (FN5-FO5)*1000/FM5)</f>
+        <v/>
       </c>
       <c r="FV5" s="121">
         <f>FU5/FR$2</f>
@@ -11574,26 +11385,11 @@
       </c>
       <c r="FW5" s="17" t="n"/>
       <c r="FY5" t="n">
-        <v>3.030000000000044</v>
-      </c>
-      <c r="FZ5" t="n">
-        <v>29.6688</v>
-      </c>
-      <c r="GA5" t="n">
-        <v>29.635</v>
-      </c>
-      <c r="GD5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="GF5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="GG5" t="n">
-        <v>3.030000000000044</v>
+        <v>10</v>
+      </c>
+      <c r="GG5">
+        <f>IF(GA5="", "", (FZ5-GA5)*1000/FY5)</f>
+        <v/>
       </c>
       <c r="GH5" s="121">
         <f>GG5/GD$2</f>
@@ -11603,24 +11399,9 @@
       <c r="GK5" t="n">
         <v>10</v>
       </c>
-      <c r="GL5" t="n">
-        <v>29.6688</v>
-      </c>
-      <c r="GM5" t="n">
-        <v>29.635</v>
-      </c>
-      <c r="GP5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="GR5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="GS5" t="n">
-        <v>3.379999999999939</v>
+      <c r="GS5">
+        <f>IF(GM5="", "", (GL5-GM5)*1000/GK5)</f>
+        <v/>
       </c>
       <c r="GT5" s="121">
         <f>GS5/GP$2</f>
@@ -11628,10 +11409,11 @@
       </c>
       <c r="GU5" s="17" t="n"/>
       <c r="GW5" t="n">
-        <v>3.379999999999939</v>
-      </c>
-      <c r="HE5" t="n">
-        <v>3.379999999999939</v>
+        <v>10</v>
+      </c>
+      <c r="HE5">
+        <f>IF(GY5="", "", (GX5-GY5)*1000/GW5)</f>
+        <v/>
       </c>
       <c r="HF5" s="121">
         <f>HE5/HB$2</f>
@@ -11689,13 +11471,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B6" t="n">
-        <v>29.7046</v>
+        <v>29.6714</v>
       </c>
       <c r="C6" t="n">
-        <v>29.6714</v>
+        <v>29.6355</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -11708,7 +11490,7 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>3.320000000000078</v>
+        <v>3.589999999999804</v>
       </c>
       <c r="J6" s="121">
         <f>I6/F$2</f>
@@ -11716,13 +11498,13 @@
       </c>
       <c r="K6" s="17" t="n"/>
       <c r="M6" t="n">
-        <v>3.320000000000078</v>
+        <v>30</v>
       </c>
       <c r="N6" t="n">
-        <v>29.8283</v>
+        <v>29.79</v>
       </c>
       <c r="O6" t="n">
-        <v>29.79</v>
+        <v>29.7544</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -11735,7 +11517,7 @@
         </is>
       </c>
       <c r="U6" t="n">
-        <v>3.320000000000078</v>
+        <v>3.559999999999874</v>
       </c>
       <c r="V6" s="121">
         <f>U6/R$2</f>
@@ -11743,13 +11525,13 @@
       </c>
       <c r="W6" s="17" t="n"/>
       <c r="Y6" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="Z6" t="n">
-        <v>29.8283</v>
+        <v>29.644</v>
       </c>
       <c r="AA6" t="n">
-        <v>29.79</v>
+        <v>29.6006</v>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
@@ -11762,7 +11544,7 @@
         </is>
       </c>
       <c r="AG6" t="n">
-        <v>3.829999999999956</v>
+        <v>4.339999999999833</v>
       </c>
       <c r="AH6" s="121">
         <f>AG6/AD$2</f>
@@ -11770,13 +11552,13 @@
       </c>
       <c r="AI6" s="17" t="n"/>
       <c r="AK6" t="n">
-        <v>3.829999999999956</v>
+        <v>30</v>
       </c>
       <c r="AL6" t="n">
-        <v>29.6862</v>
+        <v>29.6312</v>
       </c>
       <c r="AM6" t="n">
-        <v>29.644</v>
+        <v>29.5977</v>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
@@ -11789,7 +11571,7 @@
         </is>
       </c>
       <c r="AS6" t="n">
-        <v>3.829999999999956</v>
+        <v>3.350000000000009</v>
       </c>
       <c r="AT6" s="121">
         <f>AS6/AP$2</f>
@@ -11797,13 +11579,13 @@
       </c>
       <c r="AU6" s="17" t="n"/>
       <c r="AW6" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AX6" t="n">
-        <v>29.6862</v>
+        <v>29.7262</v>
       </c>
       <c r="AY6" t="n">
-        <v>29.644</v>
+        <v>29.6975</v>
       </c>
       <c r="BB6" t="inlineStr">
         <is>
@@ -11816,7 +11598,7 @@
         </is>
       </c>
       <c r="BE6" t="n">
-        <v>4.220000000000113</v>
+        <v>2.869999999999706</v>
       </c>
       <c r="BF6" s="121">
         <f>BE6/BB$2</f>
@@ -11824,13 +11606,13 @@
       </c>
       <c r="BG6" s="17" t="n"/>
       <c r="BI6" t="n">
-        <v>4.220000000000113</v>
+        <v>30</v>
       </c>
       <c r="BJ6" t="n">
-        <v>29.6653</v>
+        <v>29.6758</v>
       </c>
       <c r="BK6" t="n">
-        <v>29.6312</v>
+        <v>29.6404</v>
       </c>
       <c r="BN6" t="inlineStr">
         <is>
@@ -11843,7 +11625,7 @@
         </is>
       </c>
       <c r="BQ6" t="n">
-        <v>4.220000000000113</v>
+        <v>3.539999999999921</v>
       </c>
       <c r="BR6" s="121">
         <f>BQ6/BN$2</f>
@@ -11851,13 +11633,13 @@
       </c>
       <c r="BS6" s="17" t="n"/>
       <c r="BU6" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="BV6" t="n">
-        <v>29.6653</v>
+        <v>29.65</v>
       </c>
       <c r="BW6" t="n">
-        <v>29.6312</v>
+        <v>29.6157</v>
       </c>
       <c r="BZ6" t="inlineStr">
         <is>
@@ -11870,7 +11652,7 @@
         </is>
       </c>
       <c r="CC6" t="n">
-        <v>3.409999999999869</v>
+        <v>3.429999999999822</v>
       </c>
       <c r="CD6" s="121">
         <f>CC6/BZ$2</f>
@@ -11878,13 +11660,13 @@
       </c>
       <c r="CE6" s="17" t="n"/>
       <c r="CG6" t="n">
-        <v>3.409999999999869</v>
+        <v>30</v>
       </c>
       <c r="CH6" t="n">
-        <v>29.7554</v>
+        <v>29.8385</v>
       </c>
       <c r="CI6" t="n">
-        <v>29.7262</v>
+        <v>29.8054</v>
       </c>
       <c r="CL6" t="inlineStr">
         <is>
@@ -11897,7 +11679,7 @@
         </is>
       </c>
       <c r="CO6" t="n">
-        <v>3.409999999999869</v>
+        <v>3.310000000000102</v>
       </c>
       <c r="CP6" s="121">
         <f>CO6/CL$2</f>
@@ -11905,13 +11687,13 @@
       </c>
       <c r="CQ6" s="17" t="n"/>
       <c r="CS6" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="CT6" t="n">
-        <v>29.7554</v>
+        <v>29.5985</v>
       </c>
       <c r="CU6" t="n">
-        <v>29.7262</v>
+        <v>29.5614</v>
       </c>
       <c r="CX6" t="inlineStr">
         <is>
@@ -11924,238 +11706,160 @@
         </is>
       </c>
       <c r="DA6" t="n">
-        <v>2.9200000000003</v>
+        <v>3.710000000000235</v>
       </c>
       <c r="DB6" s="121">
         <f>DA6/CX$2</f>
         <v/>
       </c>
       <c r="DC6" s="17" t="n"/>
-      <c r="DE6" t="n">
-        <v>2.9200000000003</v>
-      </c>
-      <c r="DF6" t="n">
-        <v>29.711</v>
-      </c>
-      <c r="DG6" t="n">
-        <v>29.6758</v>
-      </c>
-      <c r="DJ6" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="DL6" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="DM6" t="n">
-        <v>2.9200000000003</v>
+      <c r="DE6">
+        <f>DE5+10</f>
+        <v/>
+      </c>
+      <c r="DF6">
+        <f>DG5</f>
+        <v/>
+      </c>
+      <c r="DM6">
+        <f>IF(DG6="", "", (DF6-DG6)*1000/(DE6-DE5))</f>
+        <v/>
       </c>
       <c r="DN6" s="121">
         <f>DM6/DJ$2</f>
         <v/>
       </c>
       <c r="DO6" s="17" t="n"/>
-      <c r="DQ6" t="n">
-        <v>20</v>
-      </c>
-      <c r="DR6" t="n">
-        <v>29.711</v>
-      </c>
-      <c r="DS6" t="n">
-        <v>29.6758</v>
-      </c>
-      <c r="DV6" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="DX6" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="DY6" t="n">
-        <v>3.519999999999968</v>
+      <c r="DQ6">
+        <f>DQ5+10</f>
+        <v/>
+      </c>
+      <c r="DR6">
+        <f>DS5</f>
+        <v/>
+      </c>
+      <c r="DY6">
+        <f>IF(DS6="", "", (DR6-DS6)*1000/(DQ6-DQ5))</f>
+        <v/>
       </c>
       <c r="DZ6" s="121">
         <f>DY6/DV$2</f>
         <v/>
       </c>
       <c r="EA6" s="17" t="n"/>
-      <c r="EC6" t="n">
-        <v>3.519999999999968</v>
-      </c>
-      <c r="ED6" t="n">
-        <v>29.6848</v>
-      </c>
-      <c r="EE6" t="n">
-        <v>29.65</v>
-      </c>
-      <c r="EH6" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="EJ6" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="EK6" t="n">
-        <v>3.519999999999968</v>
+      <c r="EC6">
+        <f>EC5+10</f>
+        <v/>
+      </c>
+      <c r="ED6">
+        <f>EE5</f>
+        <v/>
+      </c>
+      <c r="EK6">
+        <f>IF(EE6="", "", (ED6-EE6)*1000/(EC6-EC5))</f>
+        <v/>
       </c>
       <c r="EL6" s="121">
         <f>EK6/EH$2</f>
         <v/>
       </c>
       <c r="EM6" s="17" t="n"/>
-      <c r="EO6" t="n">
-        <v>20</v>
-      </c>
-      <c r="EP6" t="n">
-        <v>29.6848</v>
-      </c>
-      <c r="EQ6" t="n">
-        <v>29.65</v>
-      </c>
-      <c r="ET6" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="EV6" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="EW6" t="n">
-        <v>3.480000000000061</v>
+      <c r="EO6">
+        <f>EO5+10</f>
+        <v/>
+      </c>
+      <c r="EP6">
+        <f>EQ5</f>
+        <v/>
+      </c>
+      <c r="EW6">
+        <f>IF(EQ6="", "", (EP6-EQ6)*1000/(EO6-EO5))</f>
+        <v/>
       </c>
       <c r="EX6" s="121">
         <f>EW6/ET$2</f>
         <v/>
       </c>
       <c r="EY6" s="17" t="n"/>
-      <c r="FA6" t="n">
-        <v>3.480000000000061</v>
-      </c>
-      <c r="FB6" t="n">
-        <v>29.8716</v>
-      </c>
-      <c r="FC6" t="n">
-        <v>29.8385</v>
-      </c>
-      <c r="FF6" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="FH6" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="FI6" t="n">
-        <v>3.480000000000061</v>
+      <c r="FA6">
+        <f>FA5+10</f>
+        <v/>
+      </c>
+      <c r="FB6">
+        <f>FC5</f>
+        <v/>
+      </c>
+      <c r="FI6">
+        <f>IF(FC6="", "", (FB6-FC6)*1000/(FA6-FA5))</f>
+        <v/>
       </c>
       <c r="FJ6" s="121">
         <f>FI6/FF$2</f>
         <v/>
       </c>
       <c r="FK6" s="17" t="n"/>
-      <c r="FM6" t="n">
-        <v>20</v>
-      </c>
-      <c r="FN6" t="n">
-        <v>29.8716</v>
-      </c>
-      <c r="FO6" t="n">
-        <v>29.8385</v>
-      </c>
-      <c r="FR6" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="FT6" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="FU6" t="n">
-        <v>3.310000000000102</v>
+      <c r="FM6">
+        <f>FM5+10</f>
+        <v/>
+      </c>
+      <c r="FN6">
+        <f>FO5</f>
+        <v/>
+      </c>
+      <c r="FU6">
+        <f>IF(FO6="", "", (FN6-FO6)*1000/(FM6-FM5))</f>
+        <v/>
       </c>
       <c r="FV6" s="121">
         <f>FU6/FR$2</f>
         <v/>
       </c>
       <c r="FW6" s="17" t="n"/>
-      <c r="FY6" t="n">
-        <v>3.310000000000102</v>
-      </c>
-      <c r="FZ6" t="n">
-        <v>29.635</v>
-      </c>
-      <c r="GA6" t="n">
-        <v>29.5985</v>
-      </c>
-      <c r="GD6" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="GF6" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="GG6" t="n">
-        <v>3.310000000000102</v>
+      <c r="FY6">
+        <f>FY5+10</f>
+        <v/>
+      </c>
+      <c r="FZ6">
+        <f>GA5</f>
+        <v/>
+      </c>
+      <c r="GG6">
+        <f>IF(GA6="", "", (FZ6-GA6)*1000/(FY6-FY5))</f>
+        <v/>
       </c>
       <c r="GH6" s="121">
         <f>GG6/GD$2</f>
         <v/>
       </c>
       <c r="GI6" s="17" t="n"/>
-      <c r="GK6" t="n">
-        <v>20</v>
-      </c>
-      <c r="GL6" t="n">
-        <v>29.635</v>
-      </c>
-      <c r="GM6" t="n">
-        <v>29.5985</v>
-      </c>
-      <c r="GP6" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="GR6" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="GS6" t="n">
-        <v>3.65000000000002</v>
+      <c r="GK6">
+        <f>GK5+10</f>
+        <v/>
+      </c>
+      <c r="GL6">
+        <f>GM5</f>
+        <v/>
+      </c>
+      <c r="GS6">
+        <f>IF(GM6="", "", (GL6-GM6)*1000/(GK6-GK5))</f>
+        <v/>
       </c>
       <c r="GT6" s="121">
         <f>GS6/GP$2</f>
         <v/>
       </c>
       <c r="GU6" s="17" t="n"/>
-      <c r="GW6" t="n">
-        <v>3.65000000000002</v>
+      <c r="GW6">
+        <f>GW5+10</f>
+        <v/>
       </c>
       <c r="GX6">
         <f>GY5</f>
         <v/>
       </c>
-      <c r="HE6" t="n">
-        <v>3.65000000000002</v>
+      <c r="HE6">
+        <f>IF(GY6="", "", (GX6-GY6)*1000/(GW6-GW5))</f>
+        <v/>
       </c>
       <c r="HF6" s="121">
         <f>HE6/HB$2</f>
@@ -12233,13 +11937,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B7" t="n">
-        <v>29.6714</v>
+        <v>29.6355</v>
       </c>
       <c r="C7" t="n">
-        <v>29.6355</v>
+        <v>29.5985</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -12252,7 +11956,7 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>3.589999999999804</v>
+        <v>3.699999999999903</v>
       </c>
       <c r="J7" s="121">
         <f>I7/F$2</f>
@@ -12267,13 +11971,13 @@
         <v/>
       </c>
       <c r="M7" t="n">
-        <v>3.589999999999804</v>
+        <v>40</v>
       </c>
       <c r="N7" t="n">
-        <v>29.79</v>
+        <v>29.7544</v>
       </c>
       <c r="O7" t="n">
-        <v>29.7544</v>
+        <v>29.7183</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -12286,7 +11990,7 @@
         </is>
       </c>
       <c r="U7" t="n">
-        <v>3.589999999999804</v>
+        <v>3.610000000000113</v>
       </c>
       <c r="V7" s="121">
         <f>U7/R$2</f>
@@ -12301,13 +12005,13 @@
         <v/>
       </c>
       <c r="Y7" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Z7" t="n">
-        <v>29.79</v>
+        <v>29.6006</v>
       </c>
       <c r="AA7" t="n">
-        <v>29.7544</v>
+        <v>29.556</v>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
@@ -12320,7 +12024,7 @@
         </is>
       </c>
       <c r="AG7" t="n">
-        <v>3.559999999999874</v>
+        <v>4.459999999999908</v>
       </c>
       <c r="AH7" s="121">
         <f>AG7/AD$2</f>
@@ -12335,13 +12039,13 @@
         <v/>
       </c>
       <c r="AK7" t="n">
-        <v>3.559999999999874</v>
+        <v>40</v>
       </c>
       <c r="AL7" t="n">
-        <v>29.644</v>
+        <v>29.5977</v>
       </c>
       <c r="AM7" t="n">
-        <v>29.6006</v>
+        <v>29.5644</v>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
@@ -12354,7 +12058,7 @@
         </is>
       </c>
       <c r="AS7" t="n">
-        <v>3.559999999999874</v>
+        <v>3.330000000000055</v>
       </c>
       <c r="AT7" s="121">
         <f>AS7/AP$2</f>
@@ -12369,13 +12073,13 @@
         <v/>
       </c>
       <c r="AW7" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AX7" t="n">
-        <v>29.644</v>
+        <v>29.6975</v>
       </c>
       <c r="AY7" t="n">
-        <v>29.6006</v>
+        <v>29.6681</v>
       </c>
       <c r="BB7" t="inlineStr">
         <is>
@@ -12388,7 +12092,7 @@
         </is>
       </c>
       <c r="BE7" t="n">
-        <v>4.339999999999833</v>
+        <v>2.940000000000254</v>
       </c>
       <c r="BF7" s="121">
         <f>BE7/BB$2</f>
@@ -12403,13 +12107,13 @@
         <v/>
       </c>
       <c r="BI7" t="n">
-        <v>4.339999999999833</v>
+        <v>40</v>
       </c>
       <c r="BJ7" t="n">
-        <v>29.6312</v>
+        <v>29.6404</v>
       </c>
       <c r="BK7" t="n">
-        <v>29.5977</v>
+        <v>29.6035</v>
       </c>
       <c r="BN7" t="inlineStr">
         <is>
@@ -12422,7 +12126,7 @@
         </is>
       </c>
       <c r="BQ7" t="n">
-        <v>4.339999999999833</v>
+        <v>3.689999999999927</v>
       </c>
       <c r="BR7" s="121">
         <f>BQ7/BN$2</f>
@@ -12437,13 +12141,13 @@
         <v/>
       </c>
       <c r="BU7" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BV7" t="n">
-        <v>29.6312</v>
+        <v>29.6157</v>
       </c>
       <c r="BW7" t="n">
-        <v>29.5977</v>
+        <v>29.5812</v>
       </c>
       <c r="BZ7" t="inlineStr">
         <is>
@@ -12456,7 +12160,7 @@
         </is>
       </c>
       <c r="CC7" t="n">
-        <v>3.350000000000009</v>
+        <v>3.450000000000131</v>
       </c>
       <c r="CD7" s="121">
         <f>CC7/BZ$2</f>
@@ -12471,13 +12175,13 @@
         <v/>
       </c>
       <c r="CG7" t="n">
-        <v>3.350000000000009</v>
+        <v>40</v>
       </c>
       <c r="CH7" t="n">
-        <v>29.7262</v>
+        <v>29.8054</v>
       </c>
       <c r="CI7" t="n">
-        <v>29.6975</v>
+        <v>29.7707</v>
       </c>
       <c r="CL7" t="inlineStr">
         <is>
@@ -12490,7 +12194,7 @@
         </is>
       </c>
       <c r="CO7" t="n">
-        <v>3.350000000000009</v>
+        <v>3.469999999999729</v>
       </c>
       <c r="CP7" s="121">
         <f>CO7/CL$2</f>
@@ -12505,13 +12209,13 @@
         <v/>
       </c>
       <c r="CS7" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="CT7" t="n">
-        <v>29.7262</v>
+        <v>29.5614</v>
       </c>
       <c r="CU7" t="n">
-        <v>29.6975</v>
+        <v>29.5235</v>
       </c>
       <c r="CX7" t="inlineStr">
         <is>
@@ -12524,7 +12228,7 @@
         </is>
       </c>
       <c r="DA7" t="n">
-        <v>2.869999999999706</v>
+        <v>3.790000000000049</v>
       </c>
       <c r="DB7" s="121">
         <f>DA7/CX$2</f>
@@ -12538,27 +12242,17 @@
         <f>AVERAGE(DA5:DA7)</f>
         <v/>
       </c>
-      <c r="DE7" t="n">
-        <v>2.869999999999706</v>
-      </c>
-      <c r="DF7" t="n">
-        <v>29.6758</v>
-      </c>
-      <c r="DG7" t="n">
-        <v>29.6404</v>
-      </c>
-      <c r="DJ7" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="DL7" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="DM7" t="n">
-        <v>2.869999999999706</v>
+      <c r="DE7">
+        <f>DE6+10</f>
+        <v/>
+      </c>
+      <c r="DF7">
+        <f>DG6</f>
+        <v/>
+      </c>
+      <c r="DM7">
+        <f>IF(DG7="", "", (DF7-DG7)*1000/(DE7-DE6))</f>
+        <v/>
       </c>
       <c r="DN7" s="121">
         <f>DM7/DJ$2</f>
@@ -12572,27 +12266,17 @@
         <f>AVERAGE(DM5:DM7)</f>
         <v/>
       </c>
-      <c r="DQ7" t="n">
-        <v>30</v>
-      </c>
-      <c r="DR7" t="n">
-        <v>29.6758</v>
-      </c>
-      <c r="DS7" t="n">
-        <v>29.6404</v>
-      </c>
-      <c r="DV7" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="DX7" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="DY7" t="n">
-        <v>3.539999999999921</v>
+      <c r="DQ7">
+        <f>DQ6+10</f>
+        <v/>
+      </c>
+      <c r="DR7">
+        <f>DS6</f>
+        <v/>
+      </c>
+      <c r="DY7">
+        <f>IF(DS7="", "", (DR7-DS7)*1000/(DQ7-DQ6))</f>
+        <v/>
       </c>
       <c r="DZ7" s="121">
         <f>DY7/DV$2</f>
@@ -12606,27 +12290,17 @@
         <f>AVERAGE(DY5:DY7)</f>
         <v/>
       </c>
-      <c r="EC7" t="n">
-        <v>3.539999999999921</v>
-      </c>
-      <c r="ED7" t="n">
-        <v>29.65</v>
-      </c>
-      <c r="EE7" t="n">
-        <v>29.6157</v>
-      </c>
-      <c r="EH7" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="EJ7" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="EK7" t="n">
-        <v>3.539999999999921</v>
+      <c r="EC7">
+        <f>EC6+10</f>
+        <v/>
+      </c>
+      <c r="ED7">
+        <f>EE6</f>
+        <v/>
+      </c>
+      <c r="EK7">
+        <f>IF(EE7="", "", (ED7-EE7)*1000/(EC7-EC6))</f>
+        <v/>
       </c>
       <c r="EL7" s="121">
         <f>EK7/EH$2</f>
@@ -12640,27 +12314,17 @@
         <f>AVERAGE(EK5:EK7)</f>
         <v/>
       </c>
-      <c r="EO7" t="n">
-        <v>30</v>
-      </c>
-      <c r="EP7" t="n">
-        <v>29.65</v>
-      </c>
-      <c r="EQ7" t="n">
-        <v>29.6157</v>
-      </c>
-      <c r="ET7" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="EV7" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="EW7" t="n">
-        <v>3.429999999999822</v>
+      <c r="EO7">
+        <f>EO6+10</f>
+        <v/>
+      </c>
+      <c r="EP7">
+        <f>EQ6</f>
+        <v/>
+      </c>
+      <c r="EW7">
+        <f>IF(EQ7="", "", (EP7-EQ7)*1000/(EO7-EO6))</f>
+        <v/>
       </c>
       <c r="EX7" s="121">
         <f>EW7/ET$2</f>
@@ -12674,27 +12338,17 @@
         <f>AVERAGE(EW5:EW7)</f>
         <v/>
       </c>
-      <c r="FA7" t="n">
-        <v>3.429999999999822</v>
-      </c>
-      <c r="FB7" t="n">
-        <v>29.8385</v>
-      </c>
-      <c r="FC7" t="n">
-        <v>29.8054</v>
-      </c>
-      <c r="FF7" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="FH7" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="FI7" t="n">
-        <v>3.429999999999822</v>
+      <c r="FA7">
+        <f>FA6+10</f>
+        <v/>
+      </c>
+      <c r="FB7">
+        <f>FC6</f>
+        <v/>
+      </c>
+      <c r="FI7">
+        <f>IF(FC7="", "", (FB7-FC7)*1000/(FA7-FA6))</f>
+        <v/>
       </c>
       <c r="FJ7" s="121">
         <f>FI7/FF$2</f>
@@ -12708,27 +12362,17 @@
         <f>AVERAGE(FI5:FI7)</f>
         <v/>
       </c>
-      <c r="FM7" t="n">
-        <v>30</v>
-      </c>
-      <c r="FN7" t="n">
-        <v>29.8385</v>
-      </c>
-      <c r="FO7" t="n">
-        <v>29.8054</v>
-      </c>
-      <c r="FR7" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="FT7" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="FU7" t="n">
-        <v>3.310000000000102</v>
+      <c r="FM7">
+        <f>FM6+10</f>
+        <v/>
+      </c>
+      <c r="FN7">
+        <f>FO6</f>
+        <v/>
+      </c>
+      <c r="FU7">
+        <f>IF(FO7="", "", (FN7-FO7)*1000/(FM7-FM6))</f>
+        <v/>
       </c>
       <c r="FV7" s="121">
         <f>FU7/FR$2</f>
@@ -12742,27 +12386,17 @@
         <f>AVERAGE(FU5:FU7)</f>
         <v/>
       </c>
-      <c r="FY7" t="n">
-        <v>3.310000000000102</v>
-      </c>
-      <c r="FZ7" t="n">
-        <v>29.5985</v>
-      </c>
-      <c r="GA7" t="n">
-        <v>29.5614</v>
-      </c>
-      <c r="GD7" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="GF7" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="GG7" t="n">
-        <v>3.310000000000102</v>
+      <c r="FY7">
+        <f>FY6+10</f>
+        <v/>
+      </c>
+      <c r="FZ7">
+        <f>GA6</f>
+        <v/>
+      </c>
+      <c r="GG7">
+        <f>IF(GA7="", "", (FZ7-GA7)*1000/(FY7-FY6))</f>
+        <v/>
       </c>
       <c r="GH7" s="121">
         <f>GG7/GD$2</f>
@@ -12776,27 +12410,17 @@
         <f>AVERAGE(GG5:GG7)</f>
         <v/>
       </c>
-      <c r="GK7" t="n">
-        <v>30</v>
-      </c>
-      <c r="GL7" t="n">
-        <v>29.5985</v>
-      </c>
-      <c r="GM7" t="n">
-        <v>29.5614</v>
-      </c>
-      <c r="GP7" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="GR7" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="GS7" t="n">
-        <v>3.710000000000235</v>
+      <c r="GK7">
+        <f>GK6+10</f>
+        <v/>
+      </c>
+      <c r="GL7">
+        <f>GM6</f>
+        <v/>
+      </c>
+      <c r="GS7">
+        <f>IF(GM7="", "", (GL7-GM7)*1000/(GK7-GK6))</f>
+        <v/>
       </c>
       <c r="GT7" s="121">
         <f>GS7/GP$2</f>
@@ -12810,15 +12434,17 @@
         <f>AVERAGE(GS5:GS7)</f>
         <v/>
       </c>
-      <c r="GW7" t="n">
-        <v>3.710000000000235</v>
+      <c r="GW7">
+        <f>GW6+10</f>
+        <v/>
       </c>
       <c r="GX7">
         <f>GY6</f>
         <v/>
       </c>
-      <c r="HE7" t="n">
-        <v>3.710000000000235</v>
+      <c r="HE7">
+        <f>IF(GY7="", "", (GX7-GY7)*1000/(GW7-GW6))</f>
+        <v/>
       </c>
       <c r="HF7" s="121">
         <f>HE7/HB$2</f>
@@ -12931,13 +12557,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B8" t="n">
-        <v>29.6355</v>
+        <v>29.5985</v>
       </c>
       <c r="C8" t="n">
-        <v>29.5985</v>
+        <v>29.5629</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -12950,20 +12576,20 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>3.699999999999903</v>
+        <v>3.56000000000023</v>
       </c>
       <c r="J8" s="121">
         <f>I8/F$2</f>
         <v/>
       </c>
       <c r="M8" t="n">
-        <v>3.699999999999903</v>
+        <v>50</v>
       </c>
       <c r="N8" t="n">
-        <v>29.7544</v>
+        <v>29.7132</v>
       </c>
       <c r="O8" t="n">
-        <v>29.7183</v>
+        <v>29.678</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -12976,20 +12602,20 @@
         </is>
       </c>
       <c r="U8" t="n">
-        <v>3.699999999999903</v>
+        <v>3.519999999999968</v>
       </c>
       <c r="V8" s="121">
         <f>U8/R$2</f>
         <v/>
       </c>
       <c r="Y8" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="Z8" t="n">
-        <v>29.7544</v>
+        <v>29.556</v>
       </c>
       <c r="AA8" t="n">
-        <v>29.7183</v>
+        <v>29.5126</v>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
@@ -13002,20 +12628,20 @@
         </is>
       </c>
       <c r="AG8" t="n">
-        <v>3.610000000000113</v>
+        <v>4.340000000000188</v>
       </c>
       <c r="AH8" s="121">
         <f>AG8/AD$2</f>
         <v/>
       </c>
       <c r="AK8" t="n">
-        <v>3.610000000000113</v>
+        <v>50</v>
       </c>
       <c r="AL8" t="n">
-        <v>29.6006</v>
+        <v>29.5644</v>
       </c>
       <c r="AM8" t="n">
-        <v>29.556</v>
+        <v>29.5276</v>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
@@ -13028,20 +12654,20 @@
         </is>
       </c>
       <c r="AS8" t="n">
-        <v>3.610000000000113</v>
+        <v>3.67999999999995</v>
       </c>
       <c r="AT8" s="121">
         <f>AS8/AP$2</f>
         <v/>
       </c>
       <c r="AW8" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AX8" t="n">
-        <v>29.6006</v>
+        <v>29.6681</v>
       </c>
       <c r="AY8" t="n">
-        <v>29.556</v>
+        <v>29.6355</v>
       </c>
       <c r="BB8" t="inlineStr">
         <is>
@@ -13054,20 +12680,20 @@
         </is>
       </c>
       <c r="BE8" t="n">
-        <v>4.459999999999908</v>
+        <v>3.259999999999863</v>
       </c>
       <c r="BF8" s="121">
         <f>BE8/BB$2</f>
         <v/>
       </c>
       <c r="BI8" t="n">
-        <v>4.459999999999908</v>
+        <v>50</v>
       </c>
       <c r="BJ8" t="n">
-        <v>29.5977</v>
+        <v>29.6035</v>
       </c>
       <c r="BK8" t="n">
-        <v>29.5644</v>
+        <v>29.5653</v>
       </c>
       <c r="BN8" t="inlineStr">
         <is>
@@ -13080,20 +12706,20 @@
         </is>
       </c>
       <c r="BQ8" t="n">
-        <v>4.459999999999908</v>
+        <v>3.819999999999979</v>
       </c>
       <c r="BR8" s="121">
         <f>BQ8/BN$2</f>
         <v/>
       </c>
       <c r="BU8" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="BV8" t="n">
-        <v>29.5977</v>
+        <v>29.5812</v>
       </c>
       <c r="BW8" t="n">
-        <v>29.5644</v>
+        <v>29.5467</v>
       </c>
       <c r="BZ8" t="inlineStr">
         <is>
@@ -13106,20 +12732,20 @@
         </is>
       </c>
       <c r="CC8" t="n">
-        <v>3.330000000000055</v>
+        <v>3.449999999999775</v>
       </c>
       <c r="CD8" s="121">
         <f>CC8/BZ$2</f>
         <v/>
       </c>
       <c r="CG8" t="n">
-        <v>3.330000000000055</v>
+        <v>50</v>
       </c>
       <c r="CH8" t="n">
-        <v>29.6975</v>
+        <v>29.7707</v>
       </c>
       <c r="CI8" t="n">
-        <v>29.6681</v>
+        <v>29.7362</v>
       </c>
       <c r="CL8" t="inlineStr">
         <is>
@@ -13132,20 +12758,20 @@
         </is>
       </c>
       <c r="CO8" t="n">
-        <v>3.330000000000055</v>
+        <v>3.450000000000131</v>
       </c>
       <c r="CP8" s="121">
         <f>CO8/CL$2</f>
         <v/>
       </c>
       <c r="CS8" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="CT8" t="n">
-        <v>29.6975</v>
+        <v>29.5235</v>
       </c>
       <c r="CU8" t="n">
-        <v>29.6681</v>
+        <v>29.4885</v>
       </c>
       <c r="CX8" t="inlineStr">
         <is>
@@ -13158,229 +12784,151 @@
         </is>
       </c>
       <c r="DA8" t="n">
-        <v>2.940000000000254</v>
+        <v>3.500000000000014</v>
       </c>
       <c r="DB8" s="121">
         <f>DA8/CX$2</f>
         <v/>
       </c>
-      <c r="DE8" t="n">
-        <v>2.940000000000254</v>
-      </c>
-      <c r="DF8" t="n">
-        <v>29.6404</v>
-      </c>
-      <c r="DG8" t="n">
-        <v>29.6035</v>
-      </c>
-      <c r="DJ8" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="DL8" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="DM8" t="n">
-        <v>2.940000000000254</v>
+      <c r="DE8">
+        <f>DE7+10</f>
+        <v/>
+      </c>
+      <c r="DF8">
+        <f>DG7</f>
+        <v/>
+      </c>
+      <c r="DM8">
+        <f>IF(DG8="", "", (DF8-DG8)*1000/(DE8-DE7))</f>
+        <v/>
       </c>
       <c r="DN8" s="121">
         <f>DM8/DJ$2</f>
         <v/>
       </c>
-      <c r="DQ8" t="n">
-        <v>40</v>
-      </c>
-      <c r="DR8" t="n">
-        <v>29.6404</v>
-      </c>
-      <c r="DS8" t="n">
-        <v>29.6035</v>
-      </c>
-      <c r="DV8" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="DX8" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="DY8" t="n">
-        <v>3.689999999999927</v>
+      <c r="DQ8">
+        <f>DQ7+10</f>
+        <v/>
+      </c>
+      <c r="DR8">
+        <f>DS7</f>
+        <v/>
+      </c>
+      <c r="DY8">
+        <f>IF(DS8="", "", (DR8-DS8)*1000/(DQ8-DQ7))</f>
+        <v/>
       </c>
       <c r="DZ8" s="121">
         <f>DY8/DV$2</f>
         <v/>
       </c>
-      <c r="EC8" t="n">
-        <v>3.689999999999927</v>
-      </c>
-      <c r="ED8" t="n">
-        <v>29.6157</v>
-      </c>
-      <c r="EE8" t="n">
-        <v>29.5812</v>
-      </c>
-      <c r="EH8" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="EJ8" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="EK8" t="n">
-        <v>3.689999999999927</v>
+      <c r="EC8">
+        <f>EC7+10</f>
+        <v/>
+      </c>
+      <c r="ED8">
+        <f>EE7</f>
+        <v/>
+      </c>
+      <c r="EK8">
+        <f>IF(EE8="", "", (ED8-EE8)*1000/(EC8-EC7))</f>
+        <v/>
       </c>
       <c r="EL8" s="121">
         <f>EK8/EH$2</f>
         <v/>
       </c>
-      <c r="EO8" t="n">
-        <v>40</v>
-      </c>
-      <c r="EP8" t="n">
-        <v>29.6157</v>
-      </c>
-      <c r="EQ8" t="n">
-        <v>29.5812</v>
-      </c>
-      <c r="ET8" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="EV8" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="EW8" t="n">
-        <v>3.450000000000131</v>
+      <c r="EO8">
+        <f>EO7+10</f>
+        <v/>
+      </c>
+      <c r="EP8">
+        <f>EQ7</f>
+        <v/>
+      </c>
+      <c r="EW8">
+        <f>IF(EQ8="", "", (EP8-EQ8)*1000/(EO8-EO7))</f>
+        <v/>
       </c>
       <c r="EX8" s="121">
         <f>EW8/ET$2</f>
         <v/>
       </c>
-      <c r="FA8" t="n">
-        <v>3.450000000000131</v>
-      </c>
-      <c r="FB8" t="n">
-        <v>29.8054</v>
-      </c>
-      <c r="FC8" t="n">
-        <v>29.7707</v>
-      </c>
-      <c r="FF8" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="FH8" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="FI8" t="n">
-        <v>3.450000000000131</v>
+      <c r="FA8">
+        <f>FA7+10</f>
+        <v/>
+      </c>
+      <c r="FB8">
+        <f>FC7</f>
+        <v/>
+      </c>
+      <c r="FI8">
+        <f>IF(FC8="", "", (FB8-FC8)*1000/(FA8-FA7))</f>
+        <v/>
       </c>
       <c r="FJ8" s="121">
         <f>FI8/FF$2</f>
         <v/>
       </c>
-      <c r="FM8" t="n">
-        <v>40</v>
-      </c>
-      <c r="FN8" t="n">
-        <v>29.8054</v>
-      </c>
-      <c r="FO8" t="n">
-        <v>29.7707</v>
-      </c>
-      <c r="FR8" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="FT8" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="FU8" t="n">
-        <v>3.469999999999729</v>
+      <c r="FM8">
+        <f>FM7+10</f>
+        <v/>
+      </c>
+      <c r="FN8">
+        <f>FO7</f>
+        <v/>
+      </c>
+      <c r="FU8">
+        <f>IF(FO8="", "", (FN8-FO8)*1000/(FM8-FM7))</f>
+        <v/>
       </c>
       <c r="FV8" s="121">
         <f>FU8/FR$2</f>
         <v/>
       </c>
-      <c r="FY8" t="n">
-        <v>3.469999999999729</v>
-      </c>
-      <c r="FZ8" t="n">
-        <v>29.5614</v>
-      </c>
-      <c r="GA8" t="n">
-        <v>29.5235</v>
-      </c>
-      <c r="GD8" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="GF8" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="GG8" t="n">
-        <v>3.469999999999729</v>
+      <c r="FY8">
+        <f>FY7+10</f>
+        <v/>
+      </c>
+      <c r="FZ8">
+        <f>GA7</f>
+        <v/>
+      </c>
+      <c r="GG8">
+        <f>IF(GA8="", "", (FZ8-GA8)*1000/(FY8-FY7))</f>
+        <v/>
       </c>
       <c r="GH8" s="121">
         <f>GG8/GD$2</f>
         <v/>
       </c>
-      <c r="GK8" t="n">
-        <v>40</v>
-      </c>
-      <c r="GL8" t="n">
-        <v>29.5614</v>
-      </c>
-      <c r="GM8" t="n">
-        <v>29.5235</v>
-      </c>
-      <c r="GP8" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="GR8" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="GS8" t="n">
-        <v>3.790000000000049</v>
+      <c r="GK8">
+        <f>GK7+10</f>
+        <v/>
+      </c>
+      <c r="GL8">
+        <f>GM7</f>
+        <v/>
+      </c>
+      <c r="GS8">
+        <f>IF(GM8="", "", (GL8-GM8)*1000/(GK8-GK7))</f>
+        <v/>
       </c>
       <c r="GT8" s="121">
         <f>GS8/GP$2</f>
         <v/>
       </c>
-      <c r="GW8" t="n">
-        <v>3.790000000000049</v>
+      <c r="GW8">
+        <f>GW7+10</f>
+        <v/>
       </c>
       <c r="GX8">
         <f>GY7</f>
         <v/>
       </c>
-      <c r="HE8" t="n">
-        <v>3.790000000000049</v>
+      <c r="HE8">
+        <f>IF(GY8="", "", (GX8-GY8)*1000/(GW8-GW7))</f>
+        <v/>
       </c>
       <c r="HF8" s="121">
         <f>HE8/HB$2</f>
@@ -13453,13 +13001,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B9" t="n">
-        <v>29.5985</v>
+        <v>29.5575</v>
       </c>
       <c r="C9" t="n">
-        <v>29.5629</v>
+        <v>29.5226</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -13472,20 +13020,20 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>3.56000000000023</v>
+        <v>3.490000000000038</v>
       </c>
       <c r="J9" s="121">
         <f>I9/F$2</f>
         <v/>
       </c>
       <c r="M9" t="n">
-        <v>3.56000000000023</v>
+        <v>60</v>
       </c>
       <c r="N9" t="n">
-        <v>29.7132</v>
+        <v>29.678</v>
       </c>
       <c r="O9" t="n">
-        <v>29.678</v>
+        <v>29.6434</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -13498,20 +13046,20 @@
         </is>
       </c>
       <c r="U9" t="n">
-        <v>3.56000000000023</v>
+        <v>3.460000000000107</v>
       </c>
       <c r="V9" s="121">
         <f>U9/R$2</f>
         <v/>
       </c>
       <c r="Y9" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="Z9" t="n">
-        <v>29.7132</v>
+        <v>29.5066</v>
       </c>
       <c r="AA9" t="n">
-        <v>29.678</v>
+        <v>29.464</v>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
@@ -13524,20 +13072,20 @@
         </is>
       </c>
       <c r="AG9" t="n">
-        <v>3.519999999999968</v>
+        <v>4.260000000000019</v>
       </c>
       <c r="AH9" s="121">
         <f>AG9/AD$2</f>
         <v/>
       </c>
       <c r="AK9" t="n">
-        <v>3.519999999999968</v>
+        <v>60</v>
       </c>
       <c r="AL9" t="n">
-        <v>29.556</v>
+        <v>29.5276</v>
       </c>
       <c r="AM9" t="n">
-        <v>29.5126</v>
+        <v>29.4931</v>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
@@ -13550,20 +13098,20 @@
         </is>
       </c>
       <c r="AS9" t="n">
-        <v>3.519999999999968</v>
+        <v>3.450000000000131</v>
       </c>
       <c r="AT9" s="121">
         <f>AS9/AP$2</f>
         <v/>
       </c>
       <c r="AW9" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AX9" t="n">
-        <v>29.556</v>
+        <v>29.6355</v>
       </c>
       <c r="AY9" t="n">
-        <v>29.5126</v>
+        <v>29.6065</v>
       </c>
       <c r="BB9" t="inlineStr">
         <is>
@@ -13576,20 +13124,20 @@
         </is>
       </c>
       <c r="BE9" t="n">
-        <v>4.340000000000188</v>
+        <v>2.899999999999991</v>
       </c>
       <c r="BF9" s="121">
         <f>BE9/BB$2</f>
         <v/>
       </c>
       <c r="BI9" t="n">
-        <v>4.340000000000188</v>
+        <v>60</v>
       </c>
       <c r="BJ9" t="n">
-        <v>29.5644</v>
+        <v>29.5653</v>
       </c>
       <c r="BK9" t="n">
-        <v>29.5276</v>
+        <v>29.528</v>
       </c>
       <c r="BN9" t="inlineStr">
         <is>
@@ -13602,20 +13150,20 @@
         </is>
       </c>
       <c r="BQ9" t="n">
-        <v>4.340000000000188</v>
+        <v>3.730000000000189</v>
       </c>
       <c r="BR9" s="121">
         <f>BQ9/BN$2</f>
         <v/>
       </c>
       <c r="BU9" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="BV9" t="n">
-        <v>29.5644</v>
+        <v>29.5467</v>
       </c>
       <c r="BW9" t="n">
-        <v>29.5276</v>
+        <v>29.5118</v>
       </c>
       <c r="BZ9" t="inlineStr">
         <is>
@@ -13628,20 +13176,20 @@
         </is>
       </c>
       <c r="CC9" t="n">
-        <v>3.67999999999995</v>
+        <v>3.490000000000038</v>
       </c>
       <c r="CD9" s="121">
         <f>CC9/BZ$2</f>
         <v/>
       </c>
       <c r="CG9" t="n">
-        <v>3.67999999999995</v>
+        <v>60</v>
       </c>
       <c r="CH9" t="n">
-        <v>29.6681</v>
+        <v>29.7362</v>
       </c>
       <c r="CI9" t="n">
-        <v>29.6355</v>
+        <v>29.702</v>
       </c>
       <c r="CL9" t="inlineStr">
         <is>
@@ -13654,20 +13202,20 @@
         </is>
       </c>
       <c r="CO9" t="n">
-        <v>3.67999999999995</v>
+        <v>3.419999999999845</v>
       </c>
       <c r="CP9" s="121">
         <f>CO9/CL$2</f>
         <v/>
       </c>
       <c r="CS9" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="CT9" t="n">
-        <v>29.6681</v>
+        <v>29.4885</v>
       </c>
       <c r="CU9" t="n">
-        <v>29.6355</v>
+        <v>29.4506</v>
       </c>
       <c r="CX9" t="inlineStr">
         <is>
@@ -13680,229 +13228,151 @@
         </is>
       </c>
       <c r="DA9" t="n">
-        <v>3.259999999999863</v>
+        <v>3.789999999999694</v>
       </c>
       <c r="DB9" s="121">
         <f>DA9/CX$2</f>
         <v/>
       </c>
-      <c r="DE9" t="n">
-        <v>3.259999999999863</v>
-      </c>
-      <c r="DF9" t="n">
-        <v>29.6035</v>
-      </c>
-      <c r="DG9" t="n">
-        <v>29.5653</v>
-      </c>
-      <c r="DJ9" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="DL9" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="DM9" t="n">
-        <v>3.259999999999863</v>
+      <c r="DE9">
+        <f>DE8+10</f>
+        <v/>
+      </c>
+      <c r="DF9">
+        <f>DG8</f>
+        <v/>
+      </c>
+      <c r="DM9">
+        <f>IF(DG9="", "", (DF9-DG9)*1000/(DE9-DE8))</f>
+        <v/>
       </c>
       <c r="DN9" s="121">
         <f>DM9/DJ$2</f>
         <v/>
       </c>
-      <c r="DQ9" t="n">
-        <v>50</v>
-      </c>
-      <c r="DR9" t="n">
-        <v>29.6035</v>
-      </c>
-      <c r="DS9" t="n">
-        <v>29.5653</v>
-      </c>
-      <c r="DV9" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="DX9" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="DY9" t="n">
-        <v>3.819999999999979</v>
+      <c r="DQ9">
+        <f>DQ8+10</f>
+        <v/>
+      </c>
+      <c r="DR9">
+        <f>DS8</f>
+        <v/>
+      </c>
+      <c r="DY9">
+        <f>IF(DS9="", "", (DR9-DS9)*1000/(DQ9-DQ8))</f>
+        <v/>
       </c>
       <c r="DZ9" s="121">
         <f>DY9/DV$2</f>
         <v/>
       </c>
-      <c r="EC9" t="n">
-        <v>3.819999999999979</v>
-      </c>
-      <c r="ED9" t="n">
-        <v>29.5812</v>
-      </c>
-      <c r="EE9" t="n">
-        <v>29.5467</v>
-      </c>
-      <c r="EH9" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="EJ9" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="EK9" t="n">
-        <v>3.819999999999979</v>
+      <c r="EC9">
+        <f>EC8+10</f>
+        <v/>
+      </c>
+      <c r="ED9">
+        <f>EE8</f>
+        <v/>
+      </c>
+      <c r="EK9">
+        <f>IF(EE9="", "", (ED9-EE9)*1000/(EC9-EC8))</f>
+        <v/>
       </c>
       <c r="EL9" s="121">
         <f>EK9/EH$2</f>
         <v/>
       </c>
-      <c r="EO9" t="n">
-        <v>50</v>
-      </c>
-      <c r="EP9" t="n">
-        <v>29.5812</v>
-      </c>
-      <c r="EQ9" t="n">
-        <v>29.5467</v>
-      </c>
-      <c r="ET9" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="EV9" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="EW9" t="n">
-        <v>3.449999999999775</v>
+      <c r="EO9">
+        <f>EO8+10</f>
+        <v/>
+      </c>
+      <c r="EP9">
+        <f>EQ8</f>
+        <v/>
+      </c>
+      <c r="EW9">
+        <f>IF(EQ9="", "", (EP9-EQ9)*1000/(EO9-EO8))</f>
+        <v/>
       </c>
       <c r="EX9" s="121">
         <f>EW9/ET$2</f>
         <v/>
       </c>
-      <c r="FA9" t="n">
-        <v>3.449999999999775</v>
-      </c>
-      <c r="FB9" t="n">
-        <v>29.7707</v>
-      </c>
-      <c r="FC9" t="n">
-        <v>29.7362</v>
-      </c>
-      <c r="FF9" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="FH9" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="FI9" t="n">
-        <v>3.449999999999775</v>
+      <c r="FA9">
+        <f>FA8+10</f>
+        <v/>
+      </c>
+      <c r="FB9">
+        <f>FC8</f>
+        <v/>
+      </c>
+      <c r="FI9">
+        <f>IF(FC9="", "", (FB9-FC9)*1000/(FA9-FA8))</f>
+        <v/>
       </c>
       <c r="FJ9" s="121">
         <f>FI9/FF$2</f>
         <v/>
       </c>
-      <c r="FM9" t="n">
-        <v>50</v>
-      </c>
-      <c r="FN9" t="n">
-        <v>29.7707</v>
-      </c>
-      <c r="FO9" t="n">
-        <v>29.7362</v>
-      </c>
-      <c r="FR9" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="FT9" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="FU9" t="n">
-        <v>3.450000000000131</v>
+      <c r="FM9">
+        <f>FM8+10</f>
+        <v/>
+      </c>
+      <c r="FN9">
+        <f>FO8</f>
+        <v/>
+      </c>
+      <c r="FU9">
+        <f>IF(FO9="", "", (FN9-FO9)*1000/(FM9-FM8))</f>
+        <v/>
       </c>
       <c r="FV9" s="121">
         <f>FU9/FR$2</f>
         <v/>
       </c>
-      <c r="FY9" t="n">
-        <v>3.450000000000131</v>
-      </c>
-      <c r="FZ9" t="n">
-        <v>29.5235</v>
-      </c>
-      <c r="GA9" t="n">
-        <v>29.4885</v>
-      </c>
-      <c r="GD9" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="GF9" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="GG9" t="n">
-        <v>3.450000000000131</v>
+      <c r="FY9">
+        <f>FY8+10</f>
+        <v/>
+      </c>
+      <c r="FZ9">
+        <f>GA8</f>
+        <v/>
+      </c>
+      <c r="GG9">
+        <f>IF(GA9="", "", (FZ9-GA9)*1000/(FY9-FY8))</f>
+        <v/>
       </c>
       <c r="GH9" s="121">
         <f>GG9/GD$2</f>
         <v/>
       </c>
-      <c r="GK9" t="n">
-        <v>50</v>
-      </c>
-      <c r="GL9" t="n">
-        <v>29.5235</v>
-      </c>
-      <c r="GM9" t="n">
-        <v>29.4885</v>
-      </c>
-      <c r="GP9" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="GR9" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="GS9" t="n">
-        <v>3.500000000000014</v>
+      <c r="GK9">
+        <f>GK8+10</f>
+        <v/>
+      </c>
+      <c r="GL9">
+        <f>GM8</f>
+        <v/>
+      </c>
+      <c r="GS9">
+        <f>IF(GM9="", "", (GL9-GM9)*1000/(GK9-GK8))</f>
+        <v/>
       </c>
       <c r="GT9" s="121">
         <f>GS9/GP$2</f>
         <v/>
       </c>
-      <c r="GW9" t="n">
-        <v>3.500000000000014</v>
+      <c r="GW9">
+        <f>GW8+10</f>
+        <v/>
       </c>
       <c r="GX9">
         <f>GY8</f>
         <v/>
       </c>
-      <c r="HE9" t="n">
-        <v>3.500000000000014</v>
+      <c r="HE9">
+        <f>IF(GY9="", "", (GX9-GY9)*1000/(GW9-GW8))</f>
+        <v/>
       </c>
       <c r="HF9" s="121">
         <f>HE9/HB$2</f>
@@ -13975,13 +13445,13 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B10" t="n">
-        <v>29.5575</v>
+        <v>29.5226</v>
       </c>
       <c r="C10" t="n">
-        <v>29.5226</v>
+        <v>29.4889</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -13994,7 +13464,7 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>3.490000000000038</v>
+        <v>3.369999999999962</v>
       </c>
       <c r="J10" s="121">
         <f>I10/F$2</f>
@@ -14009,13 +13479,13 @@
         <v/>
       </c>
       <c r="M10" t="n">
-        <v>3.490000000000038</v>
+        <v>70</v>
       </c>
       <c r="N10" t="n">
-        <v>29.678</v>
+        <v>29.6434</v>
       </c>
       <c r="O10" t="n">
-        <v>29.6434</v>
+        <v>29.6089</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -14028,7 +13498,7 @@
         </is>
       </c>
       <c r="U10" t="n">
-        <v>3.490000000000038</v>
+        <v>3.450000000000131</v>
       </c>
       <c r="V10" s="121">
         <f>U10/R$2</f>
@@ -14043,13 +13513,13 @@
         <v/>
       </c>
       <c r="Y10" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="Z10" t="n">
-        <v>29.678</v>
+        <v>29.464</v>
       </c>
       <c r="AA10" t="n">
-        <v>29.6434</v>
+        <v>29.4212</v>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
@@ -14062,7 +13532,7 @@
         </is>
       </c>
       <c r="AG10" t="n">
-        <v>3.460000000000107</v>
+        <v>4.279999999999973</v>
       </c>
       <c r="AH10" s="121">
         <f>AG10/AD$2</f>
@@ -14077,13 +13547,13 @@
         <v/>
       </c>
       <c r="AK10" t="n">
-        <v>3.460000000000107</v>
+        <v>70</v>
       </c>
       <c r="AL10" t="n">
-        <v>29.5066</v>
+        <v>29.4931</v>
       </c>
       <c r="AM10" t="n">
-        <v>29.464</v>
+        <v>29.4595</v>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
@@ -14096,7 +13566,7 @@
         </is>
       </c>
       <c r="AS10" t="n">
-        <v>3.460000000000107</v>
+        <v>3.359999999999985</v>
       </c>
       <c r="AT10" s="121">
         <f>AS10/AP$2</f>
@@ -14111,13 +13581,13 @@
         <v/>
       </c>
       <c r="AW10" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AX10" t="n">
-        <v>29.5066</v>
+        <v>29.6065</v>
       </c>
       <c r="AY10" t="n">
-        <v>29.464</v>
+        <v>29.5785</v>
       </c>
       <c r="BB10" t="inlineStr">
         <is>
@@ -14130,7 +13600,7 @@
         </is>
       </c>
       <c r="BE10" t="n">
-        <v>4.260000000000019</v>
+        <v>2.800000000000225</v>
       </c>
       <c r="BF10" s="121">
         <f>BE10/BB$2</f>
@@ -14145,13 +13615,13 @@
         <v/>
       </c>
       <c r="BI10" t="n">
-        <v>4.260000000000019</v>
+        <v>70</v>
       </c>
       <c r="BJ10" t="n">
-        <v>29.5276</v>
+        <v>29.528</v>
       </c>
       <c r="BK10" t="n">
-        <v>29.4931</v>
+        <v>29.4913</v>
       </c>
       <c r="BN10" t="inlineStr">
         <is>
@@ -14164,7 +13634,7 @@
         </is>
       </c>
       <c r="BQ10" t="n">
-        <v>4.260000000000019</v>
+        <v>3.669999999999973</v>
       </c>
       <c r="BR10" s="121">
         <f>BQ10/BN$2</f>
@@ -14179,13 +13649,13 @@
         <v/>
       </c>
       <c r="BU10" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="BV10" t="n">
-        <v>29.5276</v>
+        <v>29.5118</v>
       </c>
       <c r="BW10" t="n">
-        <v>29.4931</v>
+        <v>29.4779</v>
       </c>
       <c r="BZ10" t="inlineStr">
         <is>
@@ -14198,7 +13668,7 @@
         </is>
       </c>
       <c r="CC10" t="n">
-        <v>3.450000000000131</v>
+        <v>3.389999999999915</v>
       </c>
       <c r="CD10" s="121">
         <f>CC10/BZ$2</f>
@@ -14213,13 +13683,13 @@
         <v/>
       </c>
       <c r="CG10" t="n">
-        <v>3.450000000000131</v>
+        <v>70</v>
       </c>
       <c r="CH10" t="n">
-        <v>29.6355</v>
+        <v>29.702</v>
       </c>
       <c r="CI10" t="n">
-        <v>29.6065</v>
+        <v>29.6672</v>
       </c>
       <c r="CL10" t="inlineStr">
         <is>
@@ -14232,7 +13702,7 @@
         </is>
       </c>
       <c r="CO10" t="n">
-        <v>3.450000000000131</v>
+        <v>3.480000000000061</v>
       </c>
       <c r="CP10" s="121">
         <f>CO10/CL$2</f>
@@ -14247,13 +13717,13 @@
         <v/>
       </c>
       <c r="CS10" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="CT10" t="n">
-        <v>29.6355</v>
+        <v>29.4506</v>
       </c>
       <c r="CU10" t="n">
-        <v>29.6065</v>
+        <v>29.4127</v>
       </c>
       <c r="CX10" t="inlineStr">
         <is>
@@ -14266,7 +13736,7 @@
         </is>
       </c>
       <c r="DA10" t="n">
-        <v>2.899999999999991</v>
+        <v>3.790000000000049</v>
       </c>
       <c r="DB10" s="121">
         <f>DA10/CX$2</f>
@@ -14280,27 +13750,17 @@
         <f>AVERAGE(DA8:DA10)</f>
         <v/>
       </c>
-      <c r="DE10" t="n">
-        <v>2.899999999999991</v>
-      </c>
-      <c r="DF10" t="n">
-        <v>29.5653</v>
-      </c>
-      <c r="DG10" t="n">
-        <v>29.528</v>
-      </c>
-      <c r="DJ10" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="DL10" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="DM10" t="n">
-        <v>2.899999999999991</v>
+      <c r="DE10">
+        <f>DE9+10</f>
+        <v/>
+      </c>
+      <c r="DF10">
+        <f>DG9</f>
+        <v/>
+      </c>
+      <c r="DM10">
+        <f>IF(DG10="", "", (DF10-DG10)*1000/(DE10-DE9))</f>
+        <v/>
       </c>
       <c r="DN10" s="121">
         <f>DM10/DJ$2</f>
@@ -14314,27 +13774,17 @@
         <f>AVERAGE(DM8:DM10)</f>
         <v/>
       </c>
-      <c r="DQ10" t="n">
-        <v>60</v>
-      </c>
-      <c r="DR10" t="n">
-        <v>29.5653</v>
-      </c>
-      <c r="DS10" t="n">
-        <v>29.528</v>
-      </c>
-      <c r="DV10" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="DX10" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="DY10" t="n">
-        <v>3.730000000000189</v>
+      <c r="DQ10">
+        <f>DQ9+10</f>
+        <v/>
+      </c>
+      <c r="DR10">
+        <f>DS9</f>
+        <v/>
+      </c>
+      <c r="DY10">
+        <f>IF(DS10="", "", (DR10-DS10)*1000/(DQ10-DQ9))</f>
+        <v/>
       </c>
       <c r="DZ10" s="121">
         <f>DY10/DV$2</f>
@@ -14348,27 +13798,17 @@
         <f>AVERAGE(DY8:DY10)</f>
         <v/>
       </c>
-      <c r="EC10" t="n">
-        <v>3.730000000000189</v>
-      </c>
-      <c r="ED10" t="n">
-        <v>29.5467</v>
-      </c>
-      <c r="EE10" t="n">
-        <v>29.5118</v>
-      </c>
-      <c r="EH10" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="EJ10" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="EK10" t="n">
-        <v>3.730000000000189</v>
+      <c r="EC10">
+        <f>EC9+10</f>
+        <v/>
+      </c>
+      <c r="ED10">
+        <f>EE9</f>
+        <v/>
+      </c>
+      <c r="EK10">
+        <f>IF(EE10="", "", (ED10-EE10)*1000/(EC10-EC9))</f>
+        <v/>
       </c>
       <c r="EL10" s="121">
         <f>EK10/EH$2</f>
@@ -14382,27 +13822,17 @@
         <f>AVERAGE(EK8:EK10)</f>
         <v/>
       </c>
-      <c r="EO10" t="n">
-        <v>60</v>
-      </c>
-      <c r="EP10" t="n">
-        <v>29.5467</v>
-      </c>
-      <c r="EQ10" t="n">
-        <v>29.5118</v>
-      </c>
-      <c r="ET10" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="EV10" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="EW10" t="n">
-        <v>3.490000000000038</v>
+      <c r="EO10">
+        <f>EO9+10</f>
+        <v/>
+      </c>
+      <c r="EP10">
+        <f>EQ9</f>
+        <v/>
+      </c>
+      <c r="EW10">
+        <f>IF(EQ10="", "", (EP10-EQ10)*1000/(EO10-EO9))</f>
+        <v/>
       </c>
       <c r="EX10" s="121">
         <f>EW10/ET$2</f>
@@ -14416,27 +13846,17 @@
         <f>AVERAGE(EW8:EW10)</f>
         <v/>
       </c>
-      <c r="FA10" t="n">
-        <v>3.490000000000038</v>
-      </c>
-      <c r="FB10" t="n">
-        <v>29.7362</v>
-      </c>
-      <c r="FC10" t="n">
-        <v>29.702</v>
-      </c>
-      <c r="FF10" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="FH10" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="FI10" t="n">
-        <v>3.490000000000038</v>
+      <c r="FA10">
+        <f>FA9+10</f>
+        <v/>
+      </c>
+      <c r="FB10">
+        <f>FC9</f>
+        <v/>
+      </c>
+      <c r="FI10">
+        <f>IF(FC10="", "", (FB10-FC10)*1000/(FA10-FA9))</f>
+        <v/>
       </c>
       <c r="FJ10" s="121">
         <f>FI10/FF$2</f>
@@ -14450,27 +13870,17 @@
         <f>AVERAGE(FI8:FI10)</f>
         <v/>
       </c>
-      <c r="FM10" t="n">
-        <v>60</v>
-      </c>
-      <c r="FN10" t="n">
-        <v>29.7362</v>
-      </c>
-      <c r="FO10" t="n">
-        <v>29.702</v>
-      </c>
-      <c r="FR10" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="FT10" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="FU10" t="n">
-        <v>3.419999999999845</v>
+      <c r="FM10">
+        <f>FM9+10</f>
+        <v/>
+      </c>
+      <c r="FN10">
+        <f>FO9</f>
+        <v/>
+      </c>
+      <c r="FU10">
+        <f>IF(FO10="", "", (FN10-FO10)*1000/(FM10-FM9))</f>
+        <v/>
       </c>
       <c r="FV10" s="121">
         <f>FU10/FR$2</f>
@@ -14484,27 +13894,17 @@
         <f>AVERAGE(FU8:FU10)</f>
         <v/>
       </c>
-      <c r="FY10" t="n">
-        <v>3.419999999999845</v>
-      </c>
-      <c r="FZ10" t="n">
-        <v>29.4885</v>
-      </c>
-      <c r="GA10" t="n">
-        <v>29.4506</v>
-      </c>
-      <c r="GD10" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="GF10" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="GG10" t="n">
-        <v>3.419999999999845</v>
+      <c r="FY10">
+        <f>FY9+10</f>
+        <v/>
+      </c>
+      <c r="FZ10">
+        <f>GA9</f>
+        <v/>
+      </c>
+      <c r="GG10">
+        <f>IF(GA10="", "", (FZ10-GA10)*1000/(FY10-FY9))</f>
+        <v/>
       </c>
       <c r="GH10" s="121">
         <f>GG10/GD$2</f>
@@ -14518,27 +13918,17 @@
         <f>AVERAGE(GG8:GG10)</f>
         <v/>
       </c>
-      <c r="GK10" t="n">
-        <v>60</v>
-      </c>
-      <c r="GL10" t="n">
-        <v>29.4885</v>
-      </c>
-      <c r="GM10" t="n">
-        <v>29.4506</v>
-      </c>
-      <c r="GP10" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="GR10" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="GS10" t="n">
-        <v>3.789999999999694</v>
+      <c r="GK10">
+        <f>GK9+10</f>
+        <v/>
+      </c>
+      <c r="GL10">
+        <f>GM9</f>
+        <v/>
+      </c>
+      <c r="GS10">
+        <f>IF(GM10="", "", (GL10-GM10)*1000/(GK10-GK9))</f>
+        <v/>
       </c>
       <c r="GT10" s="121">
         <f>GS10/GP$2</f>
@@ -14552,15 +13942,17 @@
         <f>AVERAGE(GS8:GS10)</f>
         <v/>
       </c>
-      <c r="GW10" t="n">
-        <v>3.789999999999694</v>
+      <c r="GW10">
+        <f>GW9+10</f>
+        <v/>
       </c>
       <c r="GX10">
         <f>GY9</f>
         <v/>
       </c>
-      <c r="HE10" t="n">
-        <v>3.789999999999694</v>
+      <c r="HE10">
+        <f>IF(GY10="", "", (GX10-GY10)*1000/(GW10-GW9))</f>
+        <v/>
       </c>
       <c r="HF10" s="121">
         <f>HE10/HB$2</f>
@@ -14673,13 +14065,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B11" t="n">
-        <v>29.5226</v>
+        <v>29.4889</v>
       </c>
       <c r="C11" t="n">
-        <v>29.4889</v>
+        <v>29.4553</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -14692,20 +14084,20 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>3.369999999999962</v>
+        <v>3.359999999999985</v>
       </c>
       <c r="J11" s="121">
         <f>I11/F$2</f>
         <v/>
       </c>
       <c r="M11" t="n">
-        <v>3.369999999999962</v>
+        <v>80</v>
       </c>
       <c r="N11" t="n">
-        <v>29.6434</v>
+        <v>29.6089</v>
       </c>
       <c r="O11" t="n">
-        <v>29.6089</v>
+        <v>29.574</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -14718,20 +14110,20 @@
         </is>
       </c>
       <c r="U11" t="n">
-        <v>3.369999999999962</v>
+        <v>3.489999999999682</v>
       </c>
       <c r="V11" s="121">
         <f>U11/R$2</f>
         <v/>
       </c>
       <c r="Y11" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="Z11" t="n">
-        <v>29.6434</v>
+        <v>29.4212</v>
       </c>
       <c r="AA11" t="n">
-        <v>29.6089</v>
+        <v>29.3801</v>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
@@ -14744,20 +14136,20 @@
         </is>
       </c>
       <c r="AG11" t="n">
-        <v>3.450000000000131</v>
+        <v>4.110000000000014</v>
       </c>
       <c r="AH11" s="121">
         <f>AG11/AD$2</f>
         <v/>
       </c>
       <c r="AK11" t="n">
-        <v>3.450000000000131</v>
+        <v>80</v>
       </c>
       <c r="AL11" t="n">
-        <v>29.464</v>
+        <v>29.4595</v>
       </c>
       <c r="AM11" t="n">
-        <v>29.4212</v>
+        <v>29.4266</v>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
@@ -14770,20 +14162,20 @@
         </is>
       </c>
       <c r="AS11" t="n">
-        <v>3.450000000000131</v>
+        <v>3.289999999999793</v>
       </c>
       <c r="AT11" s="121">
         <f>AS11/AP$2</f>
         <v/>
       </c>
       <c r="AW11" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AX11" t="n">
-        <v>29.464</v>
+        <v>29.5785</v>
       </c>
       <c r="AY11" t="n">
-        <v>29.4212</v>
+        <v>29.551</v>
       </c>
       <c r="BB11" t="inlineStr">
         <is>
@@ -14796,20 +14188,20 @@
         </is>
       </c>
       <c r="BE11" t="n">
-        <v>4.279999999999973</v>
+        <v>2.749999999999986</v>
       </c>
       <c r="BF11" s="121">
         <f>BE11/BB$2</f>
         <v/>
       </c>
       <c r="BI11" t="n">
-        <v>4.279999999999973</v>
+        <v>80</v>
       </c>
       <c r="BJ11" t="n">
-        <v>29.4931</v>
+        <v>29.4913</v>
       </c>
       <c r="BK11" t="n">
-        <v>29.4595</v>
+        <v>29.4554</v>
       </c>
       <c r="BN11" t="inlineStr">
         <is>
@@ -14822,20 +14214,20 @@
         </is>
       </c>
       <c r="BQ11" t="n">
-        <v>4.279999999999973</v>
+        <v>3.589999999999804</v>
       </c>
       <c r="BR11" s="121">
         <f>BQ11/BN$2</f>
         <v/>
       </c>
       <c r="BU11" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="BV11" t="n">
-        <v>29.4931</v>
+        <v>29.4779</v>
       </c>
       <c r="BW11" t="n">
-        <v>29.4595</v>
+        <v>29.4447</v>
       </c>
       <c r="BZ11" t="inlineStr">
         <is>
@@ -14848,20 +14240,20 @@
         </is>
       </c>
       <c r="CC11" t="n">
-        <v>3.359999999999985</v>
+        <v>3.320000000000078</v>
       </c>
       <c r="CD11" s="121">
         <f>CC11/BZ$2</f>
         <v/>
       </c>
       <c r="CG11" t="n">
-        <v>3.359999999999985</v>
+        <v>80</v>
       </c>
       <c r="CH11" t="n">
-        <v>29.6065</v>
+        <v>29.6672</v>
       </c>
       <c r="CI11" t="n">
-        <v>29.5785</v>
+        <v>29.6334</v>
       </c>
       <c r="CL11" t="inlineStr">
         <is>
@@ -14874,20 +14266,20 @@
         </is>
       </c>
       <c r="CO11" t="n">
-        <v>3.359999999999985</v>
+        <v>3.379999999999939</v>
       </c>
       <c r="CP11" s="121">
         <f>CO11/CL$2</f>
         <v/>
       </c>
       <c r="CS11" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="CT11" t="n">
-        <v>29.6065</v>
+        <v>29.4127</v>
       </c>
       <c r="CU11" t="n">
-        <v>29.5785</v>
+        <v>29.3755</v>
       </c>
       <c r="CX11" t="inlineStr">
         <is>
@@ -14900,229 +14292,151 @@
         </is>
       </c>
       <c r="DA11" t="n">
-        <v>2.800000000000225</v>
+        <v>3.720000000000212</v>
       </c>
       <c r="DB11" s="121">
         <f>DA11/CX$2</f>
         <v/>
       </c>
-      <c r="DE11" t="n">
-        <v>2.800000000000225</v>
-      </c>
-      <c r="DF11" t="n">
-        <v>29.528</v>
-      </c>
-      <c r="DG11" t="n">
-        <v>29.4913</v>
-      </c>
-      <c r="DJ11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="DL11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="DM11" t="n">
-        <v>2.800000000000225</v>
+      <c r="DE11">
+        <f>DE10+10</f>
+        <v/>
+      </c>
+      <c r="DF11">
+        <f>DG10</f>
+        <v/>
+      </c>
+      <c r="DM11">
+        <f>IF(DG11="", "", (DF11-DG11)*1000/(DE11-DE10))</f>
+        <v/>
       </c>
       <c r="DN11" s="121">
         <f>DM11/DJ$2</f>
         <v/>
       </c>
-      <c r="DQ11" t="n">
-        <v>70</v>
-      </c>
-      <c r="DR11" t="n">
-        <v>29.528</v>
-      </c>
-      <c r="DS11" t="n">
-        <v>29.4913</v>
-      </c>
-      <c r="DV11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="DX11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="DY11" t="n">
-        <v>3.669999999999973</v>
+      <c r="DQ11">
+        <f>DQ10+10</f>
+        <v/>
+      </c>
+      <c r="DR11">
+        <f>DS10</f>
+        <v/>
+      </c>
+      <c r="DY11">
+        <f>IF(DS11="", "", (DR11-DS11)*1000/(DQ11-DQ10))</f>
+        <v/>
       </c>
       <c r="DZ11" s="121">
         <f>DY11/DV$2</f>
         <v/>
       </c>
-      <c r="EC11" t="n">
-        <v>3.669999999999973</v>
-      </c>
-      <c r="ED11" t="n">
-        <v>29.5118</v>
-      </c>
-      <c r="EE11" t="n">
-        <v>29.4779</v>
-      </c>
-      <c r="EH11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="EJ11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="EK11" t="n">
-        <v>3.669999999999973</v>
+      <c r="EC11">
+        <f>EC10+10</f>
+        <v/>
+      </c>
+      <c r="ED11">
+        <f>EE10</f>
+        <v/>
+      </c>
+      <c r="EK11">
+        <f>IF(EE11="", "", (ED11-EE11)*1000/(EC11-EC10))</f>
+        <v/>
       </c>
       <c r="EL11" s="121">
         <f>EK11/EH$2</f>
         <v/>
       </c>
-      <c r="EO11" t="n">
-        <v>70</v>
-      </c>
-      <c r="EP11" t="n">
-        <v>29.5118</v>
-      </c>
-      <c r="EQ11" t="n">
-        <v>29.4779</v>
-      </c>
-      <c r="ET11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="EV11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="EW11" t="n">
-        <v>3.389999999999915</v>
+      <c r="EO11">
+        <f>EO10+10</f>
+        <v/>
+      </c>
+      <c r="EP11">
+        <f>EQ10</f>
+        <v/>
+      </c>
+      <c r="EW11">
+        <f>IF(EQ11="", "", (EP11-EQ11)*1000/(EO11-EO10))</f>
+        <v/>
       </c>
       <c r="EX11" s="121">
         <f>EW11/ET$2</f>
         <v/>
       </c>
-      <c r="FA11" t="n">
-        <v>3.389999999999915</v>
-      </c>
-      <c r="FB11" t="n">
-        <v>29.702</v>
-      </c>
-      <c r="FC11" t="n">
-        <v>29.6672</v>
-      </c>
-      <c r="FF11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="FH11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="FI11" t="n">
-        <v>3.389999999999915</v>
+      <c r="FA11">
+        <f>FA10+10</f>
+        <v/>
+      </c>
+      <c r="FB11">
+        <f>FC10</f>
+        <v/>
+      </c>
+      <c r="FI11">
+        <f>IF(FC11="", "", (FB11-FC11)*1000/(FA11-FA10))</f>
+        <v/>
       </c>
       <c r="FJ11" s="121">
         <f>FI11/FF$2</f>
         <v/>
       </c>
-      <c r="FM11" t="n">
-        <v>70</v>
-      </c>
-      <c r="FN11" t="n">
-        <v>29.702</v>
-      </c>
-      <c r="FO11" t="n">
-        <v>29.6672</v>
-      </c>
-      <c r="FR11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="FT11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="FU11" t="n">
-        <v>3.480000000000061</v>
+      <c r="FM11">
+        <f>FM10+10</f>
+        <v/>
+      </c>
+      <c r="FN11">
+        <f>FO10</f>
+        <v/>
+      </c>
+      <c r="FU11">
+        <f>IF(FO11="", "", (FN11-FO11)*1000/(FM11-FM10))</f>
+        <v/>
       </c>
       <c r="FV11" s="121">
         <f>FU11/FR$2</f>
         <v/>
       </c>
-      <c r="FY11" t="n">
-        <v>3.480000000000061</v>
-      </c>
-      <c r="FZ11" t="n">
-        <v>29.4506</v>
-      </c>
-      <c r="GA11" t="n">
-        <v>29.4127</v>
-      </c>
-      <c r="GD11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="GF11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="GG11" t="n">
-        <v>3.480000000000061</v>
+      <c r="FY11">
+        <f>FY10+10</f>
+        <v/>
+      </c>
+      <c r="FZ11">
+        <f>GA10</f>
+        <v/>
+      </c>
+      <c r="GG11">
+        <f>IF(GA11="", "", (FZ11-GA11)*1000/(FY11-FY10))</f>
+        <v/>
       </c>
       <c r="GH11" s="121">
         <f>GG11/GD$2</f>
         <v/>
       </c>
-      <c r="GK11" t="n">
-        <v>70</v>
-      </c>
-      <c r="GL11" t="n">
-        <v>29.4506</v>
-      </c>
-      <c r="GM11" t="n">
-        <v>29.4127</v>
-      </c>
-      <c r="GP11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="GR11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="GS11" t="n">
-        <v>3.790000000000049</v>
+      <c r="GK11">
+        <f>GK10+10</f>
+        <v/>
+      </c>
+      <c r="GL11">
+        <f>GM10</f>
+        <v/>
+      </c>
+      <c r="GS11">
+        <f>IF(GM11="", "", (GL11-GM11)*1000/(GK11-GK10))</f>
+        <v/>
       </c>
       <c r="GT11" s="121">
         <f>GS11/GP$2</f>
         <v/>
       </c>
-      <c r="GW11" t="n">
-        <v>3.790000000000049</v>
+      <c r="GW11">
+        <f>GW10+10</f>
+        <v/>
       </c>
       <c r="GX11">
         <f>GY10</f>
         <v/>
       </c>
-      <c r="HE11" t="n">
-        <v>3.790000000000049</v>
+      <c r="HE11">
+        <f>IF(GY11="", "", (GX11-GY11)*1000/(GW11-GW10))</f>
+        <v/>
       </c>
       <c r="HF11" s="121">
         <f>HE11/HB$2</f>
@@ -15195,13 +14509,13 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B12" t="n">
-        <v>29.4889</v>
+        <v>29.4553</v>
       </c>
       <c r="C12" t="n">
-        <v>29.4553</v>
+        <v>29.4201</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -15214,20 +14528,20 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>3.359999999999985</v>
+        <v>3.519999999999968</v>
       </c>
       <c r="J12" s="121">
         <f>I12/F$2</f>
         <v/>
       </c>
       <c r="M12" t="n">
-        <v>3.359999999999985</v>
+        <v>90</v>
       </c>
       <c r="N12" t="n">
-        <v>29.6089</v>
+        <v>29.574</v>
       </c>
       <c r="O12" t="n">
-        <v>29.574</v>
+        <v>29.5376</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -15240,20 +14554,20 @@
         </is>
       </c>
       <c r="U12" t="n">
-        <v>3.359999999999985</v>
+        <v>3.640000000000043</v>
       </c>
       <c r="V12" s="121">
         <f>U12/R$2</f>
         <v/>
       </c>
       <c r="Y12" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="Z12" t="n">
-        <v>29.6089</v>
+        <v>29.3801</v>
       </c>
       <c r="AA12" t="n">
-        <v>29.574</v>
+        <v>29.3364</v>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
@@ -15266,20 +14580,20 @@
         </is>
       </c>
       <c r="AG12" t="n">
-        <v>3.489999999999682</v>
+        <v>4.369999999999763</v>
       </c>
       <c r="AH12" s="121">
         <f>AG12/AD$2</f>
         <v/>
       </c>
       <c r="AK12" t="n">
-        <v>3.489999999999682</v>
+        <v>90</v>
       </c>
       <c r="AL12" t="n">
-        <v>29.4212</v>
+        <v>29.4266</v>
       </c>
       <c r="AM12" t="n">
-        <v>29.3801</v>
+        <v>29.3951</v>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
@@ -15292,20 +14606,20 @@
         </is>
       </c>
       <c r="AS12" t="n">
-        <v>3.489999999999682</v>
+        <v>3.150000000000119</v>
       </c>
       <c r="AT12" s="121">
         <f>AS12/AP$2</f>
         <v/>
       </c>
       <c r="AW12" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AX12" t="n">
-        <v>29.4212</v>
+        <v>29.551</v>
       </c>
       <c r="AY12" t="n">
-        <v>29.3801</v>
+        <v>29.5251</v>
       </c>
       <c r="BB12" t="inlineStr">
         <is>
@@ -15318,20 +14632,20 @@
         </is>
       </c>
       <c r="BE12" t="n">
-        <v>4.110000000000014</v>
+        <v>2.590000000000003</v>
       </c>
       <c r="BF12" s="121">
         <f>BE12/BB$2</f>
         <v/>
       </c>
       <c r="BI12" t="n">
-        <v>4.110000000000014</v>
+        <v>90</v>
       </c>
       <c r="BJ12" t="n">
-        <v>29.4595</v>
+        <v>29.4554</v>
       </c>
       <c r="BK12" t="n">
-        <v>29.4266</v>
+        <v>29.4208</v>
       </c>
       <c r="BN12" t="inlineStr">
         <is>
@@ -15344,20 +14658,20 @@
         </is>
       </c>
       <c r="BQ12" t="n">
-        <v>4.110000000000014</v>
+        <v>3.460000000000107</v>
       </c>
       <c r="BR12" s="121">
         <f>BQ12/BN$2</f>
         <v/>
       </c>
       <c r="BU12" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BV12" t="n">
-        <v>29.4595</v>
+        <v>29.4447</v>
       </c>
       <c r="BW12" t="n">
-        <v>29.4266</v>
+        <v>29.4105</v>
       </c>
       <c r="BZ12" t="inlineStr">
         <is>
@@ -15370,20 +14684,20 @@
         </is>
       </c>
       <c r="CC12" t="n">
-        <v>3.289999999999793</v>
+        <v>3.420000000000201</v>
       </c>
       <c r="CD12" s="121">
         <f>CC12/BZ$2</f>
         <v/>
       </c>
       <c r="CG12" t="n">
-        <v>3.289999999999793</v>
+        <v>90</v>
       </c>
       <c r="CH12" t="n">
-        <v>29.5785</v>
+        <v>29.6334</v>
       </c>
       <c r="CI12" t="n">
-        <v>29.551</v>
+        <v>29.5986</v>
       </c>
       <c r="CL12" t="inlineStr">
         <is>
@@ -15396,20 +14710,20 @@
         </is>
       </c>
       <c r="CO12" t="n">
-        <v>3.289999999999793</v>
+        <v>3.480000000000061</v>
       </c>
       <c r="CP12" s="121">
         <f>CO12/CL$2</f>
         <v/>
       </c>
       <c r="CS12" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="CT12" t="n">
-        <v>29.5785</v>
+        <v>29.3755</v>
       </c>
       <c r="CU12" t="n">
-        <v>29.551</v>
+        <v>29.3378</v>
       </c>
       <c r="CX12" t="inlineStr">
         <is>
@@ -15422,229 +14736,151 @@
         </is>
       </c>
       <c r="DA12" t="n">
-        <v>2.749999999999986</v>
+        <v>3.76999999999974</v>
       </c>
       <c r="DB12" s="121">
         <f>DA12/CX$2</f>
         <v/>
       </c>
-      <c r="DE12" t="n">
-        <v>2.749999999999986</v>
-      </c>
-      <c r="DF12" t="n">
-        <v>29.4913</v>
-      </c>
-      <c r="DG12" t="n">
-        <v>29.4554</v>
-      </c>
-      <c r="DJ12" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="DL12" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="DM12" t="n">
-        <v>2.749999999999986</v>
+      <c r="DE12">
+        <f>DE11+10</f>
+        <v/>
+      </c>
+      <c r="DF12">
+        <f>DG11</f>
+        <v/>
+      </c>
+      <c r="DM12">
+        <f>IF(DG12="", "", (DF12-DG12)*1000/(DE12-DE11))</f>
+        <v/>
       </c>
       <c r="DN12" s="121">
         <f>DM12/DJ$2</f>
         <v/>
       </c>
-      <c r="DQ12" t="n">
-        <v>80</v>
-      </c>
-      <c r="DR12" t="n">
-        <v>29.4913</v>
-      </c>
-      <c r="DS12" t="n">
-        <v>29.4554</v>
-      </c>
-      <c r="DV12" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="DX12" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="DY12" t="n">
-        <v>3.589999999999804</v>
+      <c r="DQ12">
+        <f>DQ11+10</f>
+        <v/>
+      </c>
+      <c r="DR12">
+        <f>DS11</f>
+        <v/>
+      </c>
+      <c r="DY12">
+        <f>IF(DS12="", "", (DR12-DS12)*1000/(DQ12-DQ11))</f>
+        <v/>
       </c>
       <c r="DZ12" s="121">
         <f>DY12/DV$2</f>
         <v/>
       </c>
-      <c r="EC12" t="n">
-        <v>3.589999999999804</v>
-      </c>
-      <c r="ED12" t="n">
-        <v>29.4779</v>
-      </c>
-      <c r="EE12" t="n">
-        <v>29.4447</v>
-      </c>
-      <c r="EH12" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="EJ12" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="EK12" t="n">
-        <v>3.589999999999804</v>
+      <c r="EC12">
+        <f>EC11+10</f>
+        <v/>
+      </c>
+      <c r="ED12">
+        <f>EE11</f>
+        <v/>
+      </c>
+      <c r="EK12">
+        <f>IF(EE12="", "", (ED12-EE12)*1000/(EC12-EC11))</f>
+        <v/>
       </c>
       <c r="EL12" s="121">
         <f>EK12/EH$2</f>
         <v/>
       </c>
-      <c r="EO12" t="n">
-        <v>80</v>
-      </c>
-      <c r="EP12" t="n">
-        <v>29.4779</v>
-      </c>
-      <c r="EQ12" t="n">
-        <v>29.4447</v>
-      </c>
-      <c r="ET12" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="EV12" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="EW12" t="n">
-        <v>3.320000000000078</v>
+      <c r="EO12">
+        <f>EO11+10</f>
+        <v/>
+      </c>
+      <c r="EP12">
+        <f>EQ11</f>
+        <v/>
+      </c>
+      <c r="EW12">
+        <f>IF(EQ12="", "", (EP12-EQ12)*1000/(EO12-EO11))</f>
+        <v/>
       </c>
       <c r="EX12" s="121">
         <f>EW12/ET$2</f>
         <v/>
       </c>
-      <c r="FA12" t="n">
-        <v>3.320000000000078</v>
-      </c>
-      <c r="FB12" t="n">
-        <v>29.6672</v>
-      </c>
-      <c r="FC12" t="n">
-        <v>29.6334</v>
-      </c>
-      <c r="FF12" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="FH12" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="FI12" t="n">
-        <v>3.320000000000078</v>
+      <c r="FA12">
+        <f>FA11+10</f>
+        <v/>
+      </c>
+      <c r="FB12">
+        <f>FC11</f>
+        <v/>
+      </c>
+      <c r="FI12">
+        <f>IF(FC12="", "", (FB12-FC12)*1000/(FA12-FA11))</f>
+        <v/>
       </c>
       <c r="FJ12" s="121">
         <f>FI12/FF$2</f>
         <v/>
       </c>
-      <c r="FM12" t="n">
-        <v>80</v>
-      </c>
-      <c r="FN12" t="n">
-        <v>29.6672</v>
-      </c>
-      <c r="FO12" t="n">
-        <v>29.6334</v>
-      </c>
-      <c r="FR12" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="FT12" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="FU12" t="n">
-        <v>3.379999999999939</v>
+      <c r="FM12">
+        <f>FM11+10</f>
+        <v/>
+      </c>
+      <c r="FN12">
+        <f>FO11</f>
+        <v/>
+      </c>
+      <c r="FU12">
+        <f>IF(FO12="", "", (FN12-FO12)*1000/(FM12-FM11))</f>
+        <v/>
       </c>
       <c r="FV12" s="121">
         <f>FU12/FR$2</f>
         <v/>
       </c>
-      <c r="FY12" t="n">
-        <v>3.379999999999939</v>
-      </c>
-      <c r="FZ12" t="n">
-        <v>29.4127</v>
-      </c>
-      <c r="GA12" t="n">
-        <v>29.3755</v>
-      </c>
-      <c r="GD12" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="GF12" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="GG12" t="n">
-        <v>3.379999999999939</v>
+      <c r="FY12">
+        <f>FY11+10</f>
+        <v/>
+      </c>
+      <c r="FZ12">
+        <f>GA11</f>
+        <v/>
+      </c>
+      <c r="GG12">
+        <f>IF(GA12="", "", (FZ12-GA12)*1000/(FY12-FY11))</f>
+        <v/>
       </c>
       <c r="GH12" s="121">
         <f>GG12/GD$2</f>
         <v/>
       </c>
-      <c r="GK12" t="n">
-        <v>80</v>
-      </c>
-      <c r="GL12" t="n">
-        <v>29.4127</v>
-      </c>
-      <c r="GM12" t="n">
-        <v>29.3755</v>
-      </c>
-      <c r="GP12" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="GR12" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="GS12" t="n">
-        <v>3.720000000000212</v>
+      <c r="GK12">
+        <f>GK11+10</f>
+        <v/>
+      </c>
+      <c r="GL12">
+        <f>GM11</f>
+        <v/>
+      </c>
+      <c r="GS12">
+        <f>IF(GM12="", "", (GL12-GM12)*1000/(GK12-GK11))</f>
+        <v/>
       </c>
       <c r="GT12" s="121">
         <f>GS12/GP$2</f>
         <v/>
       </c>
-      <c r="GW12" t="n">
-        <v>3.720000000000212</v>
+      <c r="GW12">
+        <f>GW11+10</f>
+        <v/>
       </c>
       <c r="GX12">
         <f>GY11</f>
         <v/>
       </c>
-      <c r="HE12" t="n">
-        <v>3.720000000000212</v>
+      <c r="HE12">
+        <f>IF(GY12="", "", (GX12-GY12)*1000/(GW12-GW11))</f>
+        <v/>
       </c>
       <c r="HF12" s="121">
         <f>HE12/HB$2</f>
@@ -15717,13 +14953,13 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B13" t="n">
-        <v>29.4553</v>
+        <v>29.4201</v>
       </c>
       <c r="C13" t="n">
-        <v>29.4201</v>
+        <v>29.3854</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -15736,7 +14972,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>3.519999999999968</v>
+        <v>3.470000000000084</v>
       </c>
       <c r="J13" s="121">
         <f>I13/F$2</f>
@@ -15751,13 +14987,13 @@
         <v/>
       </c>
       <c r="M13" t="n">
-        <v>3.519999999999968</v>
+        <v>100</v>
       </c>
       <c r="N13" t="n">
-        <v>29.574</v>
+        <v>29.5376</v>
       </c>
       <c r="O13" t="n">
-        <v>29.5376</v>
+        <v>29.5015</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -15770,7 +15006,7 @@
         </is>
       </c>
       <c r="U13" t="n">
-        <v>3.519999999999968</v>
+        <v>3.610000000000113</v>
       </c>
       <c r="V13" s="121">
         <f>U13/R$2</f>
@@ -15785,13 +15021,13 @@
         <v/>
       </c>
       <c r="Y13" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="Z13" t="n">
-        <v>29.574</v>
+        <v>29.3364</v>
       </c>
       <c r="AA13" t="n">
-        <v>29.5376</v>
+        <v>29.2928</v>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
@@ -15804,7 +15040,7 @@
         </is>
       </c>
       <c r="AG13" t="n">
-        <v>3.640000000000043</v>
+        <v>4.360000000000142</v>
       </c>
       <c r="AH13" s="121">
         <f>AG13/AD$2</f>
@@ -15819,13 +15055,13 @@
         <v/>
       </c>
       <c r="AK13" t="n">
-        <v>3.640000000000043</v>
+        <v>100</v>
       </c>
       <c r="AL13" t="n">
-        <v>29.3801</v>
+        <v>29.3951</v>
       </c>
       <c r="AM13" t="n">
-        <v>29.3364</v>
+        <v>29.3604</v>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
@@ -15838,7 +15074,7 @@
         </is>
       </c>
       <c r="AS13" t="n">
-        <v>3.640000000000043</v>
+        <v>3.470000000000084</v>
       </c>
       <c r="AT13" s="121">
         <f>AS13/AP$2</f>
@@ -15853,13 +15089,13 @@
         <v/>
       </c>
       <c r="AW13" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AX13" t="n">
-        <v>29.3801</v>
+        <v>29.5251</v>
       </c>
       <c r="AY13" t="n">
-        <v>29.3364</v>
+        <v>29.499</v>
       </c>
       <c r="BB13" t="inlineStr">
         <is>
@@ -15872,7 +15108,7 @@
         </is>
       </c>
       <c r="BE13" t="n">
-        <v>4.369999999999763</v>
+        <v>2.609999999999957</v>
       </c>
       <c r="BF13" s="121">
         <f>BE13/BB$2</f>
@@ -15887,13 +15123,13 @@
         <v/>
       </c>
       <c r="BI13" t="n">
-        <v>4.369999999999763</v>
+        <v>100</v>
       </c>
       <c r="BJ13" t="n">
-        <v>29.4266</v>
+        <v>29.4208</v>
       </c>
       <c r="BK13" t="n">
-        <v>29.3951</v>
+        <v>29.3845</v>
       </c>
       <c r="BN13" t="inlineStr">
         <is>
@@ -15906,7 +15142,7 @@
         </is>
       </c>
       <c r="BQ13" t="n">
-        <v>4.369999999999763</v>
+        <v>3.630000000000067</v>
       </c>
       <c r="BR13" s="121">
         <f>BQ13/BN$2</f>
@@ -15921,13 +15157,13 @@
         <v/>
       </c>
       <c r="BU13" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BV13" t="n">
-        <v>29.4266</v>
+        <v>29.4105</v>
       </c>
       <c r="BW13" t="n">
-        <v>29.3951</v>
+        <v>29.3765</v>
       </c>
       <c r="BZ13" t="inlineStr">
         <is>
@@ -15940,7 +15176,7 @@
         </is>
       </c>
       <c r="CC13" t="n">
-        <v>3.150000000000119</v>
+        <v>3.399999999999892</v>
       </c>
       <c r="CD13" s="121">
         <f>CC13/BZ$2</f>
@@ -15955,13 +15191,13 @@
         <v/>
       </c>
       <c r="CG13" t="n">
-        <v>3.150000000000119</v>
+        <v>100</v>
       </c>
       <c r="CH13" t="n">
-        <v>29.551</v>
+        <v>29.5986</v>
       </c>
       <c r="CI13" t="n">
-        <v>29.5251</v>
+        <v>29.5633</v>
       </c>
       <c r="CL13" t="inlineStr">
         <is>
@@ -15974,7 +15210,7 @@
         </is>
       </c>
       <c r="CO13" t="n">
-        <v>3.150000000000119</v>
+        <v>3.529999999999944</v>
       </c>
       <c r="CP13" s="121">
         <f>CO13/CL$2</f>
@@ -15989,13 +15225,13 @@
         <v/>
       </c>
       <c r="CS13" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="CT13" t="n">
-        <v>29.551</v>
+        <v>29.3378</v>
       </c>
       <c r="CU13" t="n">
-        <v>29.5251</v>
+        <v>29.3011</v>
       </c>
       <c r="CX13" t="inlineStr">
         <is>
@@ -16008,7 +15244,7 @@
         </is>
       </c>
       <c r="DA13" t="n">
-        <v>2.590000000000003</v>
+        <v>3.669999999999973</v>
       </c>
       <c r="DB13" s="121">
         <f>DA13/CX$2</f>
@@ -16022,27 +15258,17 @@
         <f>AVERAGE(DA11:DA13)</f>
         <v/>
       </c>
-      <c r="DE13" t="n">
-        <v>2.590000000000003</v>
-      </c>
-      <c r="DF13" t="n">
-        <v>29.4554</v>
-      </c>
-      <c r="DG13" t="n">
-        <v>29.4208</v>
-      </c>
-      <c r="DJ13" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="DL13" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="DM13" t="n">
-        <v>2.590000000000003</v>
+      <c r="DE13">
+        <f>DE12+10</f>
+        <v/>
+      </c>
+      <c r="DF13">
+        <f>DG12</f>
+        <v/>
+      </c>
+      <c r="DM13">
+        <f>IF(DG13="", "", (DF13-DG13)*1000/(DE13-DE12))</f>
+        <v/>
       </c>
       <c r="DN13" s="121">
         <f>DM13/DJ$2</f>
@@ -16056,27 +15282,17 @@
         <f>AVERAGE(DM11:DM13)</f>
         <v/>
       </c>
-      <c r="DQ13" t="n">
-        <v>90</v>
-      </c>
-      <c r="DR13" t="n">
-        <v>29.4554</v>
-      </c>
-      <c r="DS13" t="n">
-        <v>29.4208</v>
-      </c>
-      <c r="DV13" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="DX13" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="DY13" t="n">
-        <v>3.460000000000107</v>
+      <c r="DQ13">
+        <f>DQ12+10</f>
+        <v/>
+      </c>
+      <c r="DR13">
+        <f>DS12</f>
+        <v/>
+      </c>
+      <c r="DY13">
+        <f>IF(DS13="", "", (DR13-DS13)*1000/(DQ13-DQ12))</f>
+        <v/>
       </c>
       <c r="DZ13" s="121">
         <f>DY13/DV$2</f>
@@ -16090,27 +15306,17 @@
         <f>AVERAGE(DY11:DY13)</f>
         <v/>
       </c>
-      <c r="EC13" t="n">
-        <v>3.460000000000107</v>
-      </c>
-      <c r="ED13" t="n">
-        <v>29.4447</v>
-      </c>
-      <c r="EE13" t="n">
-        <v>29.4105</v>
-      </c>
-      <c r="EH13" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="EJ13" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="EK13" t="n">
-        <v>3.460000000000107</v>
+      <c r="EC13">
+        <f>EC12+10</f>
+        <v/>
+      </c>
+      <c r="ED13">
+        <f>EE12</f>
+        <v/>
+      </c>
+      <c r="EK13">
+        <f>IF(EE13="", "", (ED13-EE13)*1000/(EC13-EC12))</f>
+        <v/>
       </c>
       <c r="EL13" s="121">
         <f>EK13/EH$2</f>
@@ -16124,27 +15330,17 @@
         <f>AVERAGE(EK11:EK13)</f>
         <v/>
       </c>
-      <c r="EO13" t="n">
-        <v>90</v>
-      </c>
-      <c r="EP13" t="n">
-        <v>29.4447</v>
-      </c>
-      <c r="EQ13" t="n">
-        <v>29.4105</v>
-      </c>
-      <c r="ET13" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="EV13" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="EW13" t="n">
-        <v>3.420000000000201</v>
+      <c r="EO13">
+        <f>EO12+10</f>
+        <v/>
+      </c>
+      <c r="EP13">
+        <f>EQ12</f>
+        <v/>
+      </c>
+      <c r="EW13">
+        <f>IF(EQ13="", "", (EP13-EQ13)*1000/(EO13-EO12))</f>
+        <v/>
       </c>
       <c r="EX13" s="121">
         <f>EW13/ET$2</f>
@@ -16158,27 +15354,17 @@
         <f>AVERAGE(EW11:EW13)</f>
         <v/>
       </c>
-      <c r="FA13" t="n">
-        <v>3.420000000000201</v>
-      </c>
-      <c r="FB13" t="n">
-        <v>29.6334</v>
-      </c>
-      <c r="FC13" t="n">
-        <v>29.5986</v>
-      </c>
-      <c r="FF13" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="FH13" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="FI13" t="n">
-        <v>3.420000000000201</v>
+      <c r="FA13">
+        <f>FA12+10</f>
+        <v/>
+      </c>
+      <c r="FB13">
+        <f>FC12</f>
+        <v/>
+      </c>
+      <c r="FI13">
+        <f>IF(FC13="", "", (FB13-FC13)*1000/(FA13-FA12))</f>
+        <v/>
       </c>
       <c r="FJ13" s="121">
         <f>FI13/FF$2</f>
@@ -16192,27 +15378,17 @@
         <f>AVERAGE(FI11:FI13)</f>
         <v/>
       </c>
-      <c r="FM13" t="n">
-        <v>90</v>
-      </c>
-      <c r="FN13" t="n">
-        <v>29.6334</v>
-      </c>
-      <c r="FO13" t="n">
-        <v>29.5986</v>
-      </c>
-      <c r="FR13" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="FT13" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="FU13" t="n">
-        <v>3.480000000000061</v>
+      <c r="FM13">
+        <f>FM12+10</f>
+        <v/>
+      </c>
+      <c r="FN13">
+        <f>FO12</f>
+        <v/>
+      </c>
+      <c r="FU13">
+        <f>IF(FO13="", "", (FN13-FO13)*1000/(FM13-FM12))</f>
+        <v/>
       </c>
       <c r="FV13" s="121">
         <f>FU13/FR$2</f>
@@ -16226,27 +15402,17 @@
         <f>AVERAGE(FU11:FU13)</f>
         <v/>
       </c>
-      <c r="FY13" t="n">
-        <v>3.480000000000061</v>
-      </c>
-      <c r="FZ13" t="n">
-        <v>29.3755</v>
-      </c>
-      <c r="GA13" t="n">
-        <v>29.3378</v>
-      </c>
-      <c r="GD13" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="GF13" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="GG13" t="n">
-        <v>3.480000000000061</v>
+      <c r="FY13">
+        <f>FY12+10</f>
+        <v/>
+      </c>
+      <c r="FZ13">
+        <f>GA12</f>
+        <v/>
+      </c>
+      <c r="GG13">
+        <f>IF(GA13="", "", (FZ13-GA13)*1000/(FY13-FY12))</f>
+        <v/>
       </c>
       <c r="GH13" s="121">
         <f>GG13/GD$2</f>
@@ -16260,27 +15426,17 @@
         <f>AVERAGE(GG11:GG13)</f>
         <v/>
       </c>
-      <c r="GK13" t="n">
-        <v>90</v>
-      </c>
-      <c r="GL13" t="n">
-        <v>29.3755</v>
-      </c>
-      <c r="GM13" t="n">
-        <v>29.3378</v>
-      </c>
-      <c r="GP13" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="GR13" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="GS13" t="n">
-        <v>3.76999999999974</v>
+      <c r="GK13">
+        <f>GK12+10</f>
+        <v/>
+      </c>
+      <c r="GL13">
+        <f>GM12</f>
+        <v/>
+      </c>
+      <c r="GS13">
+        <f>IF(GM13="", "", (GL13-GM13)*1000/(GK13-GK12))</f>
+        <v/>
       </c>
       <c r="GT13" s="121">
         <f>GS13/GP$2</f>
@@ -16294,15 +15450,17 @@
         <f>AVERAGE(GS11:GS13)</f>
         <v/>
       </c>
-      <c r="GW13" t="n">
-        <v>3.76999999999974</v>
+      <c r="GW13">
+        <f>GW12+10</f>
+        <v/>
       </c>
       <c r="GX13">
         <f>GY12</f>
         <v/>
       </c>
-      <c r="HE13" t="n">
-        <v>3.76999999999974</v>
+      <c r="HE13">
+        <f>IF(GY13="", "", (GX13-GY13)*1000/(GW13-GW12))</f>
+        <v/>
       </c>
       <c r="HF13" s="121">
         <f>HE13/HB$2</f>
@@ -16414,14 +15572,13 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>100</v>
-      </c>
-      <c r="B14" t="n">
-        <v>29.4201</v>
-      </c>
-      <c r="C14" t="n">
-        <v>29.3854</v>
+      <c r="A14">
+        <f>A13+10</f>
+        <v/>
+      </c>
+      <c r="B14">
+        <f>C13</f>
+        <v/>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -16433,21 +15590,21 @@
           <t>None</t>
         </is>
       </c>
-      <c r="I14" t="n">
-        <v>3.470000000000084</v>
+      <c r="I14">
+        <f>IF(C14="", "", (B14-C14)*1000/(A14-A13))</f>
+        <v/>
       </c>
       <c r="J14" s="121">
         <f>I14/F$2</f>
         <v/>
       </c>
-      <c r="M14" t="n">
-        <v>3.470000000000084</v>
-      </c>
-      <c r="N14" t="n">
-        <v>29.5376</v>
-      </c>
-      <c r="O14" t="n">
-        <v>29.5015</v>
+      <c r="M14">
+        <f>M13+10</f>
+        <v/>
+      </c>
+      <c r="N14">
+        <f>O13</f>
+        <v/>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -16459,21 +15616,21 @@
           <t>None</t>
         </is>
       </c>
-      <c r="U14" t="n">
-        <v>3.470000000000084</v>
+      <c r="U14">
+        <f>IF(O14="", "", (N14-O14)*1000/(M14-M13))</f>
+        <v/>
       </c>
       <c r="V14" s="121">
         <f>U14/R$2</f>
         <v/>
       </c>
-      <c r="Y14" t="n">
-        <v>100</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>29.5376</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>29.5015</v>
+      <c r="Y14">
+        <f>Y13+10</f>
+        <v/>
+      </c>
+      <c r="Z14">
+        <f>AA13</f>
+        <v/>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
@@ -16485,21 +15642,21 @@
           <t>None</t>
         </is>
       </c>
-      <c r="AG14" t="n">
-        <v>3.610000000000113</v>
+      <c r="AG14">
+        <f>IF(AA14="", "", (Z14-AA14)*1000/(Y14-Y13))</f>
+        <v/>
       </c>
       <c r="AH14" s="121">
         <f>AG14/AD$2</f>
         <v/>
       </c>
-      <c r="AK14" t="n">
-        <v>3.610000000000113</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>29.3364</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>29.2928</v>
+      <c r="AK14">
+        <f>AK13+10</f>
+        <v/>
+      </c>
+      <c r="AL14">
+        <f>AM13</f>
+        <v/>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
@@ -16511,21 +15668,21 @@
           <t>None</t>
         </is>
       </c>
-      <c r="AS14" t="n">
-        <v>3.610000000000113</v>
+      <c r="AS14">
+        <f>IF(AM14="", "", (AL14-AM14)*1000/(AK14-AK13))</f>
+        <v/>
       </c>
       <c r="AT14" s="121">
         <f>AS14/AP$2</f>
         <v/>
       </c>
-      <c r="AW14" t="n">
-        <v>100</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>29.3364</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>29.2928</v>
+      <c r="AW14">
+        <f>AW13+10</f>
+        <v/>
+      </c>
+      <c r="AX14">
+        <f>AY13</f>
+        <v/>
       </c>
       <c r="BB14" t="inlineStr">
         <is>
@@ -16537,21 +15694,21 @@
           <t>None</t>
         </is>
       </c>
-      <c r="BE14" t="n">
-        <v>4.360000000000142</v>
+      <c r="BE14">
+        <f>IF(AY14="", "", (AX14-AY14)*1000/(AW14-AW13))</f>
+        <v/>
       </c>
       <c r="BF14" s="121">
         <f>BE14/BB$2</f>
         <v/>
       </c>
-      <c r="BI14" t="n">
-        <v>4.360000000000142</v>
-      </c>
-      <c r="BJ14" t="n">
-        <v>29.3951</v>
-      </c>
-      <c r="BK14" t="n">
-        <v>29.3604</v>
+      <c r="BI14">
+        <f>BI13+10</f>
+        <v/>
+      </c>
+      <c r="BJ14">
+        <f>BK13</f>
+        <v/>
       </c>
       <c r="BN14" t="inlineStr">
         <is>
@@ -16563,21 +15720,21 @@
           <t>None</t>
         </is>
       </c>
-      <c r="BQ14" t="n">
-        <v>4.360000000000142</v>
+      <c r="BQ14">
+        <f>IF(BK14="", "", (BJ14-BK14)*1000/(BI14-BI13))</f>
+        <v/>
       </c>
       <c r="BR14" s="121">
         <f>BQ14/BN$2</f>
         <v/>
       </c>
-      <c r="BU14" t="n">
-        <v>100</v>
-      </c>
-      <c r="BV14" t="n">
-        <v>29.3951</v>
-      </c>
-      <c r="BW14" t="n">
-        <v>29.3604</v>
+      <c r="BU14">
+        <f>BU13+10</f>
+        <v/>
+      </c>
+      <c r="BV14">
+        <f>BW13</f>
+        <v/>
       </c>
       <c r="BZ14" t="inlineStr">
         <is>
@@ -16589,21 +15746,21 @@
           <t>None</t>
         </is>
       </c>
-      <c r="CC14" t="n">
-        <v>3.470000000000084</v>
+      <c r="CC14">
+        <f>IF(BW14="", "", (BV14-BW14)*1000/(BU14-BU13))</f>
+        <v/>
       </c>
       <c r="CD14" s="121">
         <f>CC14/BZ$2</f>
         <v/>
       </c>
-      <c r="CG14" t="n">
-        <v>3.470000000000084</v>
-      </c>
-      <c r="CH14" t="n">
-        <v>29.5251</v>
-      </c>
-      <c r="CI14" t="n">
-        <v>29.499</v>
+      <c r="CG14">
+        <f>CG13+10</f>
+        <v/>
+      </c>
+      <c r="CH14">
+        <f>CI13</f>
+        <v/>
       </c>
       <c r="CL14" t="inlineStr">
         <is>
@@ -16615,21 +15772,21 @@
           <t>None</t>
         </is>
       </c>
-      <c r="CO14" t="n">
-        <v>3.470000000000084</v>
+      <c r="CO14">
+        <f>IF(CI14="", "", (CH14-CI14)*1000/(CG14-CG13))</f>
+        <v/>
       </c>
       <c r="CP14" s="121">
         <f>CO14/CL$2</f>
         <v/>
       </c>
-      <c r="CS14" t="n">
-        <v>100</v>
-      </c>
-      <c r="CT14" t="n">
-        <v>29.5251</v>
-      </c>
-      <c r="CU14" t="n">
-        <v>29.499</v>
+      <c r="CS14">
+        <f>CS13+10</f>
+        <v/>
+      </c>
+      <c r="CT14">
+        <f>CU13</f>
+        <v/>
       </c>
       <c r="CX14" t="inlineStr">
         <is>
@@ -16641,230 +15798,153 @@
           <t>None</t>
         </is>
       </c>
-      <c r="DA14" t="n">
-        <v>2.609999999999957</v>
+      <c r="DA14">
+        <f>IF(CU14="", "", (CT14-CU14)*1000/(CS14-CS13))</f>
+        <v/>
       </c>
       <c r="DB14" s="121">
         <f>DA14/CX$2</f>
         <v/>
       </c>
-      <c r="DE14" t="n">
-        <v>2.609999999999957</v>
-      </c>
-      <c r="DF14" t="n">
-        <v>29.4208</v>
-      </c>
-      <c r="DG14" t="n">
-        <v>29.3845</v>
-      </c>
-      <c r="DJ14" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="DL14" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="DM14" t="n">
-        <v>2.609999999999957</v>
+      <c r="DE14">
+        <f>DE13+10</f>
+        <v/>
+      </c>
+      <c r="DF14">
+        <f>DG13</f>
+        <v/>
+      </c>
+      <c r="DM14">
+        <f>IF(DG14="", "", (DF14-DG14)*1000/(DE14-DE13))</f>
+        <v/>
       </c>
       <c r="DN14" s="121">
         <f>DM14/DJ$2</f>
         <v/>
       </c>
-      <c r="DQ14" t="n">
-        <v>100</v>
-      </c>
-      <c r="DR14" t="n">
-        <v>29.4208</v>
-      </c>
-      <c r="DS14" t="n">
-        <v>29.3845</v>
-      </c>
-      <c r="DV14" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="DX14" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="DY14" t="n">
-        <v>3.630000000000067</v>
+      <c r="DQ14">
+        <f>DQ13+10</f>
+        <v/>
+      </c>
+      <c r="DR14">
+        <f>DS13</f>
+        <v/>
+      </c>
+      <c r="DY14">
+        <f>IF(DS14="", "", (DR14-DS14)*1000/(DQ14-DQ13))</f>
+        <v/>
       </c>
       <c r="DZ14" s="121">
         <f>DY14/DV$2</f>
         <v/>
       </c>
-      <c r="EC14" t="n">
-        <v>3.630000000000067</v>
-      </c>
-      <c r="ED14" t="n">
-        <v>29.4105</v>
-      </c>
-      <c r="EE14" t="n">
-        <v>29.3765</v>
-      </c>
-      <c r="EH14" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="EJ14" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="EK14" t="n">
-        <v>3.630000000000067</v>
+      <c r="EC14">
+        <f>EC13+10</f>
+        <v/>
+      </c>
+      <c r="ED14">
+        <f>EE13</f>
+        <v/>
+      </c>
+      <c r="EK14">
+        <f>IF(EE14="", "", (ED14-EE14)*1000/(EC14-EC13))</f>
+        <v/>
       </c>
       <c r="EL14" s="121">
         <f>EK14/EH$2</f>
         <v/>
       </c>
-      <c r="EO14" t="n">
-        <v>100</v>
-      </c>
-      <c r="EP14" t="n">
-        <v>29.4105</v>
-      </c>
-      <c r="EQ14" t="n">
-        <v>29.3765</v>
-      </c>
-      <c r="ET14" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="EV14" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="EW14" t="n">
-        <v>3.399999999999892</v>
+      <c r="EO14">
+        <f>EO13+10</f>
+        <v/>
+      </c>
+      <c r="EP14">
+        <f>EQ13</f>
+        <v/>
+      </c>
+      <c r="EW14">
+        <f>IF(EQ14="", "", (EP14-EQ14)*1000/(EO14-EO13))</f>
+        <v/>
       </c>
       <c r="EX14" s="121">
         <f>EW14/ET$2</f>
         <v/>
       </c>
-      <c r="FA14" t="n">
-        <v>3.399999999999892</v>
-      </c>
-      <c r="FB14" t="n">
-        <v>29.5986</v>
-      </c>
-      <c r="FC14" t="n">
-        <v>29.5633</v>
-      </c>
-      <c r="FF14" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="FH14" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="FI14" t="n">
-        <v>3.399999999999892</v>
+      <c r="FA14">
+        <f>FA13+10</f>
+        <v/>
+      </c>
+      <c r="FB14">
+        <f>FC13</f>
+        <v/>
+      </c>
+      <c r="FI14">
+        <f>IF(FC14="", "", (FB14-FC14)*1000/(FA14-FA13))</f>
+        <v/>
       </c>
       <c r="FJ14" s="121">
         <f>FI14/FF$2</f>
         <v/>
       </c>
-      <c r="FM14" t="n">
-        <v>100</v>
-      </c>
-      <c r="FN14" t="n">
-        <v>29.5986</v>
-      </c>
-      <c r="FO14" t="n">
-        <v>29.5633</v>
-      </c>
-      <c r="FR14" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="FT14" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="FU14" t="n">
-        <v>3.529999999999944</v>
+      <c r="FM14">
+        <f>FM13+10</f>
+        <v/>
+      </c>
+      <c r="FN14">
+        <f>FO13</f>
+        <v/>
+      </c>
+      <c r="FU14">
+        <f>IF(FO14="", "", (FN14-FO14)*1000/(FM14-FM13))</f>
+        <v/>
       </c>
       <c r="FV14" s="121">
         <f>FU14/FR$2</f>
         <v/>
       </c>
-      <c r="FY14" t="n">
-        <v>3.529999999999944</v>
-      </c>
-      <c r="FZ14" t="n">
-        <v>29.3378</v>
-      </c>
-      <c r="GA14" t="n">
-        <v>29.3011</v>
-      </c>
-      <c r="GD14" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="GF14" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="GG14" t="n">
-        <v>3.529999999999944</v>
+      <c r="FY14">
+        <f>FY13+10</f>
+        <v/>
+      </c>
+      <c r="FZ14">
+        <f>GA13</f>
+        <v/>
+      </c>
+      <c r="GG14">
+        <f>IF(GA14="", "", (FZ14-GA14)*1000/(FY14-FY13))</f>
+        <v/>
       </c>
       <c r="GH14" s="121">
         <f>GG14/GD$2</f>
         <v/>
       </c>
-      <c r="GK14" t="n">
-        <v>100</v>
-      </c>
-      <c r="GL14" t="n">
-        <v>29.3378</v>
-      </c>
-      <c r="GM14" t="n">
-        <v>29.3011</v>
-      </c>
-      <c r="GP14" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="GR14" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="GS14" t="n">
-        <v>3.669999999999973</v>
+      <c r="GK14">
+        <f>GK13+10</f>
+        <v/>
+      </c>
+      <c r="GL14">
+        <f>GM13</f>
+        <v/>
+      </c>
+      <c r="GS14">
+        <f>IF(GM14="", "", (GL14-GM14)*1000/(GK14-GK13))</f>
+        <v/>
       </c>
       <c r="GT14" s="121">
         <f>GS14/GP$2</f>
         <v/>
       </c>
-      <c r="GW14" t="n">
-        <v>3.669999999999973</v>
+      <c r="GW14">
+        <f>GW13+10</f>
+        <v/>
       </c>
       <c r="GX14">
         <f>GY13</f>
         <v/>
       </c>
-      <c r="HE14" t="n">
-        <v>3.669999999999973</v>
+      <c r="HE14">
+        <f>IF(GY14="", "", (GX14-GY14)*1000/(GW14-GW13))</f>
+        <v/>
       </c>
       <c r="HF14" s="121">
         <f>HE14/HB$2</f>
@@ -17178,16 +16258,6 @@
         <f>DG14</f>
         <v/>
       </c>
-      <c r="DJ15" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="DL15" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="DM15">
         <f>IF(DG15="", "", (DF15-DG15)*1000/(DE15-DE14))</f>
         <v/>
@@ -17204,16 +16274,6 @@
         <f>DS14</f>
         <v/>
       </c>
-      <c r="DV15" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="DX15" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="DY15">
         <f>IF(DS15="", "", (DR15-DS15)*1000/(DQ15-DQ14))</f>
         <v/>
@@ -17230,16 +16290,6 @@
         <f>EE14</f>
         <v/>
       </c>
-      <c r="EH15" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="EJ15" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="EK15">
         <f>IF(EE15="", "", (ED15-EE15)*1000/(EC15-EC14))</f>
         <v/>
@@ -17256,16 +16306,6 @@
         <f>EQ14</f>
         <v/>
       </c>
-      <c r="ET15" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="EV15" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="EW15">
         <f>IF(EQ15="", "", (EP15-EQ15)*1000/(EO15-EO14))</f>
         <v/>
@@ -17282,16 +16322,6 @@
         <f>FC14</f>
         <v/>
       </c>
-      <c r="FF15" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="FH15" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="FI15">
         <f>IF(FC15="", "", (FB15-FC15)*1000/(FA15-FA14))</f>
         <v/>
@@ -17308,16 +16338,6 @@
         <f>FO14</f>
         <v/>
       </c>
-      <c r="FR15" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="FT15" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="FU15">
         <f>IF(FO15="", "", (FN15-FO15)*1000/(FM15-FM14))</f>
         <v/>
@@ -17334,16 +16354,6 @@
         <f>GA14</f>
         <v/>
       </c>
-      <c r="GD15" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="GF15" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="GG15">
         <f>IF(GA15="", "", (FZ15-GA15)*1000/(FY15-FY14))</f>
         <v/>
@@ -17359,16 +16369,6 @@
       <c r="GL15">
         <f>GM14</f>
         <v/>
-      </c>
-      <c r="GP15" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="GR15" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
       </c>
       <c r="GS15">
         <f>IF(GM15="", "", (GL15-GM15)*1000/(GK15-GK14))</f>
@@ -17774,16 +16774,6 @@
         <f>DG15</f>
         <v/>
       </c>
-      <c r="DJ16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="DL16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="DM16">
         <f>IF(DG16="", "", (DF16-DG16)*1000/(DE16-DE15))</f>
         <v/>
@@ -17808,16 +16798,6 @@
         <f>DS15</f>
         <v/>
       </c>
-      <c r="DV16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="DX16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="DY16">
         <f>IF(DS16="", "", (DR16-DS16)*1000/(DQ16-DQ15))</f>
         <v/>
@@ -17842,16 +16822,6 @@
         <f>EE15</f>
         <v/>
       </c>
-      <c r="EH16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="EJ16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="EK16">
         <f>IF(EE16="", "", (ED16-EE16)*1000/(EC16-EC15))</f>
         <v/>
@@ -17876,16 +16846,6 @@
         <f>EQ15</f>
         <v/>
       </c>
-      <c r="ET16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="EV16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="EW16">
         <f>IF(EQ16="", "", (EP16-EQ16)*1000/(EO16-EO15))</f>
         <v/>
@@ -17910,16 +16870,6 @@
         <f>FC15</f>
         <v/>
       </c>
-      <c r="FF16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="FH16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="FI16">
         <f>IF(FC16="", "", (FB16-FC16)*1000/(FA16-FA15))</f>
         <v/>
@@ -17944,16 +16894,6 @@
         <f>FO15</f>
         <v/>
       </c>
-      <c r="FR16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="FT16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="FU16">
         <f>IF(FO16="", "", (FN16-FO16)*1000/(FM16-FM15))</f>
         <v/>
@@ -17978,16 +16918,6 @@
         <f>GA15</f>
         <v/>
       </c>
-      <c r="GD16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="GF16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="GG16">
         <f>IF(GA16="", "", (FZ16-GA16)*1000/(FY16-FY15))</f>
         <v/>
@@ -18011,16 +16941,6 @@
       <c r="GL16">
         <f>GM15</f>
         <v/>
-      </c>
-      <c r="GP16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="GR16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
       </c>
       <c r="GS16">
         <f>IF(GM16="", "", (GL16-GM16)*1000/(GK16-GK15))</f>
@@ -18402,16 +17322,6 @@
         <f>DG16</f>
         <v/>
       </c>
-      <c r="DJ17" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="DL17" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="DM17">
         <f>IF(DG17="", "", (DF17-DG17)*1000/(DE17-DE16))</f>
         <v/>
@@ -18428,16 +17338,6 @@
         <f>DS16</f>
         <v/>
       </c>
-      <c r="DV17" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="DX17" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="DY17">
         <f>IF(DS17="", "", (DR17-DS17)*1000/(DQ17-DQ16))</f>
         <v/>
@@ -18454,16 +17354,6 @@
         <f>EE16</f>
         <v/>
       </c>
-      <c r="EH17" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="EJ17" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="EK17">
         <f>IF(EE17="", "", (ED17-EE17)*1000/(EC17-EC16))</f>
         <v/>
@@ -18480,16 +17370,6 @@
         <f>EQ16</f>
         <v/>
       </c>
-      <c r="ET17" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="EV17" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="EW17">
         <f>IF(EQ17="", "", (EP17-EQ17)*1000/(EO17-EO16))</f>
         <v/>
@@ -18506,16 +17386,6 @@
         <f>FC16</f>
         <v/>
       </c>
-      <c r="FF17" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="FH17" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="FI17">
         <f>IF(FC17="", "", (FB17-FC17)*1000/(FA17-FA16))</f>
         <v/>
@@ -18532,16 +17402,6 @@
         <f>FO16</f>
         <v/>
       </c>
-      <c r="FR17" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="FT17" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="FU17">
         <f>IF(FO17="", "", (FN17-FO17)*1000/(FM17-FM16))</f>
         <v/>
@@ -18558,16 +17418,6 @@
         <f>GA16</f>
         <v/>
       </c>
-      <c r="GD17" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="GF17" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="GG17">
         <f>IF(GA17="", "", (FZ17-GA17)*1000/(FY17-FY16))</f>
         <v/>
@@ -18583,16 +17433,6 @@
       <c r="GL17">
         <f>GM16</f>
         <v/>
-      </c>
-      <c r="GP17" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="GR17" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
       </c>
       <c r="GS17">
         <f>IF(GM17="", "", (GL17-GM17)*1000/(GK17-GK16))</f>
@@ -18926,16 +17766,6 @@
         <f>DG17</f>
         <v/>
       </c>
-      <c r="DJ18" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="DL18" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="DM18">
         <f>IF(DG18="", "", (DF18-DG18)*1000/(DE18-DE17))</f>
         <v/>
@@ -18952,16 +17782,6 @@
         <f>DS17</f>
         <v/>
       </c>
-      <c r="DV18" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="DX18" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="DY18">
         <f>IF(DS18="", "", (DR18-DS18)*1000/(DQ18-DQ17))</f>
         <v/>
@@ -18978,16 +17798,6 @@
         <f>EE17</f>
         <v/>
       </c>
-      <c r="EH18" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="EJ18" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="EK18">
         <f>IF(EE18="", "", (ED18-EE18)*1000/(EC18-EC17))</f>
         <v/>
@@ -19004,16 +17814,6 @@
         <f>EQ17</f>
         <v/>
       </c>
-      <c r="ET18" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="EV18" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="EW18">
         <f>IF(EQ18="", "", (EP18-EQ18)*1000/(EO18-EO17))</f>
         <v/>
@@ -19030,16 +17830,6 @@
         <f>FC17</f>
         <v/>
       </c>
-      <c r="FF18" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="FH18" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="FI18">
         <f>IF(FC18="", "", (FB18-FC18)*1000/(FA18-FA17))</f>
         <v/>
@@ -19056,16 +17846,6 @@
         <f>FO17</f>
         <v/>
       </c>
-      <c r="FR18" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="FT18" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="FU18">
         <f>IF(FO18="", "", (FN18-FO18)*1000/(FM18-FM17))</f>
         <v/>
@@ -19082,16 +17862,6 @@
         <f>GA17</f>
         <v/>
       </c>
-      <c r="GD18" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="GF18" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="GG18">
         <f>IF(GA18="", "", (FZ18-GA18)*1000/(FY18-FY17))</f>
         <v/>
@@ -19107,16 +17877,6 @@
       <c r="GL18">
         <f>GM17</f>
         <v/>
-      </c>
-      <c r="GP18" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="GR18" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
       </c>
       <c r="GS18">
         <f>IF(GM18="", "", (GL18-GM18)*1000/(GK18-GK17))</f>
@@ -19522,16 +18282,6 @@
         <f>DG18</f>
         <v/>
       </c>
-      <c r="DJ19" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="DL19" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="DM19">
         <f>IF(DG19="", "", (DF19-DG19)*1000/(DE19-DE18))</f>
         <v/>
@@ -19556,16 +18306,6 @@
         <f>DS18</f>
         <v/>
       </c>
-      <c r="DV19" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="DX19" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="DY19">
         <f>IF(DS19="", "", (DR19-DS19)*1000/(DQ19-DQ18))</f>
         <v/>
@@ -19590,16 +18330,6 @@
         <f>EE18</f>
         <v/>
       </c>
-      <c r="EH19" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="EJ19" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="EK19">
         <f>IF(EE19="", "", (ED19-EE19)*1000/(EC19-EC18))</f>
         <v/>
@@ -19624,16 +18354,6 @@
         <f>EQ18</f>
         <v/>
       </c>
-      <c r="ET19" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="EV19" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="EW19">
         <f>IF(EQ19="", "", (EP19-EQ19)*1000/(EO19-EO18))</f>
         <v/>
@@ -19658,16 +18378,6 @@
         <f>FC18</f>
         <v/>
       </c>
-      <c r="FF19" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="FH19" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="FI19">
         <f>IF(FC19="", "", (FB19-FC19)*1000/(FA19-FA18))</f>
         <v/>
@@ -19692,16 +18402,6 @@
         <f>FO18</f>
         <v/>
       </c>
-      <c r="FR19" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="FT19" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="FU19">
         <f>IF(FO19="", "", (FN19-FO19)*1000/(FM19-FM18))</f>
         <v/>
@@ -19726,16 +18426,6 @@
         <f>GA18</f>
         <v/>
       </c>
-      <c r="GD19" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="GF19" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="GG19">
         <f>IF(GA19="", "", (FZ19-GA19)*1000/(FY19-FY18))</f>
         <v/>
@@ -19759,16 +18449,6 @@
       <c r="GL19">
         <f>GM18</f>
         <v/>
-      </c>
-      <c r="GP19" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="GR19" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
       </c>
       <c r="GS19">
         <f>IF(GM19="", "", (GL19-GM19)*1000/(GK19-GK18))</f>
@@ -20150,16 +18830,6 @@
         <f>DG19</f>
         <v/>
       </c>
-      <c r="DJ20" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="DL20" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="DM20">
         <f>IF(DG20="", "", (DF20-DG20)*1000/(DE20-DE19))</f>
         <v/>
@@ -20176,16 +18846,6 @@
         <f>DS19</f>
         <v/>
       </c>
-      <c r="DV20" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="DX20" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="DY20">
         <f>IF(DS20="", "", (DR20-DS20)*1000/(DQ20-DQ19))</f>
         <v/>
@@ -20202,16 +18862,6 @@
         <f>EE19</f>
         <v/>
       </c>
-      <c r="EH20" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="EJ20" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="EK20">
         <f>IF(EE20="", "", (ED20-EE20)*1000/(EC20-EC19))</f>
         <v/>
@@ -20228,16 +18878,6 @@
         <f>EQ19</f>
         <v/>
       </c>
-      <c r="ET20" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="EV20" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="EW20">
         <f>IF(EQ20="", "", (EP20-EQ20)*1000/(EO20-EO19))</f>
         <v/>
@@ -20254,16 +18894,6 @@
         <f>FC19</f>
         <v/>
       </c>
-      <c r="FF20" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="FH20" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="FI20">
         <f>IF(FC20="", "", (FB20-FC20)*1000/(FA20-FA19))</f>
         <v/>
@@ -20280,16 +18910,6 @@
         <f>FO19</f>
         <v/>
       </c>
-      <c r="FR20" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="FT20" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="FU20">
         <f>IF(FO20="", "", (FN20-FO20)*1000/(FM20-FM19))</f>
         <v/>
@@ -20306,16 +18926,6 @@
         <f>GA19</f>
         <v/>
       </c>
-      <c r="GD20" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="GF20" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="GG20">
         <f>IF(GA20="", "", (FZ20-GA20)*1000/(FY20-FY19))</f>
         <v/>
@@ -20331,16 +18941,6 @@
       <c r="GL20">
         <f>GM19</f>
         <v/>
-      </c>
-      <c r="GP20" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="GR20" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
       </c>
       <c r="GS20">
         <f>IF(GM20="", "", (GL20-GM20)*1000/(GK20-GK19))</f>
@@ -20674,16 +19274,6 @@
         <f>DG20</f>
         <v/>
       </c>
-      <c r="DJ21" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="DL21" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="DM21">
         <f>IF(DG21="", "", (DF21-DG21)*1000/(DE21-DE20))</f>
         <v/>
@@ -20700,16 +19290,6 @@
         <f>DS20</f>
         <v/>
       </c>
-      <c r="DV21" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="DX21" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="DY21">
         <f>IF(DS21="", "", (DR21-DS21)*1000/(DQ21-DQ20))</f>
         <v/>
@@ -20726,16 +19306,6 @@
         <f>EE20</f>
         <v/>
       </c>
-      <c r="EH21" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="EJ21" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="EK21">
         <f>IF(EE21="", "", (ED21-EE21)*1000/(EC21-EC20))</f>
         <v/>
@@ -20752,16 +19322,6 @@
         <f>EQ20</f>
         <v/>
       </c>
-      <c r="ET21" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="EV21" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="EW21">
         <f>IF(EQ21="", "", (EP21-EQ21)*1000/(EO21-EO20))</f>
         <v/>
@@ -20778,16 +19338,6 @@
         <f>FC20</f>
         <v/>
       </c>
-      <c r="FF21" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="FH21" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="FI21">
         <f>IF(FC21="", "", (FB21-FC21)*1000/(FA21-FA20))</f>
         <v/>
@@ -20804,16 +19354,6 @@
         <f>FO20</f>
         <v/>
       </c>
-      <c r="FR21" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="FT21" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="FU21">
         <f>IF(FO21="", "", (FN21-FO21)*1000/(FM21-FM20))</f>
         <v/>
@@ -20830,16 +19370,6 @@
         <f>GA20</f>
         <v/>
       </c>
-      <c r="GD21" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="GF21" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="GG21">
         <f>IF(GA21="", "", (FZ21-GA21)*1000/(FY21-FY20))</f>
         <v/>
@@ -20855,16 +19385,6 @@
       <c r="GL21">
         <f>GM20</f>
         <v/>
-      </c>
-      <c r="GP21" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="GR21" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
       </c>
       <c r="GS21">
         <f>IF(GM21="", "", (GL21-GM21)*1000/(GK21-GK20))</f>
@@ -21270,16 +19790,6 @@
         <f>DG21</f>
         <v/>
       </c>
-      <c r="DJ22" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="DL22" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="DM22">
         <f>IF(DG22="", "", (DF22-DG22)*1000/(DE22-DE21))</f>
         <v/>
@@ -21304,16 +19814,6 @@
         <f>DS21</f>
         <v/>
       </c>
-      <c r="DV22" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="DX22" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="DY22">
         <f>IF(DS22="", "", (DR22-DS22)*1000/(DQ22-DQ21))</f>
         <v/>
@@ -21338,16 +19838,6 @@
         <f>EE21</f>
         <v/>
       </c>
-      <c r="EH22" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="EJ22" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="EK22">
         <f>IF(EE22="", "", (ED22-EE22)*1000/(EC22-EC21))</f>
         <v/>
@@ -21372,16 +19862,6 @@
         <f>EQ21</f>
         <v/>
       </c>
-      <c r="ET22" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="EV22" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="EW22">
         <f>IF(EQ22="", "", (EP22-EQ22)*1000/(EO22-EO21))</f>
         <v/>
@@ -21406,16 +19886,6 @@
         <f>FC21</f>
         <v/>
       </c>
-      <c r="FF22" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="FH22" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="FI22">
         <f>IF(FC22="", "", (FB22-FC22)*1000/(FA22-FA21))</f>
         <v/>
@@ -21440,16 +19910,6 @@
         <f>FO21</f>
         <v/>
       </c>
-      <c r="FR22" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="FT22" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="FU22">
         <f>IF(FO22="", "", (FN22-FO22)*1000/(FM22-FM21))</f>
         <v/>
@@ -21474,16 +19934,6 @@
         <f>GA21</f>
         <v/>
       </c>
-      <c r="GD22" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="GF22" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="GG22">
         <f>IF(GA22="", "", (FZ22-GA22)*1000/(FY22-FY21))</f>
         <v/>
@@ -21507,16 +19957,6 @@
       <c r="GL22">
         <f>GM21</f>
         <v/>
-      </c>
-      <c r="GP22" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="GR22" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
       </c>
       <c r="GS22">
         <f>IF(GM22="", "", (GL22-GM22)*1000/(GK22-GK21))</f>
@@ -21898,16 +20338,6 @@
         <f>DG22</f>
         <v/>
       </c>
-      <c r="DJ23" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="DL23" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="DM23">
         <f>IF(DG23="", "", (DF23-DG23)*1000/(DE23-DE22))</f>
         <v/>
@@ -21924,16 +20354,6 @@
         <f>DS22</f>
         <v/>
       </c>
-      <c r="DV23" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="DX23" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="DY23">
         <f>IF(DS23="", "", (DR23-DS23)*1000/(DQ23-DQ22))</f>
         <v/>
@@ -21950,16 +20370,6 @@
         <f>EE22</f>
         <v/>
       </c>
-      <c r="EH23" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="EJ23" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="EK23">
         <f>IF(EE23="", "", (ED23-EE23)*1000/(EC23-EC22))</f>
         <v/>
@@ -21976,16 +20386,6 @@
         <f>EQ22</f>
         <v/>
       </c>
-      <c r="ET23" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="EV23" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="EW23">
         <f>IF(EQ23="", "", (EP23-EQ23)*1000/(EO23-EO22))</f>
         <v/>
@@ -22002,16 +20402,6 @@
         <f>FC22</f>
         <v/>
       </c>
-      <c r="FF23" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="FH23" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="FI23">
         <f>IF(FC23="", "", (FB23-FC23)*1000/(FA23-FA22))</f>
         <v/>
@@ -22028,16 +20418,6 @@
         <f>FO22</f>
         <v/>
       </c>
-      <c r="FR23" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="FT23" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="FU23">
         <f>IF(FO23="", "", (FN23-FO23)*1000/(FM23-FM22))</f>
         <v/>
@@ -22054,16 +20434,6 @@
         <f>GA22</f>
         <v/>
       </c>
-      <c r="GD23" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="GF23" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="GG23">
         <f>IF(GA23="", "", (FZ23-GA23)*1000/(FY23-FY22))</f>
         <v/>
@@ -22079,16 +20449,6 @@
       <c r="GL23">
         <f>GM22</f>
         <v/>
-      </c>
-      <c r="GP23" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="GR23" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
       </c>
       <c r="GS23">
         <f>IF(GM23="", "", (GL23-GM23)*1000/(GK23-GK22))</f>
@@ -22422,16 +20782,6 @@
         <f>DG23</f>
         <v/>
       </c>
-      <c r="DJ24" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="DL24" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="DM24">
         <f>IF(DG24="", "", (DF24-DG24)*1000/(DE24-DE23))</f>
         <v/>
@@ -22448,16 +20798,6 @@
         <f>DS23</f>
         <v/>
       </c>
-      <c r="DV24" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="DX24" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="DY24">
         <f>IF(DS24="", "", (DR24-DS24)*1000/(DQ24-DQ23))</f>
         <v/>
@@ -22474,16 +20814,6 @@
         <f>EE23</f>
         <v/>
       </c>
-      <c r="EH24" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="EJ24" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="EK24">
         <f>IF(EE24="", "", (ED24-EE24)*1000/(EC24-EC23))</f>
         <v/>
@@ -22500,16 +20830,6 @@
         <f>EQ23</f>
         <v/>
       </c>
-      <c r="ET24" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="EV24" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="EW24">
         <f>IF(EQ24="", "", (EP24-EQ24)*1000/(EO24-EO23))</f>
         <v/>
@@ -22526,16 +20846,6 @@
         <f>FC23</f>
         <v/>
       </c>
-      <c r="FF24" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="FH24" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="FI24">
         <f>IF(FC24="", "", (FB24-FC24)*1000/(FA24-FA23))</f>
         <v/>
@@ -22552,16 +20862,6 @@
         <f>FO23</f>
         <v/>
       </c>
-      <c r="FR24" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="FT24" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="FU24">
         <f>IF(FO24="", "", (FN24-FO24)*1000/(FM24-FM23))</f>
         <v/>
@@ -22578,16 +20878,6 @@
         <f>GA23</f>
         <v/>
       </c>
-      <c r="GD24" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="GF24" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="GG24">
         <f>IF(GA24="", "", (FZ24-GA24)*1000/(FY24-FY23))</f>
         <v/>
@@ -22603,16 +20893,6 @@
       <c r="GL24">
         <f>GM23</f>
         <v/>
-      </c>
-      <c r="GP24" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="GR24" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
       </c>
       <c r="GS24">
         <f>IF(GM24="", "", (GL24-GM24)*1000/(GK24-GK23))</f>
@@ -23018,16 +21298,6 @@
         <f>DG24</f>
         <v/>
       </c>
-      <c r="DJ25" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="DL25" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="DM25">
         <f>IF(DG25="", "", (DF25-DG25)*1000/(DE25-DE24))</f>
         <v/>
@@ -23052,16 +21322,6 @@
         <f>DS24</f>
         <v/>
       </c>
-      <c r="DV25" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="DX25" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="DY25">
         <f>IF(DS25="", "", (DR25-DS25)*1000/(DQ25-DQ24))</f>
         <v/>
@@ -23086,16 +21346,6 @@
         <f>EE24</f>
         <v/>
       </c>
-      <c r="EH25" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="EJ25" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="EK25">
         <f>IF(EE25="", "", (ED25-EE25)*1000/(EC25-EC24))</f>
         <v/>
@@ -23120,16 +21370,6 @@
         <f>EQ24</f>
         <v/>
       </c>
-      <c r="ET25" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="EV25" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="EW25">
         <f>IF(EQ25="", "", (EP25-EQ25)*1000/(EO25-EO24))</f>
         <v/>
@@ -23154,16 +21394,6 @@
         <f>FC24</f>
         <v/>
       </c>
-      <c r="FF25" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="FH25" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="FI25">
         <f>IF(FC25="", "", (FB25-FC25)*1000/(FA25-FA24))</f>
         <v/>
@@ -23188,16 +21418,6 @@
         <f>FO24</f>
         <v/>
       </c>
-      <c r="FR25" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="FT25" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="FU25">
         <f>IF(FO25="", "", (FN25-FO25)*1000/(FM25-FM24))</f>
         <v/>
@@ -23222,16 +21442,6 @@
         <f>GA24</f>
         <v/>
       </c>
-      <c r="GD25" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="GF25" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="GG25">
         <f>IF(GA25="", "", (FZ25-GA25)*1000/(FY25-FY24))</f>
         <v/>
@@ -23255,16 +21465,6 @@
       <c r="GL25">
         <f>GM24</f>
         <v/>
-      </c>
-      <c r="GP25" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="GR25" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
       </c>
       <c r="GS25">
         <f>IF(GM25="", "", (GL25-GM25)*1000/(GK25-GK24))</f>
@@ -23646,16 +21846,6 @@
         <f>DG25</f>
         <v/>
       </c>
-      <c r="DJ26" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="DL26" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="DM26">
         <f>IF(DG26="", "", (DF26-DG26)*1000/(DE26-DE25))</f>
         <v/>
@@ -23672,16 +21862,6 @@
         <f>DS25</f>
         <v/>
       </c>
-      <c r="DV26" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="DX26" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="DY26">
         <f>IF(DS26="", "", (DR26-DS26)*1000/(DQ26-DQ25))</f>
         <v/>
@@ -23698,16 +21878,6 @@
         <f>EE25</f>
         <v/>
       </c>
-      <c r="EH26" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="EJ26" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="EK26">
         <f>IF(EE26="", "", (ED26-EE26)*1000/(EC26-EC25))</f>
         <v/>
@@ -23724,16 +21894,6 @@
         <f>EQ25</f>
         <v/>
       </c>
-      <c r="ET26" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="EV26" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="EW26">
         <f>IF(EQ26="", "", (EP26-EQ26)*1000/(EO26-EO25))</f>
         <v/>
@@ -23750,16 +21910,6 @@
         <f>FC25</f>
         <v/>
       </c>
-      <c r="FF26" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="FH26" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="FI26">
         <f>IF(FC26="", "", (FB26-FC26)*1000/(FA26-FA25))</f>
         <v/>
@@ -23776,16 +21926,6 @@
         <f>FO25</f>
         <v/>
       </c>
-      <c r="FR26" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="FT26" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="FU26">
         <f>IF(FO26="", "", (FN26-FO26)*1000/(FM26-FM25))</f>
         <v/>
@@ -23802,16 +21942,6 @@
         <f>GA25</f>
         <v/>
       </c>
-      <c r="GD26" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="GF26" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="GG26">
         <f>IF(GA26="", "", (FZ26-GA26)*1000/(FY26-FY25))</f>
         <v/>
@@ -23827,16 +21957,6 @@
       <c r="GL26">
         <f>GM25</f>
         <v/>
-      </c>
-      <c r="GP26" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="GR26" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
       </c>
       <c r="GS26">
         <f>IF(GM26="", "", (GL26-GM26)*1000/(GK26-GK25))</f>
@@ -24170,16 +22290,6 @@
         <f>DG26</f>
         <v/>
       </c>
-      <c r="DJ27" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="DL27" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="DM27">
         <f>IF(DG27="", "", (DF27-DG27)*1000/(DE27-DE26))</f>
         <v/>
@@ -24196,16 +22306,6 @@
         <f>DS26</f>
         <v/>
       </c>
-      <c r="DV27" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="DX27" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="DY27">
         <f>IF(DS27="", "", (DR27-DS27)*1000/(DQ27-DQ26))</f>
         <v/>
@@ -24222,16 +22322,6 @@
         <f>EE26</f>
         <v/>
       </c>
-      <c r="EH27" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="EJ27" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="EK27">
         <f>IF(EE27="", "", (ED27-EE27)*1000/(EC27-EC26))</f>
         <v/>
@@ -24248,16 +22338,6 @@
         <f>EQ26</f>
         <v/>
       </c>
-      <c r="ET27" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="EV27" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="EW27">
         <f>IF(EQ27="", "", (EP27-EQ27)*1000/(EO27-EO26))</f>
         <v/>
@@ -24274,16 +22354,6 @@
         <f>FC26</f>
         <v/>
       </c>
-      <c r="FF27" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="FH27" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="FI27">
         <f>IF(FC27="", "", (FB27-FC27)*1000/(FA27-FA26))</f>
         <v/>
@@ -24300,16 +22370,6 @@
         <f>FO26</f>
         <v/>
       </c>
-      <c r="FR27" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="FT27" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="FU27">
         <f>IF(FO27="", "", (FN27-FO27)*1000/(FM27-FM26))</f>
         <v/>
@@ -24326,16 +22386,6 @@
         <f>GA26</f>
         <v/>
       </c>
-      <c r="GD27" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="GF27" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="GG27">
         <f>IF(GA27="", "", (FZ27-GA27)*1000/(FY27-FY26))</f>
         <v/>
@@ -24351,16 +22401,6 @@
       <c r="GL27">
         <f>GM26</f>
         <v/>
-      </c>
-      <c r="GP27" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="GR27" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
       </c>
       <c r="GS27">
         <f>IF(GM27="", "", (GL27-GM27)*1000/(GK27-GK26))</f>
@@ -24766,16 +22806,6 @@
         <f>DG27</f>
         <v/>
       </c>
-      <c r="DJ28" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="DL28" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="DM28">
         <f>IF(DG28="", "", (DF28-DG28)*1000/(DE28-DE27))</f>
         <v/>
@@ -24800,16 +22830,6 @@
         <f>DS27</f>
         <v/>
       </c>
-      <c r="DV28" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="DX28" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="DY28">
         <f>IF(DS28="", "", (DR28-DS28)*1000/(DQ28-DQ27))</f>
         <v/>
@@ -24834,16 +22854,6 @@
         <f>EE27</f>
         <v/>
       </c>
-      <c r="EH28" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="EJ28" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="EK28">
         <f>IF(EE28="", "", (ED28-EE28)*1000/(EC28-EC27))</f>
         <v/>
@@ -24868,16 +22878,6 @@
         <f>EQ27</f>
         <v/>
       </c>
-      <c r="ET28" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="EV28" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="EW28">
         <f>IF(EQ28="", "", (EP28-EQ28)*1000/(EO28-EO27))</f>
         <v/>
@@ -24902,16 +22902,6 @@
         <f>FC27</f>
         <v/>
       </c>
-      <c r="FF28" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="FH28" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="FI28">
         <f>IF(FC28="", "", (FB28-FC28)*1000/(FA28-FA27))</f>
         <v/>
@@ -24936,16 +22926,6 @@
         <f>FO27</f>
         <v/>
       </c>
-      <c r="FR28" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="FT28" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="FU28">
         <f>IF(FO28="", "", (FN28-FO28)*1000/(FM28-FM27))</f>
         <v/>
@@ -24970,16 +22950,6 @@
         <f>GA27</f>
         <v/>
       </c>
-      <c r="GD28" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="GF28" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="GG28">
         <f>IF(GA28="", "", (FZ28-GA28)*1000/(FY28-FY27))</f>
         <v/>
@@ -25003,16 +22973,6 @@
       <c r="GL28">
         <f>GM27</f>
         <v/>
-      </c>
-      <c r="GP28" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="GR28" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
       </c>
       <c r="GS28">
         <f>IF(GM28="", "", (GL28-GM28)*1000/(GK28-GK27))</f>
@@ -25160,16 +23120,6 @@
         <f>C28</f>
         <v/>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="I29">
         <f>IF(C29="", "", (B29-C29)*1000/(A29-A28))</f>
         <v/>
@@ -25186,16 +23136,6 @@
         <f>O28</f>
         <v/>
       </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="U29">
         <f>IF(O29="", "", (N29-O29)*1000/(M29-M28))</f>
         <v/>
@@ -25212,16 +23152,6 @@
         <f>AA28</f>
         <v/>
       </c>
-      <c r="AD29" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="AF29" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="AG29">
         <f>IF(AA29="", "", (Z29-AA29)*1000/(Y29-Y28))</f>
         <v/>
@@ -25238,16 +23168,6 @@
         <f>AM28</f>
         <v/>
       </c>
-      <c r="AP29" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="AR29" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="AS29">
         <f>IF(AM29="", "", (AL29-AM29)*1000/(AK29-AK28))</f>
         <v/>
@@ -25264,16 +23184,6 @@
         <f>AY28</f>
         <v/>
       </c>
-      <c r="BB29" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="BD29" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="BE29">
         <f>IF(AY29="", "", (AX29-AY29)*1000/(AW29-AW28))</f>
         <v/>
@@ -25290,16 +23200,6 @@
         <f>BK28</f>
         <v/>
       </c>
-      <c r="BN29" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="BP29" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="BQ29">
         <f>IF(BK29="", "", (BJ29-BK29)*1000/(BI29-BI28))</f>
         <v/>
@@ -25316,16 +23216,6 @@
         <f>BW28</f>
         <v/>
       </c>
-      <c r="BZ29" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="CB29" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="CC29">
         <f>IF(BW29="", "", (BV29-BW29)*1000/(BU29-BU28))</f>
         <v/>
@@ -25342,16 +23232,6 @@
         <f>CI28</f>
         <v/>
       </c>
-      <c r="CL29" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="CN29" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="CO29">
         <f>IF(CI29="", "", (CH29-CI29)*1000/(CG29-CG28))</f>
         <v/>
@@ -25368,16 +23248,6 @@
         <f>CU28</f>
         <v/>
       </c>
-      <c r="CX29" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="CZ29" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="DA29">
         <f>IF(CU29="", "", (CT29-CU29)*1000/(CS29-CS28))</f>
         <v/>
@@ -25394,16 +23264,6 @@
         <f>DG28</f>
         <v/>
       </c>
-      <c r="DJ29" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="DL29" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="DM29">
         <f>IF(DG29="", "", (DF29-DG29)*1000/(DE29-DE28))</f>
         <v/>
@@ -25420,16 +23280,6 @@
         <f>DS28</f>
         <v/>
       </c>
-      <c r="DV29" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="DX29" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="DY29">
         <f>IF(DS29="", "", (DR29-DS29)*1000/(DQ29-DQ28))</f>
         <v/>
@@ -25446,16 +23296,6 @@
         <f>EE28</f>
         <v/>
       </c>
-      <c r="EH29" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="EJ29" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="EK29">
         <f>IF(EE29="", "", (ED29-EE29)*1000/(EC29-EC28))</f>
         <v/>
@@ -25472,16 +23312,6 @@
         <f>EQ28</f>
         <v/>
       </c>
-      <c r="ET29" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="EV29" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="EW29">
         <f>IF(EQ29="", "", (EP29-EQ29)*1000/(EO29-EO28))</f>
         <v/>
@@ -25498,16 +23328,6 @@
         <f>FC28</f>
         <v/>
       </c>
-      <c r="FF29" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="FH29" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="FI29">
         <f>IF(FC29="", "", (FB29-FC29)*1000/(FA29-FA28))</f>
         <v/>
@@ -25524,16 +23344,6 @@
         <f>FO28</f>
         <v/>
       </c>
-      <c r="FR29" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="FT29" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="FU29">
         <f>IF(FO29="", "", (FN29-FO29)*1000/(FM29-FM28))</f>
         <v/>
@@ -25550,16 +23360,6 @@
         <f>GA28</f>
         <v/>
       </c>
-      <c r="GD29" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="GF29" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="GG29">
         <f>IF(GA29="", "", (FZ29-GA29)*1000/(FY29-FY28))</f>
         <v/>
@@ -25575,16 +23375,6 @@
       <c r="GL29">
         <f>GM28</f>
         <v/>
-      </c>
-      <c r="GP29" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="GR29" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
       </c>
       <c r="GS29">
         <f>IF(GM29="", "", (GL29-GM29)*1000/(GK29-GK28))</f>
